--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B1BE75-A0FC-41DF-B80A-7C3B702A27B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5817749F-937C-4062-A214-0C0970F41FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -131,6 +131,15 @@
   </si>
   <si>
     <t xml:space="preserve">Création des user et technical stories </t>
+  </si>
+  <si>
+    <t>Recherche du type de donnée (Voir technical Stories)</t>
+  </si>
+  <si>
+    <t>Explication projet par M.Carrel</t>
+  </si>
+  <si>
+    <t>Création d'un graphe</t>
   </si>
 </sst>
 </file>
@@ -1051,13 +1060,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>6.9444444444444441E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.0416666666666666E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1069,7 +1078,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,9 +1989,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:O532"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2035,7 +2044,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 0 heurs 0 minutes</v>
+        <v>0 jours 2 heurs 55 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2050,15 +2059,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2101,7 +2110,9 @@
         <v>45534</v>
       </c>
       <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
+      <c r="D7" s="45">
+        <v>15</v>
+      </c>
       <c r="E7" s="46" t="s">
         <v>6</v>
       </c>
@@ -2111,15 +2122,23 @@
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="str">
+      <c r="A8" s="8">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
-        <v/>
-      </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
+        <v>35</v>
+      </c>
+      <c r="B8" s="47">
+        <v>45534</v>
+      </c>
+      <c r="C8" s="48">
+        <v>1</v>
+      </c>
       <c r="D8" s="49"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="37"/>
+      <c r="E8" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="G8" s="16"/>
       <c r="M8" t="s">
         <v>3</v>
@@ -2132,15 +2151,25 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="17" t="str">
+      <c r="A9" s="17">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
-        <v/>
-      </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="37"/>
+        <v>35</v>
+      </c>
+      <c r="B9" s="51">
+        <v>45534</v>
+      </c>
+      <c r="C9" s="52">
+        <v>1</v>
+      </c>
+      <c r="D9" s="53">
+        <v>30</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>31</v>
+      </c>
       <c r="G9" s="18"/>
       <c r="M9" t="s">
         <v>4</v>
@@ -2153,15 +2182,23 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="str">
+      <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
-        <v/>
-      </c>
-      <c r="B10" s="47"/>
+        <v>35</v>
+      </c>
+      <c r="B10" s="47">
+        <v>45534</v>
+      </c>
       <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="37"/>
+      <c r="D10" s="49">
+        <v>10</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="16"/>
       <c r="M10" t="s">
         <v>5</v>
@@ -8601,7 +8638,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8609,7 +8646,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0</v>
+        <v>6.9444444444444441E-3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8637,7 +8674,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8645,7 +8682,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0416666666666666E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8701,7 +8738,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C11" s="40" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8709,7 +8746,7 @@
       </c>
       <c r="D11" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8718,7 +8755,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0</v>
+        <v>3.8194444444444448E-2</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8955,6 +8992,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -8963,15 +9009,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8994,6 +9031,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9002,12 +9047,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5817749F-937C-4062-A214-0C0970F41FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24CA1E0-3980-46D5-A04E-6122F39D8D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -139,7 +139,25 @@
     <t>Explication projet par M.Carrel</t>
   </si>
   <si>
-    <t>Création d'un graphe</t>
+    <t xml:space="preserve">Introduction par M.Carel + remplissage de la courde </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily scrum  (revue CDC + US iceScrum) </t>
+  </si>
+  <si>
+    <t>Création d'un graphe (essaie non réussis pour cause de temps car temps perdu pour trouver la librairie nécéssaire)</t>
+  </si>
+  <si>
+    <t>Création du premier graph grâce a ScottPlot (Petit problème rencontrer à cause d'un manque d'appelle dans une fonction)</t>
+  </si>
+  <si>
+    <t>Création de deux nouvelle storie sur iceScrum (Conversion date en jour de la semaine + Graphe à multiple ligne)</t>
+  </si>
+  <si>
+    <t>Création d'une méthode qui convertis une date en jour de la semaine</t>
+  </si>
+  <si>
+    <t>Tentative d'afficher un string sur l'axe x avec Scottplot</t>
   </si>
 </sst>
 </file>
@@ -1060,16 +1078,16 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9444444444444441E-3</c:v>
+                  <c:v>6.5972222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0416666666666666E-2</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3.472222222222222E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -1078,7 +1096,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,7 +2009,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2044,7 +2062,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 2 heurs 55 minutes</v>
+        <v>0 jours 4 heurs 55 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2063,11 +2081,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>55</v>
+        <v>175</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>175</v>
+        <v>295</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2181,7 +2199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>35</v>
@@ -2197,7 +2215,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G10" s="16"/>
       <c r="M10" t="s">
@@ -2211,15 +2229,23 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="str">
+      <c r="A11" s="17">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
-        <v/>
-      </c>
-      <c r="B11" s="51"/>
+        <v>36</v>
+      </c>
+      <c r="B11" s="51">
+        <v>45541</v>
+      </c>
       <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="37"/>
+      <c r="D11" s="53">
+        <v>15</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="18"/>
       <c r="M11" t="s">
         <v>6</v>
@@ -2232,15 +2258,23 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="str">
+      <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
-        <v/>
-      </c>
-      <c r="B12" s="47"/>
+        <v>36</v>
+      </c>
+      <c r="B12" s="47">
+        <v>45541</v>
+      </c>
       <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="37"/>
+      <c r="D12" s="49">
+        <v>5</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>33</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="M12" t="s">
         <v>7</v>
@@ -2252,16 +2286,24 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="str">
+    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
-        <v/>
-      </c>
-      <c r="B13" s="51"/>
+        <v>36</v>
+      </c>
+      <c r="B13" s="51">
+        <v>45541</v>
+      </c>
       <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="37"/>
+      <c r="D13" s="53">
+        <v>50</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>35</v>
+      </c>
       <c r="G13" s="18"/>
       <c r="M13" t="s">
         <v>8</v>
@@ -2273,16 +2315,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="str">
+    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
-        <v/>
-      </c>
-      <c r="B14" s="47"/>
+        <v>36</v>
+      </c>
+      <c r="B14" s="47">
+        <v>45541</v>
+      </c>
       <c r="C14" s="48"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="37"/>
+      <c r="D14" s="49">
+        <v>15</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="G14" s="16"/>
       <c r="M14" t="s">
         <v>21</v>
@@ -2295,15 +2345,23 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="str">
+      <c r="A15" s="17">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
-        <v/>
-      </c>
-      <c r="B15" s="51"/>
+        <v>36</v>
+      </c>
+      <c r="B15" s="51">
+        <v>45541</v>
+      </c>
       <c r="C15" s="52"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="37"/>
+      <c r="D15" s="53">
+        <v>15</v>
+      </c>
+      <c r="E15" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>37</v>
+      </c>
       <c r="G15" s="18"/>
       <c r="M15" t="s">
         <v>22</v>
@@ -2322,9 +2380,15 @@
       </c>
       <c r="B16" s="47"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="37"/>
+      <c r="D16" s="49">
+        <v>20</v>
+      </c>
+      <c r="E16" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="G16" s="16"/>
       <c r="O16">
         <v>40</v>
@@ -8638,7 +8702,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8646,7 +8710,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>6.9444444444444441E-3</v>
+        <v>6.5972222222222224E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8674,7 +8738,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8682,7 +8746,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>1.0416666666666666E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8692,7 +8756,7 @@
       </c>
       <c r="B8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C8" s="29" t="str">
         <f>'Journal de travail'!M12</f>
@@ -8700,7 +8764,7 @@
       </c>
       <c r="D8" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.472222222222222E-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8738,7 +8802,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C11" s="40" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8746,7 +8810,7 @@
       </c>
       <c r="D11" s="34">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8755,7 +8819,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>3.8194444444444448E-2</v>
+        <v>0.12152777777777778</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -8992,15 +9056,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9009,6 +9064,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9031,14 +9095,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9047,4 +9103,12 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24CA1E0-3980-46D5-A04E-6122F39D8D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D75506-2369-471E-AD61-60A8B4F6AAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="4590" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>Tentative d'afficher un string sur l'axe x avec Scottplot</t>
+  </si>
+  <si>
+    <t>Tentative d'afficher un string sur l'axe x avec Scottplot réussi</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1081,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.5972222222222224E-2</c:v>
+                  <c:v>0.1076388888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2008,8 +2011,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2062,7 +2065,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 4 heurs 55 minutes</v>
+        <v>0 jours 5 heurs 55 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2077,7 +2080,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -2085,7 +2088,7 @@
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>295</v>
+        <v>355</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2374,11 +2377,13 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="str">
+      <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
-        <v/>
-      </c>
-      <c r="B16" s="47"/>
+        <v>36</v>
+      </c>
+      <c r="B16" s="47">
+        <v>45541</v>
+      </c>
       <c r="C16" s="48"/>
       <c r="D16" s="49">
         <v>20</v>
@@ -2395,15 +2400,23 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="str">
+      <c r="A17" s="17">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
-        <v/>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
+        <v>37</v>
+      </c>
+      <c r="B17" s="51">
+        <v>45548</v>
+      </c>
+      <c r="C17" s="52">
+        <v>1</v>
+      </c>
       <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="37"/>
+      <c r="E17" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>39</v>
+      </c>
       <c r="G17" s="18"/>
       <c r="O17">
         <v>45</v>
@@ -8698,7 +8711,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -8710,7 +8723,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>6.5972222222222224E-2</v>
+        <v>0.1076388888888889</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8819,7 +8832,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.12152777777777778</v>
+        <v>0.16319444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9056,6 +9069,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9064,15 +9086,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9095,6 +9108,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9103,12 +9124,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D75506-2369-471E-AD61-60A8B4F6AAAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C350A09-CBF5-4AB0-9345-54B45A067240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="4590" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -160,7 +160,10 @@
     <t>Tentative d'afficher un string sur l'axe x avec Scottplot</t>
   </si>
   <si>
-    <t>Tentative d'afficher un string sur l'axe x avec Scottplot réussi</t>
+    <t>Tentative d'afficher un string sur l'axe x avec Scottplot réussi (problème rencontrer du a un changement dans la version de la libraire ayant changer le nom de certaine methode beaucoup de recherche ont du être faites)</t>
+  </si>
+  <si>
+    <t>Refactorisation du tableau "nbPoint" en liste (factorisation nécessitant l'ajout d'une methode pour passer les valeur de la liste dans un tableau pour l'affichage du graph)</t>
   </si>
 </sst>
 </file>
@@ -1081,7 +1084,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1076388888888889</c:v>
+                  <c:v>0.11805555555555555</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2011,8 +2014,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2065,7 +2068,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 5 heurs 55 minutes</v>
+        <v>0 jours 6 heurs 9 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2084,11 +2087,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>355</v>
+        <v>370</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2399,7 +2402,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v>37</v>
@@ -2422,16 +2425,24 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="str">
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
-        <v/>
-      </c>
-      <c r="B18" s="47"/>
+        <v>37</v>
+      </c>
+      <c r="B18" s="47">
+        <v>45548</v>
+      </c>
       <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="37"/>
+      <c r="D18" s="49">
+        <v>15</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="37" t="s">
+        <v>40</v>
+      </c>
       <c r="G18" s="16"/>
       <c r="O18">
         <v>50</v>
@@ -8715,7 +8726,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8723,7 +8734,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.1076388888888889</v>
+        <v>0.11805555555555555</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8832,7 +8843,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.16319444444444445</v>
+        <v>0.1736111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9069,15 +9080,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9086,6 +9088,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9108,14 +9119,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9124,4 +9127,12 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C350A09-CBF5-4AB0-9345-54B45A067240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D6BB85-7882-40C4-9FED-7E58FFFD858E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="4590" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>Refactorisation du tableau "nbPoint" en liste (factorisation nécessitant l'ajout d'une methode pour passer les valeur de la liste dans un tableau pour l'affichage du graph)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactorisation du code du graphe afin qu'il puisse afficher plusieur équipes </t>
   </si>
 </sst>
 </file>
@@ -1084,7 +1087,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.11805555555555555</c:v>
+                  <c:v>0.1388888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2015,7 +2018,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2068,7 +2071,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 6 heurs 9 minutes</v>
+        <v>0 jours 6 heurs 40 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2087,11 +2090,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2449,15 +2452,23 @@
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="17" t="str">
+      <c r="A19" s="17">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
-        <v/>
-      </c>
-      <c r="B19" s="51"/>
+        <v>37</v>
+      </c>
+      <c r="B19" s="51">
+        <v>45548</v>
+      </c>
       <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="37"/>
+      <c r="D19" s="53">
+        <v>30</v>
+      </c>
+      <c r="E19" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>41</v>
+      </c>
       <c r="G19" s="18"/>
       <c r="O19">
         <v>55</v>
@@ -8726,7 +8737,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8734,7 +8745,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.11805555555555555</v>
+        <v>0.1388888888888889</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8843,7 +8854,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.1736111111111111</v>
+        <v>0.19444444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9080,6 +9091,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9088,15 +9108,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9119,6 +9130,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9127,12 +9146,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98D6BB85-7882-40C4-9FED-7E58FFFD858E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5BDF6D-4CBE-4197-B8CD-4D4BB87FFCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="4590" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -167,6 +167,12 @@
   </si>
   <si>
     <t xml:space="preserve">Refactorisation du code du graphe afin qu'il puisse afficher plusieur équipes </t>
+  </si>
+  <si>
+    <t>Création de la classe team et refactorisation du code afin qu'il utilise la liste des score de la classe team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appel a une api oke </t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1093,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1388888888888889</c:v>
+                  <c:v>0.1736111111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2018,7 +2024,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2071,7 +2077,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 6 heurs 40 minutes</v>
+        <v>0 jours 7 heurs 30 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2090,11 +2096,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>220</v>
+        <v>270</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2474,28 +2480,44 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="str">
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
-        <v/>
-      </c>
-      <c r="B20" s="47"/>
+        <v>37</v>
+      </c>
+      <c r="B20" s="47">
+        <v>45548</v>
+      </c>
       <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="37"/>
+      <c r="D20" s="49">
+        <v>10</v>
+      </c>
+      <c r="E20" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>42</v>
+      </c>
       <c r="G20" s="16"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="17" t="str">
+      <c r="A21" s="17">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
-        <v/>
-      </c>
-      <c r="B21" s="51"/>
+        <v>37</v>
+      </c>
+      <c r="B21" s="51">
+        <v>45548</v>
+      </c>
       <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="37"/>
+      <c r="D21" s="53">
+        <v>40</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="37" t="s">
+        <v>43</v>
+      </c>
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -8737,7 +8759,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8745,7 +8767,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.1388888888888889</v>
+        <v>0.1736111111111111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8854,7 +8876,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.19444444444444445</v>
+        <v>0.22916666666666666</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5BDF6D-4CBE-4197-B8CD-4D4BB87FFCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F93D16-380A-412D-86B6-52714A95E5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t xml:space="preserve">Appel a une api oke </t>
+  </si>
+  <si>
+    <t>Absence</t>
+  </si>
+  <si>
+    <t>Discussion avec le prof sur l'evolution du métier</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1117,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>3.8194444444444448E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2024,7 +2030,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2077,7 +2083,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 7 heurs 30 minutes</v>
+        <v>0 jours 10 heurs 40 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2092,15 +2098,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>180</v>
+        <v>360</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>450</v>
+        <v>640</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2521,27 +2527,43 @@
       <c r="G21" s="18"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="str">
+      <c r="A22" s="8">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
-        <v/>
-      </c>
-      <c r="B22" s="47"/>
-      <c r="C22" s="48"/>
+        <v>38</v>
+      </c>
+      <c r="B22" s="47">
+        <v>45555</v>
+      </c>
+      <c r="C22" s="48">
+        <v>3</v>
+      </c>
       <c r="D22" s="49"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="37"/>
+      <c r="E22" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>44</v>
+      </c>
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="17" t="str">
+      <c r="A23" s="17">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
-        <v/>
-      </c>
-      <c r="B23" s="51"/>
+        <v>39</v>
+      </c>
+      <c r="B23" s="51">
+        <v>45562</v>
+      </c>
       <c r="C23" s="52"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="37"/>
+      <c r="D23" s="53">
+        <v>10</v>
+      </c>
+      <c r="E23" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>45</v>
+      </c>
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -8859,7 +8881,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C11" s="40" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8867,7 +8889,7 @@
       </c>
       <c r="D11" s="34">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>3.8194444444444448E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -8876,7 +8898,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.22916666666666666</v>
+        <v>0.2361111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9113,15 +9135,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9130,6 +9143,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9152,14 +9174,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9168,4 +9182,12 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F93D16-380A-412D-86B6-52714A95E5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A909169D-547F-4CA9-A478-A2AE6D1528E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Discussion avec le prof sur l'evolution du métier</t>
+  </si>
+  <si>
+    <t>Ajout d'un fichier CSV contenant les données des équipes</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1102,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1736111111111111</c:v>
+                  <c:v>0.19791666666666666</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2030,7 +2033,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2086,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 10 heurs 40 minutes</v>
+        <v>0 jours 11 heurs 15 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2102,11 +2105,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>640</v>
+        <v>675</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2567,15 +2570,23 @@
       <c r="G23" s="18"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="str">
+      <c r="A24" s="8">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
-        <v/>
-      </c>
-      <c r="B24" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="B24" s="47">
+        <v>45562</v>
+      </c>
       <c r="C24" s="48"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="37"/>
+      <c r="D24" s="49">
+        <v>35</v>
+      </c>
+      <c r="E24" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>46</v>
+      </c>
       <c r="G24" s="16"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -8781,7 +8792,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8789,7 +8800,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.1736111111111111</v>
+        <v>0.19791666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8898,7 +8909,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.2361111111111111</v>
+        <v>0.26041666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9135,6 +9146,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9143,15 +9163,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9174,6 +9185,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9182,12 +9201,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A909169D-547F-4CA9-A478-A2AE6D1528E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F759E1AA-6B62-4F5B-ACC9-64236B6BF6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>Ajout d'un fichier CSV contenant les données des équipes</t>
+  </si>
+  <si>
+    <t>Ajout de la methode getAllTeams qui permet de récupéer toutes les équipe de la nba en lisant le fichier CSV</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1105,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.19791666666666666</c:v>
+                  <c:v>0.22569444444444445</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2033,7 +2036,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F29:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2089,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 11 heurs 15 minutes</v>
+        <v>0 jours 11 heurs 55 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2105,11 +2108,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>675</v>
+        <v>715</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2589,16 +2592,24 @@
       </c>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="17" t="str">
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
-        <v/>
-      </c>
-      <c r="B25" s="51"/>
+        <v>39</v>
+      </c>
+      <c r="B25" s="51">
+        <v>45562</v>
+      </c>
       <c r="C25" s="52"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="37"/>
+      <c r="D25" s="53">
+        <v>40</v>
+      </c>
+      <c r="E25" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>47</v>
+      </c>
       <c r="G25" s="18"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -8792,7 +8803,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8800,7 +8811,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.19791666666666666</v>
+        <v>0.22569444444444445</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8909,7 +8920,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.26041666666666663</v>
+        <v>0.28819444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9146,15 +9157,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9163,6 +9165,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9185,14 +9196,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9201,4 +9204,12 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F759E1AA-6B62-4F5B-ACC9-64236B6BF6C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5612B41E-2D6E-42F0-8EE5-066FEF60BA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>Ajout de la methode getAllTeams qui permet de récupéer toutes les équipe de la nba en lisant le fichier CSV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajout de la methode getTeamsStats qui permet de récupérer pour chaque équipe NBA leur statistique pour la saison </t>
   </si>
 </sst>
 </file>
@@ -1105,7 +1108,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.22569444444444445</c:v>
+                  <c:v>0.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2036,7 +2039,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F29:F30"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2089,7 +2092,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 11 heurs 55 minutes</v>
+        <v>0 jours 12 heurs 30 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2108,11 +2111,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>715</v>
+        <v>750</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2612,16 +2615,24 @@
       </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="str">
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
-        <v/>
-      </c>
-      <c r="B26" s="47"/>
+        <v>39</v>
+      </c>
+      <c r="B26" s="47">
+        <v>45562</v>
+      </c>
       <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="37"/>
+      <c r="D26" s="49">
+        <v>35</v>
+      </c>
+      <c r="E26" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>48</v>
+      </c>
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -8803,7 +8814,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8811,7 +8822,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.22569444444444445</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8920,7 +8931,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.28819444444444442</v>
+        <v>0.3125</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9157,6 +9168,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9165,15 +9185,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9196,6 +9207,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9204,12 +9223,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5612B41E-2D6E-42F0-8EE5-066FEF60BA7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F67AE90-C720-47D8-9469-252B183CA6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ajout de la methode getTeamsStats qui permet de récupérer pour chaque équipe NBA leur statistique pour la saison </t>
+  </si>
+  <si>
+    <t>Essaie de conversion de la date en string du CSV en format numéros du jour de la semaine ()</t>
   </si>
 </sst>
 </file>
@@ -1108,7 +1111,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25</c:v>
+                  <c:v>0.27777777777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2092,7 +2095,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 12 heurs 30 minutes</v>
+        <v>0 jours 13 heurs 10 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2111,11 +2114,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>750</v>
+        <v>790</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2636,15 +2639,23 @@
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="str">
+      <c r="A27" s="17">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
-        <v/>
-      </c>
-      <c r="B27" s="51"/>
+        <v>39</v>
+      </c>
+      <c r="B27" s="51">
+        <v>45562</v>
+      </c>
       <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="37"/>
+      <c r="D27" s="53">
+        <v>40</v>
+      </c>
+      <c r="E27" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>49</v>
+      </c>
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -8814,7 +8825,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8822,7 +8833,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.25</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8931,7 +8942,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.3125</v>
+        <v>0.34027777777777779</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9168,15 +9179,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9185,6 +9187,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9207,14 +9218,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9223,4 +9226,12 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F67AE90-C720-47D8-9469-252B183CA6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87622EFF-04EF-410D-98EC-AE0B00B39603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="31500" yWindow="3345" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -191,6 +191,9 @@
   </si>
   <si>
     <t>Essaie de conversion de la date en string du CSV en format numéros du jour de la semaine ()</t>
+  </si>
+  <si>
+    <t>Récupération dans une liste d'équipe l'équipe ainsi que son score et le jour du match</t>
   </si>
 </sst>
 </file>
@@ -1111,7 +1114,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.3298611111111111</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2041,8 +2044,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2095,7 +2098,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 13 heurs 10 minutes</v>
+        <v>0 jours 14 heurs 25 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2110,15 +2113,15 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>790</v>
+        <v>865</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2659,15 +2662,25 @@
       <c r="G27" s="18"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="str">
+      <c r="A28" s="8">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
-        <v/>
-      </c>
-      <c r="B28" s="47"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="50"/>
-      <c r="F28" s="36"/>
+        <v>40</v>
+      </c>
+      <c r="B28" s="47">
+        <v>45568</v>
+      </c>
+      <c r="C28" s="48">
+        <v>1</v>
+      </c>
+      <c r="D28" s="49">
+        <v>15</v>
+      </c>
+      <c r="E28" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -8821,11 +8834,11 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8833,7 +8846,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.27777777777777779</v>
+        <v>0.3298611111111111</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8942,7 +8955,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.34027777777777779</v>
+        <v>0.39236111111111105</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9179,6 +9192,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9187,15 +9209,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9218,6 +9231,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9226,12 +9247,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87622EFF-04EF-410D-98EC-AE0B00B39603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3528E4E-B0C4-474E-BE98-BE9F7C2614A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="31500" yWindow="3345" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>Récupération dans une liste d'équipe l'équipe ainsi que son score et le jour du match</t>
+  </si>
+  <si>
+    <t>M.Carrel nous a donné des feedback sur l'avancé des projets (Besoin d'avancer sur la documentation)</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1126,7 @@
                   <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.472222222222222E-3</c:v>
+                  <c:v>1.3888888888888888E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2044,8 +2047,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2098,7 +2101,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 14 heurs 25 minutes</v>
+        <v>0 jours 14 heurs 40 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2117,11 +2120,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>445</v>
+        <v>460</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>865</v>
+        <v>880</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2684,15 +2687,23 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="17" t="str">
+      <c r="A29" s="17">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
-        <v/>
-      </c>
-      <c r="B29" s="51"/>
+        <v>40</v>
+      </c>
+      <c r="B29" s="51">
+        <v>45569</v>
+      </c>
       <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="36"/>
+      <c r="D29" s="53">
+        <v>15</v>
+      </c>
+      <c r="E29" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>51</v>
+      </c>
       <c r="G29" s="18"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -8892,7 +8903,7 @@
       </c>
       <c r="B8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$D$7:$D$532)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C8" s="29" t="str">
         <f>'Journal de travail'!M12</f>
@@ -8900,7 +8911,7 @@
       </c>
       <c r="D8" s="34">
         <f t="shared" si="0"/>
-        <v>3.472222222222222E-3</v>
+        <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -8955,7 +8966,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.39236111111111105</v>
+        <v>0.40277777777777779</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9192,15 +9203,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9209,6 +9211,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9231,14 +9242,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9247,4 +9250,12 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3528E4E-B0C4-474E-BE98-BE9F7C2614A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB61F70A-FF88-4B01-BA3C-5FA8ADD1035B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>M.Carrel nous a donné des feedback sur l'avancé des projets (Besoin d'avancer sur la documentation)</t>
+  </si>
+  <si>
+    <t>Fix de la méthode GetTeamStructure (Bug: La séléction des données était éronnée et attribuait le score de l'équipe à domicil si l'équipe jouait à l'extérieur)</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1120,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.3298611111111111</c:v>
+                  <c:v>0.33680555555555558</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2048,7 +2051,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F28" sqref="F28"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2101,7 +2104,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 14 heurs 40 minutes</v>
+        <v>0 jours 14 heurs 50 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2120,11 +2123,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2706,16 +2709,24 @@
       </c>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="str">
+    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="8">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
-        <v/>
-      </c>
-      <c r="B30" s="47"/>
+        <v>40</v>
+      </c>
+      <c r="B30" s="47">
+        <v>45569</v>
+      </c>
       <c r="C30" s="48"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="37"/>
+      <c r="D30" s="49">
+        <v>10</v>
+      </c>
+      <c r="E30" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>52</v>
+      </c>
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -8849,7 +8860,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8857,7 +8868,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.3298611111111111</v>
+        <v>0.33680555555555558</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8966,7 +8977,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.40277777777777779</v>
+        <v>0.40972222222222221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB61F70A-FF88-4B01-BA3C-5FA8ADD1035B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7F7595-90BB-4753-9D11-B2D699B13417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>Fix de la méthode GetTeamStructure (Bug: La séléction des données était éronnée et attribuait le score de l'équipe à domicil si l'équipe jouait à l'extérieur)</t>
+  </si>
+  <si>
+    <t>Feat: Affichage des ligne pour chaque équipe sur le graphe</t>
   </si>
 </sst>
 </file>
@@ -383,7 +386,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -510,11 +513,89 @@
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -683,80 +764,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1120,7 +1127,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.33680555555555558</c:v>
+                  <c:v>0.37152777777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1844,18 +1851,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2050,8 +2057,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2104,7 +2111,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 14 heurs 50 minutes</v>
+        <v>0 jours 15 heurs 40 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2123,11 +2130,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>470</v>
+        <v>520</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>890</v>
+        <v>940</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2730,15 +2737,23 @@
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="17" t="str">
+      <c r="A31" s="17">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
-        <v/>
-      </c>
-      <c r="B31" s="51"/>
+        <v>40</v>
+      </c>
+      <c r="B31" s="51">
+        <v>45569</v>
+      </c>
       <c r="C31" s="52"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="36"/>
+      <c r="D31" s="53">
+        <v>50</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>53</v>
+      </c>
       <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2750,7 +2765,7 @@
       <c r="C32" s="48"/>
       <c r="D32" s="49"/>
       <c r="E32" s="50"/>
-      <c r="F32" s="37"/>
+      <c r="F32" s="57"/>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -8760,28 +8775,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8860,7 +8875,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>365</v>
+        <v>415</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8868,7 +8883,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.33680555555555558</v>
+        <v>0.37152777777777779</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -8977,7 +8992,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.40972222222222221</v>
+        <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7F7595-90BB-4753-9D11-B2D699B13417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2251FA2D-E3EA-4784-965E-9F27128D0ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Feat: Affichage des ligne pour chaque équipe sur le graphe</t>
+  </si>
+  <si>
+    <t>Création US</t>
   </si>
 </sst>
 </file>
@@ -1124,7 +1127,7 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.37152777777777779</c:v>
@@ -2058,7 +2061,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2111,7 +2114,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 15 heurs 40 minutes</v>
+        <v>0 jours 16 heurs 39 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2126,7 +2129,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -2134,7 +2137,7 @@
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>940</v>
+        <v>1000</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2757,15 +2760,23 @@
       <c r="G31" s="18"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="str">
+      <c r="A32" s="8">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
-        <v/>
-      </c>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
+        <v>40</v>
+      </c>
+      <c r="B32" s="47">
+        <v>45569</v>
+      </c>
+      <c r="C32" s="48">
+        <v>1</v>
+      </c>
       <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="57"/>
+      <c r="E32" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>54</v>
+      </c>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -8853,7 +8864,7 @@
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
@@ -8865,7 +8876,7 @@
       </c>
       <c r="D4" s="34">
         <f>(A4+B4)/1440</f>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -8992,7 +9003,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.44444444444444442</v>
+        <v>0.48611111111111116</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2251FA2D-E3EA-4784-965E-9F27128D0ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46785901-E282-42BD-840D-D4FB1C5C0E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Création US</t>
+  </si>
+  <si>
+    <t>Mise à jour VS</t>
   </si>
 </sst>
 </file>
@@ -509,6 +512,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -516,89 +523,11 @@
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -767,6 +696,80 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1148,7 +1151,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8194444444444448E-2</c:v>
+                  <c:v>5.9027777777777776E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1854,18 +1857,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2061,7 +2064,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2096,11 +2099,11 @@
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2114,7 +2117,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 16 heurs 39 minutes</v>
+        <v>0 jours 17 heurs 10 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2133,20 +2136,20 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1000</v>
+        <v>1030</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="57"/>
     </row>
     <row r="6" spans="1:15" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
@@ -2774,21 +2777,29 @@
       <c r="E32" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="55" t="s">
         <v>54</v>
       </c>
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="str">
+      <c r="A33" s="17">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
-        <v/>
-      </c>
-      <c r="B33" s="51"/>
+        <v>40</v>
+      </c>
+      <c r="B33" s="51">
+        <v>45570</v>
+      </c>
       <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="36"/>
+      <c r="D33" s="53">
+        <v>30</v>
+      </c>
+      <c r="E33" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>55</v>
+      </c>
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -8786,28 +8797,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="7" priority="1">
+    <cfRule type="expression" dxfId="16" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8986,7 +8997,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C11" s="40" t="str">
         <f>'Journal de travail'!M15</f>
@@ -8994,7 +9005,7 @@
       </c>
       <c r="D11" s="34">
         <f t="shared" si="0"/>
-        <v>3.8194444444444448E-2</v>
+        <v>5.9027777777777776E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -9003,7 +9014,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.48611111111111116</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9240,6 +9251,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9248,15 +9268,6 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9279,6 +9290,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9287,12 +9306,4 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46785901-E282-42BD-840D-D4FB1C5C0E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D58BD-C0F6-44A6-A9E2-53AEF76E9F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>Mise à jour VS</t>
+  </si>
+  <si>
+    <t>Tentaive de rendre les legendes cliquable (Non réussite)</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1136,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.37152777777777779</c:v>
+                  <c:v>0.38541666666666669</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2064,7 +2067,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2120,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 17 heurs 10 minutes</v>
+        <v>0 jours 17 heurs 30 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2136,11 +2139,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1030</v>
+        <v>1050</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2803,15 +2806,23 @@
       <c r="G33" s="18"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="str">
+      <c r="A34" s="8">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
-        <v/>
-      </c>
-      <c r="B34" s="47"/>
+        <v>40</v>
+      </c>
+      <c r="B34" s="47">
+        <v>45570</v>
+      </c>
       <c r="C34" s="48"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="36"/>
+      <c r="D34" s="49">
+        <v>20</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>56</v>
+      </c>
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -8897,7 +8908,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>415</v>
+        <v>435</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -8905,7 +8916,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.37152777777777779</v>
+        <v>0.38541666666666669</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9014,7 +9025,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.50694444444444442</v>
+        <v>0.52083333333333337</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7D58BD-C0F6-44A6-A9E2-53AEF76E9F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9DD9FD-CD5C-4E98-9AAE-68BA42C21C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -211,7 +211,10 @@
     <t>Mise à jour VS</t>
   </si>
   <si>
-    <t>Tentaive de rendre les legendes cliquable (Non réussite)</t>
+    <t>Tentative de rendre les legendes cliquable (Non réussite)</t>
+  </si>
+  <si>
+    <t>Feat: Mise en place du filtre par équipe</t>
   </si>
 </sst>
 </file>
@@ -1136,7 +1139,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.38541666666666669</c:v>
+                  <c:v>0.46875</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2067,7 +2070,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2120,7 +2123,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 17 heurs 30 minutes</v>
+        <v>0 jours 19 heurs 30 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2135,7 +2138,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>480</v>
+        <v>600</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -2143,7 +2146,7 @@
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1050</v>
+        <v>1170</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2826,15 +2829,23 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="17" t="str">
+      <c r="A35" s="17">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
-        <v/>
-      </c>
-      <c r="B35" s="51"/>
-      <c r="C35" s="52"/>
+        <v>40</v>
+      </c>
+      <c r="B35" s="51">
+        <v>45570</v>
+      </c>
+      <c r="C35" s="52">
+        <v>2</v>
+      </c>
       <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="37"/>
+      <c r="E35" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>57</v>
+      </c>
       <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -8904,7 +8915,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -8916,7 +8927,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.38541666666666669</v>
+        <v>0.46875</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9025,7 +9036,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.52083333333333337</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C9DD9FD-CD5C-4E98-9AAE-68BA42C21C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEF2179-8B79-4CF7-80EB-933644236049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="4590" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>Feat: Mise en place du filtre par équipe</t>
+  </si>
+  <si>
+    <t>Revue du test pratique avec le prof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revue/correction des user stories </t>
   </si>
 </sst>
 </file>
@@ -1145,10 +1151,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3888888888888888E-2</c:v>
+                  <c:v>2.0833333333333332E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2069,8 +2075,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F36" sqref="F36"/>
+      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2123,7 +2129,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 19 heurs 30 minutes</v>
+        <v>0 jours 19 heurs 49 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2142,11 +2148,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>570</v>
+        <v>590</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1170</v>
+        <v>1190</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2849,27 +2855,43 @@
       <c r="G35" s="18"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="str">
+      <c r="A36" s="8">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
-        <v/>
-      </c>
-      <c r="B36" s="47"/>
+        <v>41</v>
+      </c>
+      <c r="B36" s="47">
+        <v>45576</v>
+      </c>
       <c r="C36" s="48"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="36"/>
+      <c r="D36" s="49">
+        <v>10</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="36" t="s">
+        <v>58</v>
+      </c>
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="str">
+      <c r="A37" s="17">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
-        <v/>
-      </c>
-      <c r="B37" s="51"/>
+        <v>41</v>
+      </c>
+      <c r="B37" s="51">
+        <v>45576</v>
+      </c>
       <c r="C37" s="52"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="36"/>
+      <c r="D37" s="53">
+        <v>10</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F37" s="36" t="s">
+        <v>59</v>
+      </c>
       <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -8955,7 +8977,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8963,7 +8985,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -8973,7 +8995,7 @@
       </c>
       <c r="B8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$D$7:$D$532)</f>
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C8" s="29" t="str">
         <f>'Journal de travail'!M12</f>
@@ -8981,7 +9003,7 @@
       </c>
       <c r="D8" s="34">
         <f t="shared" si="0"/>
-        <v>1.3888888888888888E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -9036,7 +9058,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.60416666666666663</v>
+        <v>0.61805555555555558</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9273,15 +9295,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
@@ -9290,6 +9303,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9312,14 +9334,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9328,4 +9342,12 @@
     <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEF2179-8B79-4CF7-80EB-933644236049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64A5A39-EE17-4069-BD4E-32E1E95B7652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="4590" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t xml:space="preserve">Revue/correction des user stories </t>
+  </si>
+  <si>
+    <t>Le prof nous a présenter IceTools</t>
   </si>
 </sst>
 </file>
@@ -1154,7 +1157,7 @@
                   <c:v>2.7777777777777776E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -2076,7 +2079,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2129,7 +2132,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 19 heurs 49 minutes</v>
+        <v>0 jours 20 heurs 5 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2148,11 +2151,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1190</v>
+        <v>1205</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2895,15 +2898,23 @@
       <c r="G37" s="18"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="str">
+      <c r="A38" s="8">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
-        <v/>
-      </c>
-      <c r="B38" s="47"/>
+        <v>41</v>
+      </c>
+      <c r="B38" s="47">
+        <v>45576</v>
+      </c>
       <c r="C38" s="48"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="36"/>
+      <c r="D38" s="49">
+        <v>15</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="G38" s="16"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -8995,7 +9006,7 @@
       </c>
       <c r="B8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$D$7:$D$532)</f>
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C8" s="29" t="str">
         <f>'Journal de travail'!M12</f>
@@ -9003,7 +9014,7 @@
       </c>
       <c r="D8" s="34">
         <f t="shared" si="0"/>
-        <v>2.0833333333333332E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -9058,7 +9069,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.61805555555555558</v>
+        <v>0.62847222222222221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64A5A39-EE17-4069-BD4E-32E1E95B7652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23B2A5F-BE33-40B9-B808-7BFDAE4995A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="3540" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -225,6 +225,9 @@
   <si>
     <t>Le prof nous a présenter IceTools</t>
   </si>
+  <si>
+    <t>Ecriture de l'introduction de l'analyse prélininaire du rapport</t>
+  </si>
 </sst>
 </file>
 
@@ -238,7 +241,7 @@
     <numFmt numFmtId="168" formatCode="00\ &quot;min&quot;"/>
     <numFmt numFmtId="169" formatCode="hh\ &quot;h&quot;\ mm\ &quot;min&quot;"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -316,6 +319,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF24292E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -407,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -537,6 +546,10 @@
     </xf>
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1154,7 +1167,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.7777777777777776E-2</c:v>
+                  <c:v>3.125E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.125E-2</c:v>
@@ -2079,7 +2092,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F41" sqref="F41"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2132,7 +2145,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 20 heurs 5 minutes</v>
+        <v>0 jours 20 heurs 10 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2151,11 +2164,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1205</v>
+        <v>1210</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2917,16 +2930,24 @@
       </c>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="17" t="str">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
-        <v/>
-      </c>
-      <c r="B39" s="51"/>
+        <v>41</v>
+      </c>
+      <c r="B39" s="51">
+        <v>45576</v>
+      </c>
       <c r="C39" s="52"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="36"/>
+      <c r="D39" s="53">
+        <v>5</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F39" s="58" t="s">
+        <v>61</v>
+      </c>
       <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8988,7 +9009,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -8996,7 +9017,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>2.7777777777777776E-2</v>
+        <v>3.125E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9069,7 +9090,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.62847222222222221</v>
+        <v>0.63194444444444442</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23B2A5F-BE33-40B9-B808-7BFDAE4995A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857BED6A-8547-493E-985B-C0834B8724C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -227,6 +227,12 @@
   </si>
   <si>
     <t>Ecriture de l'introduction de l'analyse prélininaire du rapport</t>
+  </si>
+  <si>
+    <t>Ecriture de la partie objectif de l'analyse préliminaire</t>
+  </si>
+  <si>
+    <t>Ecriture de la partie gestion de l'analyse préliminaire</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1173,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.125E-2</c:v>
+                  <c:v>4.5138888888888888E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.125E-2</c:v>
@@ -2091,8 +2097,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2145,7 +2151,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 20 heurs 10 minutes</v>
+        <v>0 jours 20 heurs 30 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2164,11 +2170,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>610</v>
+        <v>630</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1210</v>
+        <v>1230</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2951,27 +2957,43 @@
       <c r="G39" s="18"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="str">
+      <c r="A40" s="8">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
-        <v/>
-      </c>
-      <c r="B40" s="47"/>
+        <v>41</v>
+      </c>
+      <c r="B40" s="47">
+        <v>45576</v>
+      </c>
       <c r="C40" s="48"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="36"/>
+      <c r="D40" s="49">
+        <v>10</v>
+      </c>
+      <c r="E40" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" s="36" t="s">
+        <v>62</v>
+      </c>
       <c r="G40" s="16"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="str">
+      <c r="A41" s="17">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
-        <v/>
-      </c>
-      <c r="B41" s="51"/>
+        <v>41</v>
+      </c>
+      <c r="B41" s="51">
+        <v>45576</v>
+      </c>
       <c r="C41" s="52"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="36"/>
+      <c r="D41" s="53">
+        <v>10</v>
+      </c>
+      <c r="E41" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" s="36" t="s">
+        <v>63</v>
+      </c>
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -9009,7 +9031,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -9017,7 +9039,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>3.125E-2</v>
+        <v>4.5138888888888888E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9090,7 +9112,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.63194444444444442</v>
+        <v>0.64583333333333326</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857BED6A-8547-493E-985B-C0834B8724C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2350E8-396D-4CD2-94E9-0E6C5E0708BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -233,6 +233,9 @@
   </si>
   <si>
     <t>Ecriture de la partie gestion de l'analyse préliminaire</t>
+  </si>
+  <si>
+    <t>Pause</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1188,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.9027777777777776E-2</c:v>
+                  <c:v>6.9444444444444448E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2098,7 +2101,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2151,7 +2154,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 20 heurs 30 minutes</v>
+        <v>0 jours 20 heurs 45 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2170,11 +2173,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1230</v>
+        <v>1245</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2997,15 +3000,23 @@
       <c r="G41" s="18"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="str">
+      <c r="A42" s="8">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
-        <v/>
-      </c>
-      <c r="B42" s="47"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="47">
+        <v>45576</v>
+      </c>
       <c r="C42" s="48"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="36"/>
+      <c r="D42" s="49">
+        <v>15</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F42" s="36" t="s">
+        <v>64</v>
+      </c>
       <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -9095,7 +9106,7 @@
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C11" s="40" t="str">
         <f>'Journal de travail'!M15</f>
@@ -9103,7 +9114,7 @@
       </c>
       <c r="D11" s="34">
         <f t="shared" si="0"/>
-        <v>5.9027777777777776E-2</v>
+        <v>6.9444444444444448E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -9112,7 +9123,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.64583333333333326</v>
+        <v>0.65624999999999989</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2350E8-396D-4CD2-94E9-0E6C5E0708BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E210762-2BD5-49F0-B764-28936BF862FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="3540" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -236,6 +236,9 @@
   </si>
   <si>
     <t>Pause</t>
+  </si>
+  <si>
+    <t>Ecriture de la partie domaine de l'analyse/conception</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1179,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5138888888888888E-2</c:v>
+                  <c:v>6.5972222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.125E-2</c:v>
@@ -2154,7 +2157,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 20 heurs 45 minutes</v>
+        <v>0 jours 21 heurs 15 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2173,11 +2176,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>645</v>
+        <v>675</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1245</v>
+        <v>1275</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -3020,15 +3023,23 @@
       <c r="G42" s="16"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="17" t="str">
+      <c r="A43" s="17">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
-        <v/>
-      </c>
-      <c r="B43" s="51"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="51">
+        <v>45576</v>
+      </c>
       <c r="C43" s="52"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="36"/>
+      <c r="D43" s="53">
+        <v>30</v>
+      </c>
+      <c r="E43" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F43" s="36" t="s">
+        <v>65</v>
+      </c>
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -9042,7 +9053,7 @@
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -9050,7 +9061,7 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>4.5138888888888888E-2</v>
+        <v>6.5972222222222224E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -9123,7 +9134,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.65624999999999989</v>
+        <v>0.67708333333333326</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E210762-2BD5-49F0-B764-28936BF862FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1AB8D6-A658-4C5D-9CBB-AEAFCE4F4D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3135" windowWidth="21600" windowHeight="11385" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>Ecriture de la partie domaine de l'analyse/conception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Refactore: (Graph.cs) changement de la methode button_click() afin de simplement désafficher les scatters plutôt que de les supprimer </t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1176,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.46875</c:v>
+                  <c:v>0.47569444444444442</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2104,7 +2107,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2157,7 +2160,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 21 heurs 15 minutes</v>
+        <v>0 jours 21 heurs 25 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2176,11 +2179,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1275</v>
+        <v>1285</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -3043,15 +3046,23 @@
       <c r="G43" s="18"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="str">
+      <c r="A44" s="8">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
-        <v/>
-      </c>
-      <c r="B44" s="47"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="47">
+        <v>45576</v>
+      </c>
       <c r="C44" s="48"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="50"/>
-      <c r="F44" s="36"/>
+      <c r="D44" s="49">
+        <v>10</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="36" t="s">
+        <v>66</v>
+      </c>
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -9017,7 +9028,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -9025,7 +9036,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.46875</v>
+        <v>0.47569444444444442</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9134,7 +9145,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.67708333333333326</v>
+        <v>0.68402777777777768</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1AB8D6-A658-4C5D-9CBB-AEAFCE4F4D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CD3D68-2306-4E76-B045-DDA087574C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -242,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve">Refactore: (Graph.cs) changement de la methode button_click() afin de simplement désafficher les scatters plutôt que de les supprimer </t>
+  </si>
+  <si>
+    <t>Refactore: (Form1 conception) création du graph dans la conception du form plutôt que le créer dans le code</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1179,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.47569444444444442</c:v>
+                  <c:v>0.4826388888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2107,7 +2110,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F46" sqref="F46"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2160,7 +2163,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 21 heurs 25 minutes</v>
+        <v>0 jours 21 heurs 35 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2179,11 +2182,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1285</v>
+        <v>1295</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -3066,15 +3069,23 @@
       <c r="G44" s="16"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="17" t="str">
+      <c r="A45" s="17">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
-        <v/>
-      </c>
-      <c r="B45" s="51"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="51">
+        <v>45576</v>
+      </c>
       <c r="C45" s="52"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="36"/>
+      <c r="D45" s="53">
+        <v>10</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="36" t="s">
+        <v>67</v>
+      </c>
       <c r="G45" s="18"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -9028,7 +9039,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -9036,7 +9047,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.47569444444444442</v>
+        <v>0.4826388888888889</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -9145,7 +9156,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.68402777777777768</v>
+        <v>0.69097222222222221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03CD3D68-2306-4E76-B045-DDA087574C1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E02C0B1-7B57-4F34-9928-F228DE72BCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>Refactore: (Form1 conception) création du graph dans la conception du form plutôt que le créer dans le code</t>
+  </si>
+  <si>
+    <t>Refactore: (Graph.cs) Mise en place du flowLayoutPanel dans la conception</t>
   </si>
 </sst>
 </file>
@@ -554,8 +557,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -565,15 +572,85 @@
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -742,80 +819,6 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF7030A0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCC00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1179,7 +1182,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.4826388888888889</c:v>
+                  <c:v>0.49652777777777779</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -1903,18 +1906,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G532" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
   <autoFilter ref="A6:G532" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{503C31E9-854D-BF42-85AC-8DFA1376C4D8}" name="Jour" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{B35A0B98-71A0-BA4F-BFAB-00A05EA1F23A}" name="heure" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{BE4D837D-FC99-BA48-A82F-B8C8E4CE5BF8}" name="min." dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{A2DCC539-6D2A-B04A-BF8E-6FACE6268D1F}" name="Activité" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{4EA406B9-7EF7-D547-AF98-5AD11BE168E9}" name="Description" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{1735360B-2647-6D42-A0E3-3425EE302FFD}" name="Remarque / problème" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2110,10 +2113,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="14.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
@@ -2130,7 +2133,7 @@
     <col min="15" max="15" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -2141,15 +2144,15 @@
       </c>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.7">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
@@ -2157,13 +2160,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.7">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 21 heurs 35 minutes</v>
+        <v>0 jours 21 heurs 54 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2174,7 +2177,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.7">
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
@@ -2182,22 +2185,22 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>695</v>
+        <v>715</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1295</v>
+        <v>1315</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="57" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
+      <c r="C5" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="57"/>
-    </row>
-    <row r="6" spans="1:15" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D5" s="58"/>
+    </row>
+    <row r="6" spans="1:15" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
         <v>35</v>
@@ -2240,7 +2243,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A8" s="8">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
         <v>35</v>
@@ -2269,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A9" s="17">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
         <v>35</v>
@@ -2300,7 +2303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>35</v>
@@ -2329,7 +2332,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A11" s="17">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
         <v>36</v>
@@ -2358,7 +2361,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
         <v>36</v>
@@ -2387,7 +2390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A13" s="17">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
         <v>36</v>
@@ -2416,7 +2419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
         <v>36</v>
@@ -2445,7 +2448,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A15" s="17">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
         <v>36</v>
@@ -2474,7 +2477,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
         <v>36</v>
@@ -2497,7 +2500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="47.25" x14ac:dyDescent="0.5">
       <c r="A17" s="17">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v>37</v>
@@ -2520,7 +2523,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
         <v>37</v>
@@ -2543,7 +2546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A19" s="17">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
         <v>37</v>
@@ -2566,7 +2569,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
         <v>37</v>
@@ -2586,7 +2589,7 @@
       </c>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A21" s="17">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
         <v>37</v>
@@ -2606,7 +2609,7 @@
       </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A22" s="8">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
         <v>38</v>
@@ -2626,7 +2629,7 @@
       </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A23" s="17">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
         <v>39</v>
@@ -2646,7 +2649,7 @@
       </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A24" s="8">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
         <v>39</v>
@@ -2666,7 +2669,7 @@
       </c>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A25" s="17">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
         <v>39</v>
@@ -2686,7 +2689,7 @@
       </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A26" s="8">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
         <v>39</v>
@@ -2706,7 +2709,7 @@
       </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A27" s="17">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
         <v>39</v>
@@ -2726,7 +2729,7 @@
       </c>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A28" s="8">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
         <v>40</v>
@@ -2748,7 +2751,7 @@
       </c>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A29" s="17">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
         <v>40</v>
@@ -2768,7 +2771,7 @@
       </c>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A30" s="8">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
         <v>40</v>
@@ -2788,7 +2791,7 @@
       </c>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A31" s="17">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
         <v>40</v>
@@ -2808,7 +2811,7 @@
       </c>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
       <c r="A32" s="8">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
         <v>40</v>
@@ -2828,7 +2831,7 @@
       </c>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A33" s="17">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
         <v>40</v>
@@ -2848,7 +2851,7 @@
       </c>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A34" s="8">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
         <v>40</v>
@@ -2868,7 +2871,7 @@
       </c>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A35" s="17">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
         <v>40</v>
@@ -2888,7 +2891,7 @@
       </c>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A36" s="8">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
         <v>41</v>
@@ -2908,7 +2911,7 @@
       </c>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A37" s="17">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
         <v>41</v>
@@ -2928,7 +2931,7 @@
       </c>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A38" s="8">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
         <v>41</v>
@@ -2948,7 +2951,7 @@
       </c>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.5">
       <c r="A39" s="17">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
         <v>41</v>
@@ -2963,12 +2966,12 @@
       <c r="E39" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="58" t="s">
+      <c r="F39" s="56" t="s">
         <v>61</v>
       </c>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A40" s="8">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
         <v>41</v>
@@ -2988,7 +2991,7 @@
       </c>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A41" s="17">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
         <v>41</v>
@@ -3008,7 +3011,7 @@
       </c>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A42" s="8">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
         <v>41</v>
@@ -3028,7 +3031,7 @@
       </c>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A43" s="17">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
         <v>41</v>
@@ -3048,7 +3051,7 @@
       </c>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A44" s="8">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
         <v>41</v>
@@ -3068,7 +3071,7 @@
       </c>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A45" s="17">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
         <v>41</v>
@@ -3088,19 +3091,27 @@
       </c>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="str">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A46" s="8">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
-        <v/>
-      </c>
-      <c r="B46" s="47"/>
+        <v>41</v>
+      </c>
+      <c r="B46" s="47">
+        <v>45576</v>
+      </c>
       <c r="C46" s="48"/>
-      <c r="D46" s="49"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="36"/>
+      <c r="D46" s="49">
+        <v>20</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="36" t="s">
+        <v>68</v>
+      </c>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A47" s="17" t="str">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
         <v/>
@@ -3112,7 +3123,7 @@
       <c r="F47" s="36"/>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A48" s="8" t="str">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
         <v/>
@@ -3124,7 +3135,7 @@
       <c r="F48" s="36"/>
       <c r="G48" s="16"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A49" s="17" t="str">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
         <v/>
@@ -3136,7 +3147,7 @@
       <c r="F49" s="36"/>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A50" s="8" t="str">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
         <v/>
@@ -3148,7 +3159,7 @@
       <c r="F50" s="36"/>
       <c r="G50" s="16"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A51" s="17" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
         <v/>
@@ -3160,7 +3171,7 @@
       <c r="F51" s="36"/>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A52" s="8" t="str">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
         <v/>
@@ -3172,7 +3183,7 @@
       <c r="F52" s="36"/>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A53" s="17" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
         <v/>
@@ -3184,7 +3195,7 @@
       <c r="F53" s="36"/>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A54" s="8" t="str">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
         <v/>
@@ -3196,7 +3207,7 @@
       <c r="F54" s="36"/>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A55" s="17" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
         <v/>
@@ -3208,7 +3219,7 @@
       <c r="F55" s="36"/>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A56" s="8" t="str">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
         <v/>
@@ -3220,7 +3231,7 @@
       <c r="F56" s="16"/>
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A57" s="17" t="str">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
         <v/>
@@ -3232,7 +3243,7 @@
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A58" s="8" t="str">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
         <v/>
@@ -3244,7 +3255,7 @@
       <c r="F58" s="16"/>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A59" s="17" t="str">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
         <v/>
@@ -3256,7 +3267,7 @@
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A60" s="8" t="str">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
         <v/>
@@ -3268,7 +3279,7 @@
       <c r="F60" s="16"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A61" s="17" t="str">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
         <v/>
@@ -3280,7 +3291,7 @@
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A62" s="8" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
         <v/>
@@ -3292,7 +3303,7 @@
       <c r="F62" s="16"/>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A63" s="17" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
         <v/>
@@ -3304,7 +3315,7 @@
       <c r="F63" s="18"/>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A64" s="8" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
         <v/>
@@ -3316,7 +3327,7 @@
       <c r="F64" s="16"/>
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A65" s="17" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
         <v/>
@@ -3328,7 +3339,7 @@
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A66" s="8" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
         <v/>
@@ -3340,7 +3351,7 @@
       <c r="F66" s="16"/>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A67" s="17" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
         <v/>
@@ -3352,7 +3363,7 @@
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A68" s="8" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
         <v/>
@@ -3364,7 +3375,7 @@
       <c r="F68" s="16"/>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A69" s="17" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
         <v/>
@@ -3376,7 +3387,7 @@
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A70" s="8" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
         <v/>
@@ -3388,7 +3399,7 @@
       <c r="F70" s="16"/>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A71" s="17" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
         <v/>
@@ -3400,7 +3411,7 @@
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A72" s="8" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
         <v/>
@@ -3412,7 +3423,7 @@
       <c r="F72" s="16"/>
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A73" s="17" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
         <v/>
@@ -3424,7 +3435,7 @@
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A74" s="8" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
         <v/>
@@ -3436,7 +3447,7 @@
       <c r="F74" s="16"/>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A75" s="17" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
@@ -3448,7 +3459,7 @@
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A76" s="8" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
@@ -3460,7 +3471,7 @@
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A77" s="17" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
@@ -3472,7 +3483,7 @@
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A78" s="8" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
@@ -3484,7 +3495,7 @@
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A79" s="17" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
@@ -3496,7 +3507,7 @@
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A80" s="8" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
@@ -3508,7 +3519,7 @@
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A81" s="17" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
@@ -3520,7 +3531,7 @@
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A82" s="8" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
@@ -3532,7 +3543,7 @@
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A83" s="17" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
@@ -3544,7 +3555,7 @@
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A84" s="8" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
@@ -3556,7 +3567,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A85" s="17" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
@@ -3568,7 +3579,7 @@
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A86" s="8" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
@@ -3580,7 +3591,7 @@
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A87" s="17" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
@@ -3592,7 +3603,7 @@
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A88" s="8" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
@@ -3604,7 +3615,7 @@
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A89" s="17" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
@@ -3616,7 +3627,7 @@
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A90" s="8" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
@@ -3628,7 +3639,7 @@
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A91" s="17" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
@@ -3640,7 +3651,7 @@
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A92" s="8" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
@@ -3652,7 +3663,7 @@
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A93" s="17" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
@@ -3664,7 +3675,7 @@
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A94" s="8" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
@@ -3676,7 +3687,7 @@
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A95" s="17" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
@@ -3688,7 +3699,7 @@
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A96" s="8" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
@@ -3700,7 +3711,7 @@
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A97" s="17" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
@@ -3712,7 +3723,7 @@
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A98" s="8" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
@@ -3724,7 +3735,7 @@
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A99" s="17" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
@@ -3736,7 +3747,7 @@
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A100" s="8" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
@@ -3748,7 +3759,7 @@
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A101" s="17" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
@@ -3760,7 +3771,7 @@
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A102" s="8" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
@@ -3772,7 +3783,7 @@
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A103" s="17" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
@@ -3784,7 +3795,7 @@
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A104" s="8" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
@@ -3796,7 +3807,7 @@
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A105" s="17" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
@@ -3808,7 +3819,7 @@
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A106" s="8" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
@@ -3820,7 +3831,7 @@
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A107" s="17" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
@@ -3832,7 +3843,7 @@
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A108" s="8" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
@@ -3844,7 +3855,7 @@
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A109" s="17" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
@@ -3856,7 +3867,7 @@
       <c r="F109" s="18"/>
       <c r="G109" s="18"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A110" s="8" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
@@ -3868,7 +3879,7 @@
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A111" s="17" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
@@ -3880,7 +3891,7 @@
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A112" s="8" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
@@ -3892,7 +3903,7 @@
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A113" s="17" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
@@ -3904,7 +3915,7 @@
       <c r="F113" s="18"/>
       <c r="G113" s="18"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A114" s="8" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
@@ -3916,7 +3927,7 @@
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A115" s="17" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
@@ -3928,7 +3939,7 @@
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A116" s="8" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
@@ -3940,7 +3951,7 @@
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A117" s="17" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
@@ -3952,7 +3963,7 @@
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A118" s="8" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
@@ -3964,7 +3975,7 @@
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A119" s="17" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
@@ -3976,7 +3987,7 @@
       <c r="F119" s="18"/>
       <c r="G119" s="18"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A120" s="8" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
@@ -3988,7 +3999,7 @@
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A121" s="17" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
@@ -4000,7 +4011,7 @@
       <c r="F121" s="18"/>
       <c r="G121" s="18"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A122" s="8" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
@@ -4012,7 +4023,7 @@
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A123" s="17" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
@@ -4024,7 +4035,7 @@
       <c r="F123" s="18"/>
       <c r="G123" s="18"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A124" s="8" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
@@ -4036,7 +4047,7 @@
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A125" s="17" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
@@ -4048,7 +4059,7 @@
       <c r="F125" s="18"/>
       <c r="G125" s="18"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A126" s="8" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
@@ -4060,7 +4071,7 @@
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A127" s="17" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
@@ -4072,7 +4083,7 @@
       <c r="F127" s="18"/>
       <c r="G127" s="18"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A128" s="8" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
@@ -4084,7 +4095,7 @@
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A129" s="17" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
@@ -4096,7 +4107,7 @@
       <c r="F129" s="18"/>
       <c r="G129" s="18"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A130" s="8" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
@@ -4108,7 +4119,7 @@
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A131" s="17" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
@@ -4120,7 +4131,7 @@
       <c r="F131" s="18"/>
       <c r="G131" s="18"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A132" s="8" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
@@ -4132,7 +4143,7 @@
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A133" s="17" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
@@ -4144,7 +4155,7 @@
       <c r="F133" s="18"/>
       <c r="G133" s="18"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A134" s="8" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
@@ -4156,7 +4167,7 @@
       <c r="F134" s="16"/>
       <c r="G134" s="16"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A135" s="17" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
@@ -4168,7 +4179,7 @@
       <c r="F135" s="18"/>
       <c r="G135" s="18"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A136" s="8" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
@@ -4180,7 +4191,7 @@
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A137" s="17" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
@@ -4192,7 +4203,7 @@
       <c r="F137" s="18"/>
       <c r="G137" s="18"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A138" s="8" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
@@ -4204,7 +4215,7 @@
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A139" s="17" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
@@ -4216,7 +4227,7 @@
       <c r="F139" s="18"/>
       <c r="G139" s="18"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A140" s="8" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
@@ -4228,7 +4239,7 @@
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A141" s="17" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
@@ -4240,7 +4251,7 @@
       <c r="F141" s="18"/>
       <c r="G141" s="18"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A142" s="8" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
@@ -4252,7 +4263,7 @@
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A143" s="17" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
@@ -4264,7 +4275,7 @@
       <c r="F143" s="18"/>
       <c r="G143" s="18"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A144" s="8" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
@@ -4276,7 +4287,7 @@
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A145" s="17" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
@@ -4288,7 +4299,7 @@
       <c r="F145" s="18"/>
       <c r="G145" s="18"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A146" s="8" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
@@ -4300,7 +4311,7 @@
       <c r="F146" s="16"/>
       <c r="G146" s="16"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A147" s="17" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
@@ -4312,7 +4323,7 @@
       <c r="F147" s="18"/>
       <c r="G147" s="18"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A148" s="8" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
@@ -4324,7 +4335,7 @@
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A149" s="17" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
@@ -4336,7 +4347,7 @@
       <c r="F149" s="18"/>
       <c r="G149" s="18"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A150" s="8" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
@@ -4348,7 +4359,7 @@
       <c r="F150" s="16"/>
       <c r="G150" s="16"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A151" s="17" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
@@ -4360,7 +4371,7 @@
       <c r="F151" s="18"/>
       <c r="G151" s="18"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A152" s="8" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
@@ -4372,7 +4383,7 @@
       <c r="F152" s="16"/>
       <c r="G152" s="16"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A153" s="17" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
@@ -4384,7 +4395,7 @@
       <c r="F153" s="18"/>
       <c r="G153" s="18"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A154" s="8" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
@@ -4396,7 +4407,7 @@
       <c r="F154" s="16"/>
       <c r="G154" s="16"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A155" s="17" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
@@ -4408,7 +4419,7 @@
       <c r="F155" s="18"/>
       <c r="G155" s="18"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A156" s="8" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
@@ -4420,7 +4431,7 @@
       <c r="F156" s="16"/>
       <c r="G156" s="16"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A157" s="17" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
@@ -4432,7 +4443,7 @@
       <c r="F157" s="18"/>
       <c r="G157" s="18"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A158" s="8" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
@@ -4444,7 +4455,7 @@
       <c r="F158" s="16"/>
       <c r="G158" s="16"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A159" s="17" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
@@ -4456,7 +4467,7 @@
       <c r="F159" s="18"/>
       <c r="G159" s="18"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A160" s="8" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
@@ -4468,7 +4479,7 @@
       <c r="F160" s="16"/>
       <c r="G160" s="16"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A161" s="17" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
@@ -4480,7 +4491,7 @@
       <c r="F161" s="18"/>
       <c r="G161" s="18"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A162" s="8" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
@@ -4492,7 +4503,7 @@
       <c r="F162" s="16"/>
       <c r="G162" s="16"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A163" s="17" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
@@ -4504,7 +4515,7 @@
       <c r="F163" s="18"/>
       <c r="G163" s="18"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A164" s="8" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
@@ -4516,7 +4527,7 @@
       <c r="F164" s="16"/>
       <c r="G164" s="16"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A165" s="17" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
@@ -4528,7 +4539,7 @@
       <c r="F165" s="18"/>
       <c r="G165" s="18"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A166" s="8" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
@@ -4540,7 +4551,7 @@
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A167" s="17" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
@@ -4552,7 +4563,7 @@
       <c r="F167" s="18"/>
       <c r="G167" s="18"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A168" s="8" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
@@ -4564,7 +4575,7 @@
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A169" s="17" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
@@ -4576,7 +4587,7 @@
       <c r="F169" s="18"/>
       <c r="G169" s="18"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A170" s="8" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
@@ -4588,7 +4599,7 @@
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A171" s="17" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
@@ -4600,7 +4611,7 @@
       <c r="F171" s="18"/>
       <c r="G171" s="18"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A172" s="8" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
@@ -4612,7 +4623,7 @@
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A173" s="17" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
@@ -4624,7 +4635,7 @@
       <c r="F173" s="18"/>
       <c r="G173" s="18"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A174" s="8" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
@@ -4636,7 +4647,7 @@
       <c r="F174" s="16"/>
       <c r="G174" s="16"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A175" s="17" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
@@ -4648,7 +4659,7 @@
       <c r="F175" s="18"/>
       <c r="G175" s="18"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A176" s="8" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
@@ -4660,7 +4671,7 @@
       <c r="F176" s="16"/>
       <c r="G176" s="16"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A177" s="17" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
@@ -4672,7 +4683,7 @@
       <c r="F177" s="18"/>
       <c r="G177" s="18"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A178" s="8" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
@@ -4684,7 +4695,7 @@
       <c r="F178" s="16"/>
       <c r="G178" s="16"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A179" s="17" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
@@ -4696,7 +4707,7 @@
       <c r="F179" s="18"/>
       <c r="G179" s="18"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A180" s="8" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
@@ -4708,7 +4719,7 @@
       <c r="F180" s="16"/>
       <c r="G180" s="16"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A181" s="17" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
@@ -4720,7 +4731,7 @@
       <c r="F181" s="18"/>
       <c r="G181" s="18"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A182" s="8" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
@@ -4732,7 +4743,7 @@
       <c r="F182" s="16"/>
       <c r="G182" s="16"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A183" s="17" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
@@ -4744,7 +4755,7 @@
       <c r="F183" s="18"/>
       <c r="G183" s="18"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A184" s="8" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
@@ -4756,7 +4767,7 @@
       <c r="F184" s="16"/>
       <c r="G184" s="16"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A185" s="17" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
@@ -4768,7 +4779,7 @@
       <c r="F185" s="18"/>
       <c r="G185" s="18"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A186" s="8" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
@@ -4780,7 +4791,7 @@
       <c r="F186" s="16"/>
       <c r="G186" s="16"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A187" s="17" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
@@ -4792,7 +4803,7 @@
       <c r="F187" s="18"/>
       <c r="G187" s="18"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A188" s="8" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
@@ -4804,7 +4815,7 @@
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A189" s="17" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
@@ -4816,7 +4827,7 @@
       <c r="F189" s="18"/>
       <c r="G189" s="18"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A190" s="8" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
@@ -4828,7 +4839,7 @@
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A191" s="17" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
@@ -4840,7 +4851,7 @@
       <c r="F191" s="18"/>
       <c r="G191" s="18"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A192" s="8" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
@@ -4852,7 +4863,7 @@
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A193" s="17" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
@@ -4864,7 +4875,7 @@
       <c r="F193" s="18"/>
       <c r="G193" s="18"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A194" s="8" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
@@ -4876,7 +4887,7 @@
       <c r="F194" s="16"/>
       <c r="G194" s="16"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A195" s="17" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
@@ -4888,7 +4899,7 @@
       <c r="F195" s="18"/>
       <c r="G195" s="18"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A196" s="8" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
@@ -4900,7 +4911,7 @@
       <c r="F196" s="16"/>
       <c r="G196" s="16"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A197" s="17" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
@@ -4912,7 +4923,7 @@
       <c r="F197" s="18"/>
       <c r="G197" s="18"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A198" s="8" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
@@ -4924,7 +4935,7 @@
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A199" s="17" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
@@ -4936,7 +4947,7 @@
       <c r="F199" s="18"/>
       <c r="G199" s="18"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A200" s="8" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
@@ -4948,7 +4959,7 @@
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A201" s="17" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
@@ -4960,7 +4971,7 @@
       <c r="F201" s="18"/>
       <c r="G201" s="18"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A202" s="8" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
@@ -4972,7 +4983,7 @@
       <c r="F202" s="16"/>
       <c r="G202" s="16"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A203" s="17" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
@@ -4984,7 +4995,7 @@
       <c r="F203" s="18"/>
       <c r="G203" s="18"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A204" s="8" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
@@ -4996,7 +5007,7 @@
       <c r="F204" s="16"/>
       <c r="G204" s="16"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A205" s="17" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
@@ -5008,7 +5019,7 @@
       <c r="F205" s="18"/>
       <c r="G205" s="18"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A206" s="8" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
@@ -5020,7 +5031,7 @@
       <c r="F206" s="16"/>
       <c r="G206" s="16"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A207" s="17" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
@@ -5032,7 +5043,7 @@
       <c r="F207" s="18"/>
       <c r="G207" s="18"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A208" s="8" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
@@ -5044,7 +5055,7 @@
       <c r="F208" s="16"/>
       <c r="G208" s="16"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A209" s="17" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
@@ -5056,7 +5067,7 @@
       <c r="F209" s="18"/>
       <c r="G209" s="18"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A210" s="8" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
@@ -5068,7 +5079,7 @@
       <c r="F210" s="16"/>
       <c r="G210" s="16"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A211" s="17" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
@@ -5080,7 +5091,7 @@
       <c r="F211" s="18"/>
       <c r="G211" s="18"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A212" s="8" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
@@ -5092,7 +5103,7 @@
       <c r="F212" s="16"/>
       <c r="G212" s="16"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A213" s="17" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
@@ -5104,7 +5115,7 @@
       <c r="F213" s="18"/>
       <c r="G213" s="18"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A214" s="8" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
@@ -5116,7 +5127,7 @@
       <c r="F214" s="16"/>
       <c r="G214" s="16"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A215" s="17" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
@@ -5128,7 +5139,7 @@
       <c r="F215" s="18"/>
       <c r="G215" s="18"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A216" s="8" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
@@ -5140,7 +5151,7 @@
       <c r="F216" s="16"/>
       <c r="G216" s="16"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A217" s="17" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
@@ -5152,7 +5163,7 @@
       <c r="F217" s="18"/>
       <c r="G217" s="18"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A218" s="8" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
@@ -5164,7 +5175,7 @@
       <c r="F218" s="16"/>
       <c r="G218" s="16"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A219" s="17" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
@@ -5176,7 +5187,7 @@
       <c r="F219" s="18"/>
       <c r="G219" s="18"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A220" s="8" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
@@ -5188,7 +5199,7 @@
       <c r="F220" s="16"/>
       <c r="G220" s="16"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A221" s="17" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
@@ -5200,7 +5211,7 @@
       <c r="F221" s="18"/>
       <c r="G221" s="18"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A222" s="8" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
@@ -5212,7 +5223,7 @@
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A223" s="17" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
@@ -5224,7 +5235,7 @@
       <c r="F223" s="18"/>
       <c r="G223" s="18"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A224" s="8" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
@@ -5236,7 +5247,7 @@
       <c r="F224" s="16"/>
       <c r="G224" s="16"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A225" s="17" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
@@ -5248,7 +5259,7 @@
       <c r="F225" s="18"/>
       <c r="G225" s="18"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A226" s="8" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
@@ -5260,7 +5271,7 @@
       <c r="F226" s="16"/>
       <c r="G226" s="16"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A227" s="17" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
@@ -5272,7 +5283,7 @@
       <c r="F227" s="18"/>
       <c r="G227" s="18"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A228" s="8" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
@@ -5284,7 +5295,7 @@
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A229" s="17" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
@@ -5296,7 +5307,7 @@
       <c r="F229" s="18"/>
       <c r="G229" s="18"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A230" s="8" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
@@ -5308,7 +5319,7 @@
       <c r="F230" s="16"/>
       <c r="G230" s="16"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A231" s="17" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
@@ -5320,7 +5331,7 @@
       <c r="F231" s="18"/>
       <c r="G231" s="18"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A232" s="8" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
@@ -5332,7 +5343,7 @@
       <c r="F232" s="16"/>
       <c r="G232" s="16"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A233" s="17" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
@@ -5344,7 +5355,7 @@
       <c r="F233" s="18"/>
       <c r="G233" s="18"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A234" s="8" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
@@ -5356,7 +5367,7 @@
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A235" s="17" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
@@ -5368,7 +5379,7 @@
       <c r="F235" s="18"/>
       <c r="G235" s="18"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A236" s="8" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
@@ -5380,7 +5391,7 @@
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A237" s="17" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
@@ -5392,7 +5403,7 @@
       <c r="F237" s="18"/>
       <c r="G237" s="18"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A238" s="8" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
@@ -5404,7 +5415,7 @@
       <c r="F238" s="16"/>
       <c r="G238" s="16"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A239" s="17" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
@@ -5416,7 +5427,7 @@
       <c r="F239" s="18"/>
       <c r="G239" s="18"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A240" s="8" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
@@ -5428,7 +5439,7 @@
       <c r="F240" s="16"/>
       <c r="G240" s="16"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A241" s="17" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
@@ -5440,7 +5451,7 @@
       <c r="F241" s="18"/>
       <c r="G241" s="18"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A242" s="8" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
@@ -5452,7 +5463,7 @@
       <c r="F242" s="16"/>
       <c r="G242" s="16"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A243" s="17" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
@@ -5464,7 +5475,7 @@
       <c r="F243" s="18"/>
       <c r="G243" s="18"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A244" s="8" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
@@ -5476,7 +5487,7 @@
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A245" s="17" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
@@ -5488,7 +5499,7 @@
       <c r="F245" s="18"/>
       <c r="G245" s="18"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A246" s="8" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
@@ -5500,7 +5511,7 @@
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A247" s="17" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
@@ -5512,7 +5523,7 @@
       <c r="F247" s="18"/>
       <c r="G247" s="18"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A248" s="8" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
@@ -5524,7 +5535,7 @@
       <c r="F248" s="16"/>
       <c r="G248" s="16"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A249" s="17" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
@@ -5536,7 +5547,7 @@
       <c r="F249" s="18"/>
       <c r="G249" s="18"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A250" s="8" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
@@ -5548,7 +5559,7 @@
       <c r="F250" s="16"/>
       <c r="G250" s="16"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A251" s="17" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
@@ -5560,7 +5571,7 @@
       <c r="F251" s="18"/>
       <c r="G251" s="18"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A252" s="8" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
@@ -5572,7 +5583,7 @@
       <c r="F252" s="16"/>
       <c r="G252" s="16"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A253" s="17" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
@@ -5584,7 +5595,7 @@
       <c r="F253" s="18"/>
       <c r="G253" s="18"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A254" s="8" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
@@ -5596,7 +5607,7 @@
       <c r="F254" s="16"/>
       <c r="G254" s="16"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A255" s="17" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
@@ -5608,7 +5619,7 @@
       <c r="F255" s="18"/>
       <c r="G255" s="18"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A256" s="8" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
@@ -5620,7 +5631,7 @@
       <c r="F256" s="16"/>
       <c r="G256" s="16"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A257" s="17" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
@@ -5632,7 +5643,7 @@
       <c r="F257" s="18"/>
       <c r="G257" s="18"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A258" s="8" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
@@ -5644,7 +5655,7 @@
       <c r="F258" s="16"/>
       <c r="G258" s="16"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A259" s="17" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
@@ -5656,7 +5667,7 @@
       <c r="F259" s="18"/>
       <c r="G259" s="18"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A260" s="8" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
@@ -5668,7 +5679,7 @@
       <c r="F260" s="16"/>
       <c r="G260" s="16"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A261" s="17" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
@@ -5680,7 +5691,7 @@
       <c r="F261" s="18"/>
       <c r="G261" s="18"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A262" s="8" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
@@ -5692,7 +5703,7 @@
       <c r="F262" s="16"/>
       <c r="G262" s="16"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A263" s="17" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
@@ -5704,7 +5715,7 @@
       <c r="F263" s="18"/>
       <c r="G263" s="18"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A264" s="8" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
@@ -5716,7 +5727,7 @@
       <c r="F264" s="16"/>
       <c r="G264" s="16"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A265" s="17" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
@@ -5728,7 +5739,7 @@
       <c r="F265" s="18"/>
       <c r="G265" s="18"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A266" s="8" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
@@ -5740,7 +5751,7 @@
       <c r="F266" s="16"/>
       <c r="G266" s="16"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A267" s="17" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
@@ -5752,7 +5763,7 @@
       <c r="F267" s="18"/>
       <c r="G267" s="18"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A268" s="8" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
@@ -5764,7 +5775,7 @@
       <c r="F268" s="16"/>
       <c r="G268" s="16"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A269" s="17" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
@@ -5776,7 +5787,7 @@
       <c r="F269" s="18"/>
       <c r="G269" s="18"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A270" s="8" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
@@ -5788,7 +5799,7 @@
       <c r="F270" s="16"/>
       <c r="G270" s="16"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A271" s="17" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
@@ -5800,7 +5811,7 @@
       <c r="F271" s="18"/>
       <c r="G271" s="18"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A272" s="8" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
@@ -5812,7 +5823,7 @@
       <c r="F272" s="16"/>
       <c r="G272" s="16"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A273" s="17" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
@@ -5824,7 +5835,7 @@
       <c r="F273" s="18"/>
       <c r="G273" s="18"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A274" s="8" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
@@ -5836,7 +5847,7 @@
       <c r="F274" s="16"/>
       <c r="G274" s="16"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A275" s="17" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
@@ -5848,7 +5859,7 @@
       <c r="F275" s="18"/>
       <c r="G275" s="18"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A276" s="8" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
@@ -5860,7 +5871,7 @@
       <c r="F276" s="16"/>
       <c r="G276" s="16"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A277" s="17" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
@@ -5872,7 +5883,7 @@
       <c r="F277" s="18"/>
       <c r="G277" s="18"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A278" s="8" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
@@ -5884,7 +5895,7 @@
       <c r="F278" s="16"/>
       <c r="G278" s="16"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A279" s="17" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
@@ -5896,7 +5907,7 @@
       <c r="F279" s="18"/>
       <c r="G279" s="18"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A280" s="8" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
@@ -5908,7 +5919,7 @@
       <c r="F280" s="16"/>
       <c r="G280" s="16"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A281" s="17" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
@@ -5920,7 +5931,7 @@
       <c r="F281" s="18"/>
       <c r="G281" s="18"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A282" s="8" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
@@ -5932,7 +5943,7 @@
       <c r="F282" s="16"/>
       <c r="G282" s="16"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A283" s="17" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
@@ -5944,7 +5955,7 @@
       <c r="F283" s="18"/>
       <c r="G283" s="18"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A284" s="8" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
@@ -5956,7 +5967,7 @@
       <c r="F284" s="16"/>
       <c r="G284" s="16"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A285" s="17" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
@@ -5968,7 +5979,7 @@
       <c r="F285" s="18"/>
       <c r="G285" s="18"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A286" s="8" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
@@ -5980,7 +5991,7 @@
       <c r="F286" s="16"/>
       <c r="G286" s="16"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A287" s="17" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
@@ -5992,7 +6003,7 @@
       <c r="F287" s="18"/>
       <c r="G287" s="18"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A288" s="8" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
@@ -6004,7 +6015,7 @@
       <c r="F288" s="16"/>
       <c r="G288" s="16"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A289" s="17" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
@@ -6016,7 +6027,7 @@
       <c r="F289" s="18"/>
       <c r="G289" s="18"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A290" s="8" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
@@ -6028,7 +6039,7 @@
       <c r="F290" s="16"/>
       <c r="G290" s="16"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A291" s="17" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
@@ -6040,7 +6051,7 @@
       <c r="F291" s="18"/>
       <c r="G291" s="18"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A292" s="8" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
@@ -6052,7 +6063,7 @@
       <c r="F292" s="16"/>
       <c r="G292" s="16"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A293" s="17" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
@@ -6064,7 +6075,7 @@
       <c r="F293" s="18"/>
       <c r="G293" s="18"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A294" s="8" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
@@ -6076,7 +6087,7 @@
       <c r="F294" s="16"/>
       <c r="G294" s="16"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A295" s="17" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
@@ -6088,7 +6099,7 @@
       <c r="F295" s="18"/>
       <c r="G295" s="18"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A296" s="8" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
@@ -6100,7 +6111,7 @@
       <c r="F296" s="16"/>
       <c r="G296" s="16"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A297" s="17" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
@@ -6112,7 +6123,7 @@
       <c r="F297" s="18"/>
       <c r="G297" s="18"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A298" s="8" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
@@ -6124,7 +6135,7 @@
       <c r="F298" s="16"/>
       <c r="G298" s="16"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A299" s="17" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
@@ -6136,7 +6147,7 @@
       <c r="F299" s="18"/>
       <c r="G299" s="18"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A300" s="8" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
@@ -6148,7 +6159,7 @@
       <c r="F300" s="16"/>
       <c r="G300" s="16"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A301" s="17" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
@@ -6160,7 +6171,7 @@
       <c r="F301" s="18"/>
       <c r="G301" s="18"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A302" s="8" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
@@ -6172,7 +6183,7 @@
       <c r="F302" s="16"/>
       <c r="G302" s="16"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A303" s="17" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
@@ -6184,7 +6195,7 @@
       <c r="F303" s="18"/>
       <c r="G303" s="18"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A304" s="8" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
@@ -6196,7 +6207,7 @@
       <c r="F304" s="16"/>
       <c r="G304" s="16"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A305" s="17" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
@@ -6208,7 +6219,7 @@
       <c r="F305" s="18"/>
       <c r="G305" s="18"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A306" s="8" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
@@ -6220,7 +6231,7 @@
       <c r="F306" s="16"/>
       <c r="G306" s="16"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A307" s="17" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
@@ -6232,7 +6243,7 @@
       <c r="F307" s="18"/>
       <c r="G307" s="18"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A308" s="8" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
@@ -6244,7 +6255,7 @@
       <c r="F308" s="16"/>
       <c r="G308" s="16"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A309" s="17" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
@@ -6256,7 +6267,7 @@
       <c r="F309" s="18"/>
       <c r="G309" s="18"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A310" s="8" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
@@ -6268,7 +6279,7 @@
       <c r="F310" s="16"/>
       <c r="G310" s="16"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A311" s="17" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
@@ -6280,7 +6291,7 @@
       <c r="F311" s="18"/>
       <c r="G311" s="18"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A312" s="8" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
@@ -6292,7 +6303,7 @@
       <c r="F312" s="16"/>
       <c r="G312" s="16"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A313" s="17" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
@@ -6304,7 +6315,7 @@
       <c r="F313" s="18"/>
       <c r="G313" s="18"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A314" s="8" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
@@ -6316,7 +6327,7 @@
       <c r="F314" s="16"/>
       <c r="G314" s="16"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A315" s="17" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
@@ -6328,7 +6339,7 @@
       <c r="F315" s="18"/>
       <c r="G315" s="18"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A316" s="8" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
@@ -6340,7 +6351,7 @@
       <c r="F316" s="16"/>
       <c r="G316" s="16"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A317" s="17" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
@@ -6352,7 +6363,7 @@
       <c r="F317" s="18"/>
       <c r="G317" s="18"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A318" s="8" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
@@ -6364,7 +6375,7 @@
       <c r="F318" s="16"/>
       <c r="G318" s="16"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A319" s="17" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
@@ -6376,7 +6387,7 @@
       <c r="F319" s="18"/>
       <c r="G319" s="18"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A320" s="8" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
@@ -6388,7 +6399,7 @@
       <c r="F320" s="16"/>
       <c r="G320" s="16"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A321" s="17" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
@@ -6400,7 +6411,7 @@
       <c r="F321" s="18"/>
       <c r="G321" s="18"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A322" s="8" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
@@ -6412,7 +6423,7 @@
       <c r="F322" s="16"/>
       <c r="G322" s="16"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A323" s="17" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
@@ -6424,7 +6435,7 @@
       <c r="F323" s="18"/>
       <c r="G323" s="18"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A324" s="8" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
@@ -6436,7 +6447,7 @@
       <c r="F324" s="16"/>
       <c r="G324" s="16"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A325" s="17" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
@@ -6448,7 +6459,7 @@
       <c r="F325" s="18"/>
       <c r="G325" s="18"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A326" s="8" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
@@ -6460,7 +6471,7 @@
       <c r="F326" s="16"/>
       <c r="G326" s="16"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A327" s="17" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
@@ -6472,7 +6483,7 @@
       <c r="F327" s="18"/>
       <c r="G327" s="18"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A328" s="8" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
@@ -6484,7 +6495,7 @@
       <c r="F328" s="16"/>
       <c r="G328" s="16"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A329" s="17" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
@@ -6496,7 +6507,7 @@
       <c r="F329" s="18"/>
       <c r="G329" s="18"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A330" s="8" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
@@ -6508,7 +6519,7 @@
       <c r="F330" s="16"/>
       <c r="G330" s="16"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A331" s="17" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
@@ -6520,7 +6531,7 @@
       <c r="F331" s="18"/>
       <c r="G331" s="18"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A332" s="8" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
@@ -6532,7 +6543,7 @@
       <c r="F332" s="16"/>
       <c r="G332" s="16"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A333" s="17" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
@@ -6544,7 +6555,7 @@
       <c r="F333" s="18"/>
       <c r="G333" s="18"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A334" s="8" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
@@ -6556,7 +6567,7 @@
       <c r="F334" s="16"/>
       <c r="G334" s="16"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A335" s="17" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
@@ -6568,7 +6579,7 @@
       <c r="F335" s="18"/>
       <c r="G335" s="18"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A336" s="8" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
@@ -6580,7 +6591,7 @@
       <c r="F336" s="16"/>
       <c r="G336" s="16"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A337" s="17" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
@@ -6592,7 +6603,7 @@
       <c r="F337" s="18"/>
       <c r="G337" s="18"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A338" s="8" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
@@ -6604,7 +6615,7 @@
       <c r="F338" s="16"/>
       <c r="G338" s="16"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A339" s="17" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
@@ -6616,7 +6627,7 @@
       <c r="F339" s="18"/>
       <c r="G339" s="18"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A340" s="8" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
@@ -6628,7 +6639,7 @@
       <c r="F340" s="16"/>
       <c r="G340" s="16"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A341" s="17" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
@@ -6640,7 +6651,7 @@
       <c r="F341" s="18"/>
       <c r="G341" s="18"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A342" s="8" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
@@ -6652,7 +6663,7 @@
       <c r="F342" s="16"/>
       <c r="G342" s="16"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A343" s="17" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
@@ -6664,7 +6675,7 @@
       <c r="F343" s="18"/>
       <c r="G343" s="18"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A344" s="8" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
@@ -6676,7 +6687,7 @@
       <c r="F344" s="16"/>
       <c r="G344" s="16"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A345" s="17" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
@@ -6688,7 +6699,7 @@
       <c r="F345" s="18"/>
       <c r="G345" s="18"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A346" s="8" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
@@ -6700,7 +6711,7 @@
       <c r="F346" s="16"/>
       <c r="G346" s="16"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A347" s="17" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
@@ -6712,7 +6723,7 @@
       <c r="F347" s="18"/>
       <c r="G347" s="18"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A348" s="8" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
@@ -6724,7 +6735,7 @@
       <c r="F348" s="16"/>
       <c r="G348" s="16"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A349" s="17" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
@@ -6736,7 +6747,7 @@
       <c r="F349" s="18"/>
       <c r="G349" s="18"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A350" s="8" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
@@ -6748,7 +6759,7 @@
       <c r="F350" s="16"/>
       <c r="G350" s="16"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A351" s="17" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
@@ -6760,7 +6771,7 @@
       <c r="F351" s="18"/>
       <c r="G351" s="18"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A352" s="8" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
@@ -6772,7 +6783,7 @@
       <c r="F352" s="16"/>
       <c r="G352" s="16"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A353" s="17" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
@@ -6784,7 +6795,7 @@
       <c r="F353" s="18"/>
       <c r="G353" s="18"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A354" s="8" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
@@ -6796,7 +6807,7 @@
       <c r="F354" s="16"/>
       <c r="G354" s="16"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A355" s="17" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
@@ -6808,7 +6819,7 @@
       <c r="F355" s="18"/>
       <c r="G355" s="18"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A356" s="8" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
@@ -6820,7 +6831,7 @@
       <c r="F356" s="16"/>
       <c r="G356" s="16"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A357" s="17" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
@@ -6832,7 +6843,7 @@
       <c r="F357" s="18"/>
       <c r="G357" s="18"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A358" s="8" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
@@ -6844,7 +6855,7 @@
       <c r="F358" s="16"/>
       <c r="G358" s="16"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A359" s="17" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
@@ -6856,7 +6867,7 @@
       <c r="F359" s="18"/>
       <c r="G359" s="18"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A360" s="8" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
@@ -6868,7 +6879,7 @@
       <c r="F360" s="16"/>
       <c r="G360" s="16"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A361" s="17" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
@@ -6880,7 +6891,7 @@
       <c r="F361" s="18"/>
       <c r="G361" s="18"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A362" s="8" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
@@ -6892,7 +6903,7 @@
       <c r="F362" s="16"/>
       <c r="G362" s="16"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A363" s="17" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
@@ -6904,7 +6915,7 @@
       <c r="F363" s="18"/>
       <c r="G363" s="18"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A364" s="8" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
@@ -6916,7 +6927,7 @@
       <c r="F364" s="16"/>
       <c r="G364" s="16"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A365" s="17" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
@@ -6928,7 +6939,7 @@
       <c r="F365" s="18"/>
       <c r="G365" s="18"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A366" s="8" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
@@ -6940,7 +6951,7 @@
       <c r="F366" s="16"/>
       <c r="G366" s="16"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A367" s="17" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
@@ -6952,7 +6963,7 @@
       <c r="F367" s="18"/>
       <c r="G367" s="18"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A368" s="8" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
@@ -6964,7 +6975,7 @@
       <c r="F368" s="16"/>
       <c r="G368" s="16"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A369" s="17" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
@@ -6976,7 +6987,7 @@
       <c r="F369" s="18"/>
       <c r="G369" s="18"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A370" s="8" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
@@ -6988,7 +6999,7 @@
       <c r="F370" s="16"/>
       <c r="G370" s="16"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A371" s="17" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
@@ -7000,7 +7011,7 @@
       <c r="F371" s="18"/>
       <c r="G371" s="18"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A372" s="8" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
@@ -7012,7 +7023,7 @@
       <c r="F372" s="16"/>
       <c r="G372" s="16"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A373" s="17" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
@@ -7024,7 +7035,7 @@
       <c r="F373" s="18"/>
       <c r="G373" s="18"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A374" s="8" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
@@ -7036,7 +7047,7 @@
       <c r="F374" s="16"/>
       <c r="G374" s="16"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A375" s="17" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
@@ -7048,7 +7059,7 @@
       <c r="F375" s="18"/>
       <c r="G375" s="18"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A376" s="8" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
@@ -7060,7 +7071,7 @@
       <c r="F376" s="16"/>
       <c r="G376" s="16"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A377" s="17" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
@@ -7072,7 +7083,7 @@
       <c r="F377" s="18"/>
       <c r="G377" s="18"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A378" s="8" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
@@ -7084,7 +7095,7 @@
       <c r="F378" s="16"/>
       <c r="G378" s="16"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A379" s="17" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
@@ -7096,7 +7107,7 @@
       <c r="F379" s="18"/>
       <c r="G379" s="18"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A380" s="8" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
@@ -7108,7 +7119,7 @@
       <c r="F380" s="16"/>
       <c r="G380" s="16"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A381" s="17" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
@@ -7120,7 +7131,7 @@
       <c r="F381" s="18"/>
       <c r="G381" s="18"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A382" s="8" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
@@ -7132,7 +7143,7 @@
       <c r="F382" s="16"/>
       <c r="G382" s="16"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A383" s="17" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
@@ -7144,7 +7155,7 @@
       <c r="F383" s="18"/>
       <c r="G383" s="18"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A384" s="8" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
@@ -7156,7 +7167,7 @@
       <c r="F384" s="16"/>
       <c r="G384" s="16"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A385" s="17" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
@@ -7168,7 +7179,7 @@
       <c r="F385" s="18"/>
       <c r="G385" s="18"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A386" s="8" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
@@ -7180,7 +7191,7 @@
       <c r="F386" s="16"/>
       <c r="G386" s="16"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A387" s="17" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
@@ -7192,7 +7203,7 @@
       <c r="F387" s="18"/>
       <c r="G387" s="18"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A388" s="8" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
@@ -7204,7 +7215,7 @@
       <c r="F388" s="16"/>
       <c r="G388" s="16"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A389" s="17" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
@@ -7216,7 +7227,7 @@
       <c r="F389" s="18"/>
       <c r="G389" s="18"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A390" s="8" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
@@ -7228,7 +7239,7 @@
       <c r="F390" s="16"/>
       <c r="G390" s="16"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A391" s="17" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
@@ -7240,7 +7251,7 @@
       <c r="F391" s="18"/>
       <c r="G391" s="18"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A392" s="8" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
@@ -7252,7 +7263,7 @@
       <c r="F392" s="16"/>
       <c r="G392" s="16"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A393" s="17" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
@@ -7264,7 +7275,7 @@
       <c r="F393" s="18"/>
       <c r="G393" s="18"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A394" s="8" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
@@ -7276,7 +7287,7 @@
       <c r="F394" s="16"/>
       <c r="G394" s="16"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A395" s="17" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
@@ -7288,7 +7299,7 @@
       <c r="F395" s="18"/>
       <c r="G395" s="18"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A396" s="8" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
@@ -7300,7 +7311,7 @@
       <c r="F396" s="16"/>
       <c r="G396" s="16"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A397" s="17" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
@@ -7312,7 +7323,7 @@
       <c r="F397" s="18"/>
       <c r="G397" s="18"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A398" s="8" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
@@ -7324,7 +7335,7 @@
       <c r="F398" s="16"/>
       <c r="G398" s="16"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A399" s="17" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
@@ -7336,7 +7347,7 @@
       <c r="F399" s="18"/>
       <c r="G399" s="18"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A400" s="8" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
@@ -7348,7 +7359,7 @@
       <c r="F400" s="16"/>
       <c r="G400" s="16"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A401" s="17" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
@@ -7360,7 +7371,7 @@
       <c r="F401" s="18"/>
       <c r="G401" s="18"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A402" s="8" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
@@ -7372,7 +7383,7 @@
       <c r="F402" s="16"/>
       <c r="G402" s="16"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A403" s="17" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
@@ -7384,7 +7395,7 @@
       <c r="F403" s="18"/>
       <c r="G403" s="18"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A404" s="8" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
@@ -7396,7 +7407,7 @@
       <c r="F404" s="16"/>
       <c r="G404" s="16"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A405" s="17" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
@@ -7408,7 +7419,7 @@
       <c r="F405" s="18"/>
       <c r="G405" s="18"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A406" s="8" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
@@ -7420,7 +7431,7 @@
       <c r="F406" s="16"/>
       <c r="G406" s="16"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A407" s="17" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
@@ -7432,7 +7443,7 @@
       <c r="F407" s="18"/>
       <c r="G407" s="18"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A408" s="8" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
@@ -7444,7 +7455,7 @@
       <c r="F408" s="16"/>
       <c r="G408" s="16"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A409" s="17" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
@@ -7456,7 +7467,7 @@
       <c r="F409" s="18"/>
       <c r="G409" s="18"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A410" s="8" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
@@ -7468,7 +7479,7 @@
       <c r="F410" s="16"/>
       <c r="G410" s="16"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A411" s="17" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
@@ -7480,7 +7491,7 @@
       <c r="F411" s="18"/>
       <c r="G411" s="18"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A412" s="8" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
@@ -7492,7 +7503,7 @@
       <c r="F412" s="16"/>
       <c r="G412" s="16"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A413" s="17" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
@@ -7504,7 +7515,7 @@
       <c r="F413" s="18"/>
       <c r="G413" s="18"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A414" s="8" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
@@ -7516,7 +7527,7 @@
       <c r="F414" s="16"/>
       <c r="G414" s="16"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A415" s="17" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
@@ -7528,7 +7539,7 @@
       <c r="F415" s="18"/>
       <c r="G415" s="18"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A416" s="8" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
@@ -7540,7 +7551,7 @@
       <c r="F416" s="16"/>
       <c r="G416" s="16"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A417" s="17" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
@@ -7552,7 +7563,7 @@
       <c r="F417" s="18"/>
       <c r="G417" s="18"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A418" s="8" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
@@ -7564,7 +7575,7 @@
       <c r="F418" s="16"/>
       <c r="G418" s="16"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A419" s="17" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
@@ -7576,7 +7587,7 @@
       <c r="F419" s="18"/>
       <c r="G419" s="18"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A420" s="8" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
@@ -7588,7 +7599,7 @@
       <c r="F420" s="16"/>
       <c r="G420" s="16"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A421" s="17" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
@@ -7600,7 +7611,7 @@
       <c r="F421" s="18"/>
       <c r="G421" s="18"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A422" s="8" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
@@ -7612,7 +7623,7 @@
       <c r="F422" s="16"/>
       <c r="G422" s="16"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A423" s="17" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
@@ -7624,7 +7635,7 @@
       <c r="F423" s="18"/>
       <c r="G423" s="18"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A424" s="8" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
@@ -7636,7 +7647,7 @@
       <c r="F424" s="16"/>
       <c r="G424" s="16"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A425" s="17" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
@@ -7648,7 +7659,7 @@
       <c r="F425" s="18"/>
       <c r="G425" s="18"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A426" s="8" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
@@ -7660,7 +7671,7 @@
       <c r="F426" s="16"/>
       <c r="G426" s="16"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A427" s="17" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
@@ -7672,7 +7683,7 @@
       <c r="F427" s="18"/>
       <c r="G427" s="18"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A428" s="8" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
@@ -7684,7 +7695,7 @@
       <c r="F428" s="16"/>
       <c r="G428" s="16"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A429" s="17" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
@@ -7696,7 +7707,7 @@
       <c r="F429" s="18"/>
       <c r="G429" s="18"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A430" s="8" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
@@ -7708,7 +7719,7 @@
       <c r="F430" s="16"/>
       <c r="G430" s="16"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A431" s="17" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
@@ -7720,7 +7731,7 @@
       <c r="F431" s="18"/>
       <c r="G431" s="18"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A432" s="8" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
@@ -7732,7 +7743,7 @@
       <c r="F432" s="16"/>
       <c r="G432" s="16"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A433" s="17" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
@@ -7744,7 +7755,7 @@
       <c r="F433" s="18"/>
       <c r="G433" s="18"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A434" s="8" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
@@ -7756,7 +7767,7 @@
       <c r="F434" s="16"/>
       <c r="G434" s="16"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A435" s="17" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
@@ -7768,7 +7779,7 @@
       <c r="F435" s="18"/>
       <c r="G435" s="18"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A436" s="8" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
@@ -7780,7 +7791,7 @@
       <c r="F436" s="16"/>
       <c r="G436" s="16"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A437" s="17" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
@@ -7792,7 +7803,7 @@
       <c r="F437" s="18"/>
       <c r="G437" s="18"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A438" s="8" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
@@ -7804,7 +7815,7 @@
       <c r="F438" s="16"/>
       <c r="G438" s="16"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A439" s="17" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
@@ -7816,7 +7827,7 @@
       <c r="F439" s="18"/>
       <c r="G439" s="18"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A440" s="8" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
@@ -7828,7 +7839,7 @@
       <c r="F440" s="16"/>
       <c r="G440" s="16"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A441" s="17" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
@@ -7840,7 +7851,7 @@
       <c r="F441" s="18"/>
       <c r="G441" s="18"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A442" s="8" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
@@ -7852,7 +7863,7 @@
       <c r="F442" s="16"/>
       <c r="G442" s="16"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A443" s="17" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
@@ -7864,7 +7875,7 @@
       <c r="F443" s="18"/>
       <c r="G443" s="18"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A444" s="8" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
@@ -7876,7 +7887,7 @@
       <c r="F444" s="16"/>
       <c r="G444" s="16"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A445" s="17" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
@@ -7888,7 +7899,7 @@
       <c r="F445" s="18"/>
       <c r="G445" s="18"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A446" s="8" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
@@ -7900,7 +7911,7 @@
       <c r="F446" s="16"/>
       <c r="G446" s="16"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A447" s="17" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
@@ -7912,7 +7923,7 @@
       <c r="F447" s="18"/>
       <c r="G447" s="18"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A448" s="8" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
@@ -7924,7 +7935,7 @@
       <c r="F448" s="16"/>
       <c r="G448" s="16"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A449" s="17" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
@@ -7936,7 +7947,7 @@
       <c r="F449" s="18"/>
       <c r="G449" s="18"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A450" s="8" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
@@ -7948,7 +7959,7 @@
       <c r="F450" s="16"/>
       <c r="G450" s="16"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A451" s="17" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
@@ -7960,7 +7971,7 @@
       <c r="F451" s="18"/>
       <c r="G451" s="18"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A452" s="8" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
@@ -7972,7 +7983,7 @@
       <c r="F452" s="16"/>
       <c r="G452" s="16"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A453" s="17" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
@@ -7984,7 +7995,7 @@
       <c r="F453" s="18"/>
       <c r="G453" s="18"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A454" s="8" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
@@ -7996,7 +8007,7 @@
       <c r="F454" s="16"/>
       <c r="G454" s="16"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A455" s="17" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
@@ -8008,7 +8019,7 @@
       <c r="F455" s="18"/>
       <c r="G455" s="18"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A456" s="8" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
@@ -8020,7 +8031,7 @@
       <c r="F456" s="16"/>
       <c r="G456" s="16"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A457" s="17" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
@@ -8032,7 +8043,7 @@
       <c r="F457" s="18"/>
       <c r="G457" s="18"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A458" s="8" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
@@ -8044,7 +8055,7 @@
       <c r="F458" s="16"/>
       <c r="G458" s="16"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A459" s="17" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
@@ -8056,7 +8067,7 @@
       <c r="F459" s="18"/>
       <c r="G459" s="18"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A460" s="8" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
@@ -8068,7 +8079,7 @@
       <c r="F460" s="16"/>
       <c r="G460" s="16"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A461" s="17" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
@@ -8080,7 +8091,7 @@
       <c r="F461" s="18"/>
       <c r="G461" s="18"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A462" s="8" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
@@ -8092,7 +8103,7 @@
       <c r="F462" s="16"/>
       <c r="G462" s="16"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A463" s="17" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
@@ -8104,7 +8115,7 @@
       <c r="F463" s="18"/>
       <c r="G463" s="18"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A464" s="8" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
@@ -8116,7 +8127,7 @@
       <c r="F464" s="16"/>
       <c r="G464" s="16"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A465" s="17" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
@@ -8128,7 +8139,7 @@
       <c r="F465" s="18"/>
       <c r="G465" s="18"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A466" s="8" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
@@ -8140,7 +8151,7 @@
       <c r="F466" s="16"/>
       <c r="G466" s="16"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A467" s="17" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
@@ -8152,7 +8163,7 @@
       <c r="F467" s="18"/>
       <c r="G467" s="18"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A468" s="8" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
@@ -8164,7 +8175,7 @@
       <c r="F468" s="16"/>
       <c r="G468" s="16"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A469" s="17" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
@@ -8176,7 +8187,7 @@
       <c r="F469" s="18"/>
       <c r="G469" s="18"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A470" s="8" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
@@ -8188,7 +8199,7 @@
       <c r="F470" s="16"/>
       <c r="G470" s="16"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A471" s="17" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
@@ -8200,7 +8211,7 @@
       <c r="F471" s="18"/>
       <c r="G471" s="18"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A472" s="8" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
@@ -8212,7 +8223,7 @@
       <c r="F472" s="16"/>
       <c r="G472" s="16"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A473" s="17" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
@@ -8224,7 +8235,7 @@
       <c r="F473" s="18"/>
       <c r="G473" s="18"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A474" s="8" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
@@ -8236,7 +8247,7 @@
       <c r="F474" s="16"/>
       <c r="G474" s="16"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A475" s="17" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
@@ -8248,7 +8259,7 @@
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A476" s="8" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
@@ -8260,7 +8271,7 @@
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A477" s="17" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
@@ -8272,7 +8283,7 @@
       <c r="F477" s="18"/>
       <c r="G477" s="18"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A478" s="8" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
@@ -8284,7 +8295,7 @@
       <c r="F478" s="16"/>
       <c r="G478" s="16"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A479" s="17" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
@@ -8296,7 +8307,7 @@
       <c r="F479" s="18"/>
       <c r="G479" s="18"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A480" s="8" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
@@ -8308,7 +8319,7 @@
       <c r="F480" s="16"/>
       <c r="G480" s="16"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A481" s="17" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
@@ -8320,7 +8331,7 @@
       <c r="F481" s="18"/>
       <c r="G481" s="18"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A482" s="8" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
@@ -8332,7 +8343,7 @@
       <c r="F482" s="16"/>
       <c r="G482" s="16"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A483" s="17" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
@@ -8344,7 +8355,7 @@
       <c r="F483" s="18"/>
       <c r="G483" s="18"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A484" s="8" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
@@ -8356,7 +8367,7 @@
       <c r="F484" s="16"/>
       <c r="G484" s="16"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A485" s="17" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
@@ -8368,7 +8379,7 @@
       <c r="F485" s="18"/>
       <c r="G485" s="18"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A486" s="8" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
@@ -8380,7 +8391,7 @@
       <c r="F486" s="16"/>
       <c r="G486" s="16"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A487" s="17" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
@@ -8392,7 +8403,7 @@
       <c r="F487" s="18"/>
       <c r="G487" s="18"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A488" s="8" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
@@ -8404,7 +8415,7 @@
       <c r="F488" s="16"/>
       <c r="G488" s="16"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A489" s="17" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
@@ -8416,7 +8427,7 @@
       <c r="F489" s="18"/>
       <c r="G489" s="18"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A490" s="8" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
@@ -8428,7 +8439,7 @@
       <c r="F490" s="16"/>
       <c r="G490" s="16"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A491" s="17" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
@@ -8440,7 +8451,7 @@
       <c r="F491" s="18"/>
       <c r="G491" s="18"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A492" s="8" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
@@ -8452,7 +8463,7 @@
       <c r="F492" s="16"/>
       <c r="G492" s="16"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A493" s="17" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
@@ -8464,7 +8475,7 @@
       <c r="F493" s="18"/>
       <c r="G493" s="18"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A494" s="8" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
@@ -8476,7 +8487,7 @@
       <c r="F494" s="16"/>
       <c r="G494" s="16"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A495" s="17" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
@@ -8488,7 +8499,7 @@
       <c r="F495" s="18"/>
       <c r="G495" s="18"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A496" s="8" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
@@ -8500,7 +8511,7 @@
       <c r="F496" s="16"/>
       <c r="G496" s="16"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A497" s="17" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
@@ -8512,7 +8523,7 @@
       <c r="F497" s="18"/>
       <c r="G497" s="18"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A498" s="8" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
@@ -8524,7 +8535,7 @@
       <c r="F498" s="16"/>
       <c r="G498" s="16"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A499" s="17" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
@@ -8536,7 +8547,7 @@
       <c r="F499" s="18"/>
       <c r="G499" s="18"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A500" s="8" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
@@ -8548,7 +8559,7 @@
       <c r="F500" s="16"/>
       <c r="G500" s="16"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A501" s="17" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
@@ -8560,7 +8571,7 @@
       <c r="F501" s="18"/>
       <c r="G501" s="18"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A502" s="8" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
@@ -8572,7 +8583,7 @@
       <c r="F502" s="16"/>
       <c r="G502" s="16"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A503" s="17" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
@@ -8584,7 +8595,7 @@
       <c r="F503" s="18"/>
       <c r="G503" s="18"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A504" s="8" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
@@ -8596,7 +8607,7 @@
       <c r="F504" s="16"/>
       <c r="G504" s="16"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A505" s="17" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
@@ -8608,7 +8619,7 @@
       <c r="F505" s="18"/>
       <c r="G505" s="18"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A506" s="8" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
@@ -8620,7 +8631,7 @@
       <c r="F506" s="16"/>
       <c r="G506" s="16"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A507" s="17" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
@@ -8632,7 +8643,7 @@
       <c r="F507" s="18"/>
       <c r="G507" s="18"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A508" s="8" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
@@ -8644,7 +8655,7 @@
       <c r="F508" s="16"/>
       <c r="G508" s="16"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A509" s="17" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
@@ -8656,7 +8667,7 @@
       <c r="F509" s="18"/>
       <c r="G509" s="18"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A510" s="8" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
@@ -8668,7 +8679,7 @@
       <c r="F510" s="16"/>
       <c r="G510" s="16"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A511" s="17" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
@@ -8680,7 +8691,7 @@
       <c r="F511" s="18"/>
       <c r="G511" s="18"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A512" s="8" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
@@ -8692,7 +8703,7 @@
       <c r="F512" s="16"/>
       <c r="G512" s="16"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A513" s="17" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
@@ -8704,7 +8715,7 @@
       <c r="F513" s="18"/>
       <c r="G513" s="18"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A514" s="8" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
@@ -8716,7 +8727,7 @@
       <c r="F514" s="16"/>
       <c r="G514" s="16"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A515" s="17" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
@@ -8728,7 +8739,7 @@
       <c r="F515" s="18"/>
       <c r="G515" s="18"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A516" s="8" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
@@ -8740,7 +8751,7 @@
       <c r="F516" s="16"/>
       <c r="G516" s="16"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A517" s="17" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
@@ -8752,7 +8763,7 @@
       <c r="F517" s="18"/>
       <c r="G517" s="18"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A518" s="8" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
@@ -8764,7 +8775,7 @@
       <c r="F518" s="16"/>
       <c r="G518" s="16"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A519" s="17" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
         <v/>
@@ -8776,7 +8787,7 @@
       <c r="F519" s="18"/>
       <c r="G519" s="18"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A520" s="8" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
         <v/>
@@ -8788,7 +8799,7 @@
       <c r="F520" s="16"/>
       <c r="G520" s="16"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A521" s="17" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
         <v/>
@@ -8800,7 +8811,7 @@
       <c r="F521" s="18"/>
       <c r="G521" s="18"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A522" s="8" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
         <v/>
@@ -8812,7 +8823,7 @@
       <c r="F522" s="16"/>
       <c r="G522" s="16"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A523" s="17" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
         <v/>
@@ -8824,7 +8835,7 @@
       <c r="F523" s="18"/>
       <c r="G523" s="18"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A524" s="8" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
         <v/>
@@ -8836,7 +8847,7 @@
       <c r="F524" s="16"/>
       <c r="G524" s="16"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A525" s="17" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
         <v/>
@@ -8848,7 +8859,7 @@
       <c r="F525" s="18"/>
       <c r="G525" s="18"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A526" s="8" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
         <v/>
@@ -8860,7 +8871,7 @@
       <c r="F526" s="16"/>
       <c r="G526" s="16"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A527" s="17" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
         <v/>
@@ -8872,7 +8883,7 @@
       <c r="F527" s="18"/>
       <c r="G527" s="18"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A528" s="8" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
         <v/>
@@ -8884,7 +8895,7 @@
       <c r="F528" s="16"/>
       <c r="G528" s="16"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A529" s="17" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
         <v/>
@@ -8896,7 +8907,7 @@
       <c r="F529" s="18"/>
       <c r="G529" s="18"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A530" s="8" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
         <v/>
@@ -8908,7 +8919,7 @@
       <c r="F530" s="16"/>
       <c r="G530" s="16"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A531" s="17" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
         <v/>
@@ -8920,7 +8931,7 @@
       <c r="F531" s="18"/>
       <c r="G531" s="18"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A532" s="8" t="str">
         <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
         <v/>
@@ -8939,28 +8950,28 @@
     <mergeCell ref="C5:D5"/>
   </mergeCells>
   <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="16" priority="1">
+    <cfRule type="expression" dxfId="7" priority="1">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8992,7 +9003,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" hidden="1" customWidth="1"/>
@@ -9000,7 +9011,7 @@
     <col min="4" max="4" width="13.5" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -9014,7 +9025,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>60</v>
@@ -9032,14 +9043,14 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>240</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>455</v>
+        <v>475</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -9047,10 +9058,10 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.4826388888888889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.49652777777777779</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -9068,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -9086,7 +9097,7 @@
         <v>6.5972222222222224E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -9104,7 +9115,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C9,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -9122,7 +9133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
         <v>0</v>
@@ -9136,7 +9147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
         <v>100</v>
@@ -9150,16 +9161,16 @@
         <v>6.9444444444444448E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.69097222222222221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.70486111111111105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" s="39"/>
     </row>
   </sheetData>
@@ -9170,6 +9181,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9392,27 +9423,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9429,23 +9459,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E02C0B1-7B57-4F34-9928-F228DE72BCEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA9214F-A626-4FD2-B868-B6F03F582A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>Refactore: (Graph.cs) Mise en place du flowLayoutPanel dans la conception</t>
+  </si>
+  <si>
+    <t>Doc: (DataSelection.cs) Ajout des commentaires dans la classe DataSelection.cs</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1185,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.49652777777777779</c:v>
+                  <c:v>0.50694444444444442</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2113,7 +2116,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2166,7 +2169,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 21 heurs 54 minutes</v>
+        <v>0 jours 22 heurs 10 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2185,11 +2188,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1315</v>
+        <v>1330</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -3097,7 +3100,7 @@
         <v>41</v>
       </c>
       <c r="B46" s="47">
-        <v>45576</v>
+        <v>45578</v>
       </c>
       <c r="C46" s="48"/>
       <c r="D46" s="49">
@@ -3112,15 +3115,23 @@
       <c r="G46" s="16"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A47" s="17" t="str">
+      <c r="A47" s="17">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
-        <v/>
-      </c>
-      <c r="B47" s="51"/>
+        <v>41</v>
+      </c>
+      <c r="B47" s="51">
+        <v>45578</v>
+      </c>
       <c r="C47" s="52"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="36"/>
+      <c r="D47" s="53">
+        <v>15</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>69</v>
+      </c>
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.5">
@@ -9050,7 +9061,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>475</v>
+        <v>490</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -9058,7 +9069,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.49652777777777779</v>
+        <v>0.50694444444444442</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9167,7 +9178,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.70486111111111105</v>
+        <v>0.71527777777777768</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9181,26 +9192,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9423,10 +9414,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9443,20 +9465,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA9214F-A626-4FD2-B868-B6F03F582A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF23A6FA-79D7-40F6-84AF-9DA7C787B7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>Doc: (DataSelection.cs) Ajout des commentaires dans la classe DataSelection.cs</t>
+  </si>
+  <si>
+    <t>Refcatore: (Graph.cs) Remplacement des bouton représentant les équipes pour les filtres par des checkBox</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1188,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.50694444444444442</c:v>
+                  <c:v>0.54166666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2116,7 +2119,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F48" sqref="F48"/>
+      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2169,7 +2172,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 22 heurs 10 minutes</v>
+        <v>0 jours 23 heurs 0 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2188,11 +2191,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>730</v>
+        <v>780</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1330</v>
+        <v>1380</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -3135,15 +3138,23 @@
       <c r="G47" s="18"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A48" s="8" t="str">
+      <c r="A48" s="8">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
-        <v/>
-      </c>
-      <c r="B48" s="47"/>
+        <v>43</v>
+      </c>
+      <c r="B48" s="47">
+        <v>45586</v>
+      </c>
       <c r="C48" s="48"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="36"/>
+      <c r="D48" s="49">
+        <v>50</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="36" t="s">
+        <v>70</v>
+      </c>
       <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.5">
@@ -9061,7 +9072,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>490</v>
+        <v>540</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -9069,7 +9080,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.50694444444444442</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9178,7 +9189,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.71527777777777768</v>
+        <v>0.74999999999999989</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9192,6 +9203,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9414,27 +9445,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9451,23 +9481,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF23A6FA-79D7-40F6-84AF-9DA7C787B7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4D5D78-F1EF-4633-B396-45EF864F9D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>Refcatore: (Graph.cs) Remplacement des bouton représentant les équipes pour les filtres par des checkBox</t>
+  </si>
+  <si>
+    <t>Chore: (Graph.cs) Ajout des commentaires dans la classe</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1191,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.54166666666666663</c:v>
+                  <c:v>0.55555555555555558</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2119,7 +2122,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2172,7 +2175,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 23 heurs 0 minutes</v>
+        <v>0 jours 23 heurs 19 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2191,11 +2194,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1380</v>
+        <v>1400</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -3158,15 +3161,23 @@
       <c r="G48" s="16"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A49" s="17" t="str">
+      <c r="A49" s="17">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
-        <v/>
-      </c>
-      <c r="B49" s="51"/>
+        <v>43</v>
+      </c>
+      <c r="B49" s="51">
+        <v>45586</v>
+      </c>
       <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="36"/>
+      <c r="D49" s="53">
+        <v>20</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="36" t="s">
+        <v>71</v>
+      </c>
       <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.5">
@@ -9072,7 +9083,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>540</v>
+        <v>560</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -9080,7 +9091,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.54166666666666663</v>
+        <v>0.55555555555555558</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9189,7 +9200,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.74999999999999989</v>
+        <v>0.76388888888888884</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C4D5D78-F1EF-4633-B396-45EF864F9D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0148A576-103B-41EF-87F1-69A5A75D88AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>Chore: (Graph.cs) Ajout des commentaires dans la classe</t>
+  </si>
+  <si>
+    <t>refactore: (Graph.cs) remplacement des tableaux de jour par une liste de tuple (numéros jour de la semaine,  nom du jour)</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1194,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.55555555555555558</c:v>
+                  <c:v>0.59722222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2121,8 +2124,8 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F52" sqref="F52"/>
+      <pane ySplit="6" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2175,7 +2178,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 23 heurs 19 minutes</v>
+        <v>1 jours 0 heurs 19 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2190,7 +2193,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>600</v>
+        <v>660</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -2198,7 +2201,7 @@
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1400</v>
+        <v>1460</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -3181,15 +3184,23 @@
       <c r="G49" s="18"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A50" s="8" t="str">
+      <c r="A50" s="8">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
-        <v/>
-      </c>
-      <c r="B50" s="47"/>
-      <c r="C50" s="48"/>
+        <v>43</v>
+      </c>
+      <c r="B50" s="47">
+        <v>45587</v>
+      </c>
+      <c r="C50" s="48">
+        <v>1</v>
+      </c>
       <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="36"/>
+      <c r="E50" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="36" t="s">
+        <v>72</v>
+      </c>
       <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.5">
@@ -9079,7 +9090,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -9091,7 +9102,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.55555555555555558</v>
+        <v>0.59722222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9200,7 +9211,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.76388888888888884</v>
+        <v>0.80555555555555547</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9214,26 +9225,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9456,10 +9447,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9476,20 +9498,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0148A576-103B-41EF-87F1-69A5A75D88AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8870AC-3CEF-42D2-A55E-06D9700C5777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>refactore: (Graph.cs) remplacement des tableaux de jour par une liste de tuple (numéros jour de la semaine,  nom du jour)</t>
+  </si>
+  <si>
+    <t>Tentative ajout filtre avec jour</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1197,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59722222222222221</c:v>
+                  <c:v>0.68055555555555558</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2124,7 +2127,7 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
@@ -2178,7 +2181,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>1 jours 0 heurs 19 minutes</v>
+        <v>1 jours 2 heurs 20 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2193,7 +2196,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>660</v>
+        <v>780</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -2201,7 +2204,7 @@
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1460</v>
+        <v>1580</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -3204,15 +3207,23 @@
       <c r="G50" s="16"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A51" s="17" t="str">
+      <c r="A51" s="17">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
-        <v/>
-      </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="52"/>
+        <v>43</v>
+      </c>
+      <c r="B51" s="51">
+        <v>45587</v>
+      </c>
+      <c r="C51" s="52">
+        <v>2</v>
+      </c>
       <c r="D51" s="53"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="36"/>
+      <c r="E51" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="36" t="s">
+        <v>73</v>
+      </c>
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.5">
@@ -9090,7 +9101,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>300</v>
+        <v>420</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -9102,7 +9113,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.59722222222222221</v>
+        <v>0.68055555555555558</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9211,7 +9222,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.80555555555555547</v>
+        <v>0.88888888888888884</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8870AC-3CEF-42D2-A55E-06D9700C5777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF08AE5D-1551-4D4E-BE9B-ED3B7FC45B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -263,6 +263,9 @@
   </si>
   <si>
     <t>Tentative ajout filtre avec jour</t>
+  </si>
+  <si>
+    <t>Feat: (Graph.cs) ajout des filtre par jour</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1200,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.68055555555555558</c:v>
+                  <c:v>0.72222222222222221</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2128,7 +2131,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2181,7 +2184,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>1 jours 2 heurs 20 minutes</v>
+        <v>1 jours 3 heurs 19 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2196,7 +2199,7 @@
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
@@ -2204,7 +2207,7 @@
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1580</v>
+        <v>1640</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -3227,15 +3230,23 @@
       <c r="G51" s="18"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A52" s="8" t="str">
+      <c r="A52" s="8">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
-        <v/>
-      </c>
-      <c r="B52" s="47"/>
-      <c r="C52" s="48"/>
+        <v>43</v>
+      </c>
+      <c r="B52" s="47">
+        <v>45588</v>
+      </c>
+      <c r="C52" s="48">
+        <v>1</v>
+      </c>
       <c r="D52" s="49"/>
-      <c r="E52" s="50"/>
-      <c r="F52" s="36"/>
+      <c r="E52" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="36" t="s">
+        <v>74</v>
+      </c>
       <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.5">
@@ -9101,7 +9112,7 @@
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
@@ -9113,7 +9124,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.68055555555555558</v>
+        <v>0.72222222222222221</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9222,7 +9233,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.88888888888888884</v>
+        <v>0.93055555555555547</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9236,6 +9247,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9458,27 +9489,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9495,23 +9525,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF08AE5D-1551-4D4E-BE9B-ED3B7FC45B89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6C5A59-5597-4980-944C-DE4E8A63A4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -266,6 +266,9 @@
   </si>
   <si>
     <t>Feat: (Graph.cs) ajout des filtre par jour</t>
+  </si>
+  <si>
+    <t>Refactor: (Graph.cs) déplacement de la methode CreateDisableAllTeamsCheckBox(); afin de la mettre dans le constructor</t>
   </si>
 </sst>
 </file>
@@ -3250,15 +3253,23 @@
       <c r="G52" s="16"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A53" s="17" t="str">
+      <c r="A53" s="17">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
-        <v/>
-      </c>
-      <c r="B53" s="51"/>
+        <v>43</v>
+      </c>
+      <c r="B53" s="51">
+        <v>45588</v>
+      </c>
       <c r="C53" s="52"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="36"/>
+      <c r="D53" s="53">
+        <v>0</v>
+      </c>
+      <c r="E53" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="36" t="s">
+        <v>75</v>
+      </c>
       <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.5">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6C5A59-5597-4980-944C-DE4E8A63A4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38AECE4-E85F-4C1C-9A42-7F8F873D6270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -269,6 +269,9 @@
   </si>
   <si>
     <t>Refactor: (Graph.cs) déplacement de la methode CreateDisableAllTeamsCheckBox(); afin de la mettre dans le constructor</t>
+  </si>
+  <si>
+    <t>Fix: (Graph.cs) re création des checkbox d'équipe a chaque filtre par jour</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1206,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72222222222222221</c:v>
+                  <c:v>0.72569444444444442</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2134,7 +2137,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F55" sqref="F55"/>
+      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2187,7 +2190,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>1 jours 3 heurs 19 minutes</v>
+        <v>1 jours 3 heurs 25 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2206,11 +2209,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1640</v>
+        <v>1645</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -3273,15 +3276,23 @@
       <c r="G53" s="18"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A54" s="8" t="str">
+      <c r="A54" s="8">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
-        <v/>
-      </c>
-      <c r="B54" s="47"/>
+        <v>43</v>
+      </c>
+      <c r="B54" s="47">
+        <v>45588</v>
+      </c>
       <c r="C54" s="48"/>
-      <c r="D54" s="49"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="36"/>
+      <c r="D54" s="49">
+        <v>5</v>
+      </c>
+      <c r="E54" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="36" t="s">
+        <v>76</v>
+      </c>
       <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.5">
@@ -9127,7 +9138,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -9135,7 +9146,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.72222222222222221</v>
+        <v>0.72569444444444442</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9244,7 +9255,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.93055555555555547</v>
+        <v>0.93402777777777768</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38AECE4-E85F-4C1C-9A42-7F8F873D6270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C264671-F3D8-4D6A-868B-922E98F72F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Fix: (Graph.cs) re création des checkbox d'équipe a chaque filtre par jour</t>
+  </si>
+  <si>
+    <t>Feat: (Graph.cs) changement du type de ligne en bar si l'utilisateur n'affiche qu'un seul jour</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1209,7 @@
                   <c:v>4.1666666666666664E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.72569444444444442</c:v>
+                  <c:v>0.73263888888888884</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2137,7 +2140,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F56" sqref="F56"/>
+      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -2190,7 +2193,7 @@
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>1 jours 3 heurs 25 minutes</v>
+        <v>1 jours 3 heurs 35 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2209,11 +2212,11 @@
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1645</v>
+        <v>1655</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -3296,15 +3299,23 @@
       <c r="G54" s="16"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A55" s="17" t="str">
+      <c r="A55" s="17">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
-        <v/>
-      </c>
-      <c r="B55" s="51"/>
+        <v>43</v>
+      </c>
+      <c r="B55" s="51">
+        <v>45588</v>
+      </c>
       <c r="C55" s="52"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="36"/>
+      <c r="D55" s="53">
+        <v>10</v>
+      </c>
+      <c r="E55" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="36" t="s">
+        <v>77</v>
+      </c>
       <c r="G55" s="18"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.5">
@@ -9138,7 +9149,7 @@
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -9146,7 +9157,7 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.72569444444444442</v>
+        <v>0.73263888888888884</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -9255,7 +9266,7 @@
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.93402777777777768</v>
+        <v>0.9409722222222221</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">

--- a/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
+++ b/Docs/Journal-de-Travail_BelkhiriaSofiene.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BILEL\Documents\PlotThatLine\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po66qga\Documents\GitHub\PlotThatLine\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C264671-F3D8-4D6A-868B-922E98F72F77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2C9784-13ED-4E79-99C9-ECF3FB5383CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="96">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -276,6 +276,60 @@
   <si>
     <t>Feat: (Graph.cs) changement du type de ligne en bar si l'utilisateur n'affiche qu'un seul jour</t>
   </si>
+  <si>
+    <t>Fix permettant de ne plus réafficher toutes les équipes en cas de filtre sur un jour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creation + Update de la liste des refactores à faire dans le code </t>
+  </si>
+  <si>
+    <t>Feat: (Form1.cs) ajout d'une openFileDialog</t>
+  </si>
+  <si>
+    <t>Création de la user stories "Choix du fichier de graph"</t>
+  </si>
+  <si>
+    <t>Ajout et adaptation du graphique en fonction du fichier choisi</t>
+  </si>
+  <si>
+    <t>Doc: (Rapport) Ecriture du point 2.4 et 2.5</t>
+  </si>
+  <si>
+    <t>Doc: (Rapport) Ecriture de la stratégie de test global</t>
+  </si>
+  <si>
+    <t>Comment: (Graph.cs) ajout des commentaire dans la classe</t>
+  </si>
+  <si>
+    <t>Ajout d'un test unitaire qui vérifie que suite a la méthode createGraph le graph n'est pas vide</t>
+  </si>
+  <si>
+    <t>Ajout d'un test unitaire sur la méthode loadFile</t>
+  </si>
+  <si>
+    <t>Ajout d'un test sur la méthode creatGraph afin de vérifier que le nombre de ligne du graph est équivalent au nombre de checkbox d'équipe cochée (Sauf la checkbox "Tout supprimer")</t>
+  </si>
+  <si>
+    <t>Doc: (rapport) Fin de l'écriture des points 2.4, 2.5 et 2.6</t>
+  </si>
+  <si>
+    <t>Fix: (Graph.cs &amp;&amp; form1.cs) fix d'un bug rendant dedendant les donnée si l'utilisateur recharge un fichier</t>
+  </si>
+  <si>
+    <t>doc: (rapport) Ecriture des point 2.3 et 3.4</t>
+  </si>
+  <si>
+    <t>Doc: (Rapport) réalisation du point 3.5</t>
+  </si>
+  <si>
+    <t>doc: (Rapport) rédaction des points 4 et 5 du rapport</t>
+  </si>
+  <si>
+    <t>Chore: (DataSelction.cs, Form1.cs) Ajout d'une gestion d'erreur sur la méthode loadFile</t>
+  </si>
+  <si>
+    <t>Doc: (rapport) Mise à jour du point ,3.4, 3 et 2.3</t>
+  </si>
 </sst>
 </file>
 
@@ -289,7 +343,7 @@
     <numFmt numFmtId="168" formatCode="00\ &quot;min&quot;"/>
     <numFmt numFmtId="169" formatCode="hh\ &quot;h&quot;\ mm\ &quot;min&quot;"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -373,6 +427,18 @@
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="4"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="12">
@@ -464,7 +530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -599,11 +665,15 @@
     <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="33">
     <dxf>
       <font>
         <color theme="0"/>
@@ -846,6 +916,154 @@
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2" tint="-9.9978637043366805E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCC00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1206,16 +1424,16 @@
                 <c:formatCode>hh\ "h"\ mm\ "min"</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.1666666666666664E-2</c:v>
+                  <c:v>5.2083333333333336E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.73263888888888884</c:v>
+                  <c:v>0.80208333333333337</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.4722222222222224E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5972222222222224E-2</c:v>
+                  <c:v>0.25347222222222221</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.125E-2</c:v>
@@ -2139,11 +2357,11 @@
   <dimension ref="A1:O532"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F59" sqref="F59"/>
+      <pane ySplit="6" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.625" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="1" customWidth="1"/>
@@ -2160,7 +2378,7 @@
     <col min="15" max="15" width="11" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="9"/>
       <c r="B1" s="10"/>
       <c r="C1" s="11"/>
@@ -2171,7 +2389,7 @@
       </c>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
@@ -2187,13 +2405,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="23" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heurs "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>1 jours 3 heurs 35 minutes</v>
+        <v>1 jours 10 heurs 49 minutes</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="3"/>
@@ -2204,30 +2422,30 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="23">
         <f>SUBTOTAL(9,$C$7:$C$531)*60</f>
-        <v>840</v>
+        <v>1020</v>
       </c>
       <c r="D4" s="23">
         <f>SUBTOTAL(9,$D$7:$D$531)</f>
-        <v>815</v>
+        <v>1070</v>
       </c>
       <c r="E4" s="41">
         <f>SUM(C4:D4)</f>
-        <v>1655</v>
+        <v>2090</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C5" s="58" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="58"/>
     </row>
-    <row r="6" spans="1:15" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" s="21" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>11</v>
       </c>
@@ -2250,7 +2468,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <f>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</f>
         <v>35</v>
@@ -2270,7 +2488,7 @@
       </c>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <f>IF(ISBLANK(B8),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B8))</f>
         <v>35</v>
@@ -2299,7 +2517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <f>IF(ISBLANK(B9),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B9))</f>
         <v>35</v>
@@ -2330,7 +2548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <f>IF(ISBLANK(B10),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B10))</f>
         <v>35</v>
@@ -2359,7 +2577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <f>IF(ISBLANK(B11),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B11))</f>
         <v>36</v>
@@ -2388,7 +2606,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>IF(ISBLANK(B12),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B12))</f>
         <v>36</v>
@@ -2417,7 +2635,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
         <f>IF(ISBLANK(B13),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B13))</f>
         <v>36</v>
@@ -2446,7 +2664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <f>IF(ISBLANK(B14),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B14))</f>
         <v>36</v>
@@ -2475,7 +2693,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <f>IF(ISBLANK(B15),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B15))</f>
         <v>36</v>
@@ -2504,7 +2722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <f>IF(ISBLANK(B16),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B16))</f>
         <v>36</v>
@@ -2527,7 +2745,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:15" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <f>IF(ISBLANK(B17),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B17))</f>
         <v>37</v>
@@ -2550,7 +2768,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <f>IF(ISBLANK(B18),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B18))</f>
         <v>37</v>
@@ -2573,7 +2791,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <f>IF(ISBLANK(B19),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B19))</f>
         <v>37</v>
@@ -2596,7 +2814,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <f>IF(ISBLANK(B20),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B20))</f>
         <v>37</v>
@@ -2616,7 +2834,7 @@
       </c>
       <c r="G20" s="16"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <f>IF(ISBLANK(B21),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B21))</f>
         <v>37</v>
@@ -2636,7 +2854,7 @@
       </c>
       <c r="G21" s="18"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <f>IF(ISBLANK(B22),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B22))</f>
         <v>38</v>
@@ -2656,7 +2874,7 @@
       </c>
       <c r="G22" s="16"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <f>IF(ISBLANK(B23),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B23))</f>
         <v>39</v>
@@ -2676,7 +2894,7 @@
       </c>
       <c r="G23" s="18"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <f>IF(ISBLANK(B24),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B24))</f>
         <v>39</v>
@@ -2696,7 +2914,7 @@
       </c>
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <f>IF(ISBLANK(B25),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B25))</f>
         <v>39</v>
@@ -2716,7 +2934,7 @@
       </c>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <f>IF(ISBLANK(B26),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B26))</f>
         <v>39</v>
@@ -2736,7 +2954,7 @@
       </c>
       <c r="G26" s="16"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <f>IF(ISBLANK(B27),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B27))</f>
         <v>39</v>
@@ -2756,7 +2974,7 @@
       </c>
       <c r="G27" s="18"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <f>IF(ISBLANK(B28),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B28))</f>
         <v>40</v>
@@ -2778,7 +2996,7 @@
       </c>
       <c r="G28" s="16"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <f>IF(ISBLANK(B29),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B29))</f>
         <v>40</v>
@@ -2798,7 +3016,7 @@
       </c>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <f>IF(ISBLANK(B30),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B30))</f>
         <v>40</v>
@@ -2818,7 +3036,7 @@
       </c>
       <c r="G30" s="16"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <f>IF(ISBLANK(B31),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B31))</f>
         <v>40</v>
@@ -2838,7 +3056,7 @@
       </c>
       <c r="G31" s="18"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <f>IF(ISBLANK(B32),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B32))</f>
         <v>40</v>
@@ -2858,7 +3076,7 @@
       </c>
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <f>IF(ISBLANK(B33),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B33))</f>
         <v>40</v>
@@ -2878,7 +3096,7 @@
       </c>
       <c r="G33" s="18"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <f>IF(ISBLANK(B34),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B34))</f>
         <v>40</v>
@@ -2898,7 +3116,7 @@
       </c>
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <f>IF(ISBLANK(B35),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B35))</f>
         <v>40</v>
@@ -2918,7 +3136,7 @@
       </c>
       <c r="G35" s="18"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <f>IF(ISBLANK(B36),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B36))</f>
         <v>41</v>
@@ -2938,7 +3156,7 @@
       </c>
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
         <v>41</v>
@@ -2958,7 +3176,7 @@
       </c>
       <c r="G37" s="18"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
         <v>41</v>
@@ -2978,7 +3196,7 @@
       </c>
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
         <v>41</v>
@@ -2998,7 +3216,7 @@
       </c>
       <c r="G39" s="18"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
         <v>41</v>
@@ -3018,7 +3236,7 @@
       </c>
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
         <v>41</v>
@@ -3038,7 +3256,7 @@
       </c>
       <c r="G41" s="18"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
         <v>41</v>
@@ -3058,7 +3276,7 @@
       </c>
       <c r="G42" s="16"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
         <v>41</v>
@@ -3078,7 +3296,7 @@
       </c>
       <c r="G43" s="18"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
         <v>41</v>
@@ -3098,7 +3316,7 @@
       </c>
       <c r="G44" s="16"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
         <v>41</v>
@@ -3118,7 +3336,7 @@
       </c>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
         <v>41</v>
@@ -3138,7 +3356,7 @@
       </c>
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
         <v>41</v>
@@ -3158,7 +3376,7 @@
       </c>
       <c r="G47" s="18"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
         <v>43</v>
@@ -3178,7 +3396,7 @@
       </c>
       <c r="G48" s="16"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
         <v>43</v>
@@ -3198,7 +3416,7 @@
       </c>
       <c r="G49" s="18"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
         <v>43</v>
@@ -3218,7 +3436,7 @@
       </c>
       <c r="G50" s="16"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="17">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
         <v>43</v>
@@ -3238,7 +3456,7 @@
       </c>
       <c r="G51" s="18"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
         <v>43</v>
@@ -3258,7 +3476,7 @@
       </c>
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
         <v>43</v>
@@ -3278,7 +3496,7 @@
       </c>
       <c r="G53" s="18"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
         <v>43</v>
@@ -3298,7 +3516,7 @@
       </c>
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
         <v>43</v>
@@ -3318,235 +3536,375 @@
       </c>
       <c r="G55" s="18"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A56" s="8" t="str">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="8">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
-        <v/>
-      </c>
-      <c r="B56" s="47"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="50"/>
-      <c r="F56" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="B56" s="43">
+        <v>45589</v>
+      </c>
+      <c r="C56" s="44"/>
+      <c r="D56" s="45">
+        <v>10</v>
+      </c>
+      <c r="E56" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>78</v>
+      </c>
       <c r="G56" s="16"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A57" s="17" t="str">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
-        <v/>
-      </c>
-      <c r="B57" s="51"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="B57" s="47">
+        <v>45589</v>
+      </c>
+      <c r="C57" s="48"/>
+      <c r="D57" s="49">
+        <v>5</v>
+      </c>
+      <c r="E57" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F57" s="37" t="s">
+        <v>79</v>
+      </c>
       <c r="G57" s="18"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A58" s="8" t="str">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="8">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
-        <v/>
-      </c>
-      <c r="B58" s="47"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="50"/>
-      <c r="F58" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="B58" s="51">
+        <v>45589</v>
+      </c>
+      <c r="C58" s="52"/>
+      <c r="D58" s="53">
+        <v>10</v>
+      </c>
+      <c r="E58" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="37" t="s">
+        <v>80</v>
+      </c>
       <c r="G58" s="16"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A59" s="17" t="str">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
-        <v/>
-      </c>
-      <c r="B59" s="51"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="B59" s="47">
+        <v>45589</v>
+      </c>
+      <c r="C59" s="48"/>
+      <c r="D59" s="49">
+        <v>15</v>
+      </c>
+      <c r="E59" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="F59" s="37" t="s">
+        <v>81</v>
+      </c>
       <c r="G59" s="18"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A60" s="8" t="str">
-        <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
-        <v/>
-      </c>
-      <c r="B60" s="47"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="50"/>
-      <c r="F60" s="16"/>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="51"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="53"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="59"/>
       <c r="G60" s="16"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A61" s="17" t="str">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
-        <v/>
-      </c>
-      <c r="B61" s="51"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="B61" s="47">
+        <v>45589</v>
+      </c>
+      <c r="C61" s="48"/>
+      <c r="D61" s="49">
+        <v>25</v>
+      </c>
+      <c r="E61" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="37" t="s">
+        <v>82</v>
+      </c>
       <c r="G61" s="18"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A62" s="8" t="str">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="8">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
-        <v/>
-      </c>
-      <c r="B62" s="47"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="49"/>
-      <c r="E62" s="50"/>
-      <c r="F62" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="B62" s="51">
+        <v>45591</v>
+      </c>
+      <c r="C62" s="52"/>
+      <c r="D62" s="53">
+        <v>10</v>
+      </c>
+      <c r="E62" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" s="37" t="s">
+        <v>83</v>
+      </c>
       <c r="G62" s="16"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A63" s="17" t="str">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
-        <v/>
-      </c>
-      <c r="B63" s="51"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="18"/>
+        <v>43</v>
+      </c>
+      <c r="B63" s="47">
+        <v>45591</v>
+      </c>
+      <c r="C63" s="48"/>
+      <c r="D63" s="49">
+        <v>20</v>
+      </c>
+      <c r="E63" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F63" s="37" t="s">
+        <v>84</v>
+      </c>
       <c r="G63" s="18"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A64" s="8" t="str">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="8">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
-        <v/>
-      </c>
-      <c r="B64" s="47"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="50"/>
-      <c r="F64" s="16"/>
+        <v>43</v>
+      </c>
+      <c r="B64" s="51">
+        <v>45591</v>
+      </c>
+      <c r="C64" s="52"/>
+      <c r="D64" s="53">
+        <v>15</v>
+      </c>
+      <c r="E64" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="37" t="s">
+        <v>85</v>
+      </c>
       <c r="G64" s="16"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A65" s="17" t="str">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
-        <v/>
-      </c>
-      <c r="B65" s="51"/>
-      <c r="C65" s="52"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="B65" s="47">
+        <v>45594</v>
+      </c>
+      <c r="C65" s="48"/>
+      <c r="D65" s="49">
+        <v>25</v>
+      </c>
+      <c r="E65" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F65" s="37" t="s">
+        <v>86</v>
+      </c>
       <c r="G65" s="18"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A66" s="8" t="str">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="8">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
-        <v/>
-      </c>
-      <c r="B66" s="47"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="49"/>
-      <c r="E66" s="50"/>
-      <c r="F66" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="B66" s="51">
+        <v>45594</v>
+      </c>
+      <c r="C66" s="52"/>
+      <c r="D66" s="53">
+        <v>15</v>
+      </c>
+      <c r="E66" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="37" t="s">
+        <v>87</v>
+      </c>
       <c r="G66" s="16"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A67" s="17" t="str">
+    <row r="67" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
-        <v/>
-      </c>
-      <c r="B67" s="51"/>
-      <c r="C67" s="52"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="B67" s="47">
+        <v>45594</v>
+      </c>
+      <c r="C67" s="48"/>
+      <c r="D67" s="49">
+        <v>10</v>
+      </c>
+      <c r="E67" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="F67" s="37" t="s">
+        <v>88</v>
+      </c>
       <c r="G67" s="18"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A68" s="8" t="str">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="8">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
-        <v/>
-      </c>
-      <c r="B68" s="47"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="49"/>
-      <c r="E68" s="50"/>
-      <c r="F68" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="B68" s="51">
+        <v>45594</v>
+      </c>
+      <c r="C68" s="52"/>
+      <c r="D68" s="53">
+        <v>20</v>
+      </c>
+      <c r="E68" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F68" s="37" t="s">
+        <v>89</v>
+      </c>
       <c r="G68" s="16"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A69" s="17" t="str">
+    <row r="69" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="17">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
-        <v/>
-      </c>
-      <c r="B69" s="51"/>
-      <c r="C69" s="52"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="B69" s="47">
+        <v>45595</v>
+      </c>
+      <c r="C69" s="48"/>
+      <c r="D69" s="49">
+        <v>10</v>
+      </c>
+      <c r="E69" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="37" t="s">
+        <v>90</v>
+      </c>
       <c r="G69" s="18"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A70" s="8" t="str">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="8">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
-        <v/>
-      </c>
-      <c r="B70" s="47"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="49"/>
-      <c r="E70" s="50"/>
-      <c r="F70" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="B70" s="51">
+        <v>45595</v>
+      </c>
+      <c r="C70" s="52">
+        <v>2</v>
+      </c>
+      <c r="D70" s="53"/>
+      <c r="E70" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="37" t="s">
+        <v>91</v>
+      </c>
       <c r="G70" s="16"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A71" s="17" t="str">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
-        <v/>
-      </c>
-      <c r="B71" s="51"/>
-      <c r="C71" s="52"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="B71" s="47">
+        <v>45596</v>
+      </c>
+      <c r="C71" s="48">
+        <v>1</v>
+      </c>
+      <c r="D71" s="49"/>
+      <c r="E71" s="50" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="37" t="s">
+        <v>92</v>
+      </c>
       <c r="G71" s="18"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A72" s="8" t="str">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="8">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
-        <v/>
-      </c>
-      <c r="B72" s="47"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="49"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="B72" s="51">
+        <v>45596</v>
+      </c>
+      <c r="C72" s="52"/>
+      <c r="D72" s="53">
+        <v>25</v>
+      </c>
+      <c r="E72" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="37" t="s">
+        <v>93</v>
+      </c>
       <c r="G72" s="16"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A73" s="17" t="str">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="17">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
-        <v/>
-      </c>
-      <c r="B73" s="51"/>
-      <c r="C73" s="52"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="B73" s="47">
+        <v>45597</v>
+      </c>
+      <c r="C73" s="48"/>
+      <c r="D73" s="49">
+        <v>30</v>
+      </c>
+      <c r="E73" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" s="37" t="s">
+        <v>94</v>
+      </c>
       <c r="G73" s="18"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.5">
-      <c r="A74" s="8" t="str">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="8">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
-        <v/>
-      </c>
-      <c r="B74" s="47"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="49"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="16"/>
+        <v>44</v>
+      </c>
+      <c r="B74" s="51">
+        <v>45597</v>
+      </c>
+      <c r="C74" s="52"/>
+      <c r="D74" s="53">
+        <v>10</v>
+      </c>
+      <c r="E74" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="F74" s="37" t="s">
+        <v>95</v>
+      </c>
       <c r="G74" s="16"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
@@ -3558,7 +3916,7 @@
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
@@ -3570,7 +3928,7 @@
       <c r="F76" s="16"/>
       <c r="G76" s="16"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
@@ -3582,7 +3940,7 @@
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
@@ -3594,7 +3952,7 @@
       <c r="F78" s="16"/>
       <c r="G78" s="16"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="17" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
@@ -3606,7 +3964,7 @@
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
@@ -3618,7 +3976,7 @@
       <c r="F80" s="16"/>
       <c r="G80" s="16"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
@@ -3630,7 +3988,7 @@
       <c r="F81" s="18"/>
       <c r="G81" s="18"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
@@ -3642,7 +4000,7 @@
       <c r="F82" s="16"/>
       <c r="G82" s="16"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="17" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
@@ -3654,7 +4012,7 @@
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
@@ -3666,7 +4024,7 @@
       <c r="F84" s="16"/>
       <c r="G84" s="16"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="17" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
@@ -3678,7 +4036,7 @@
       <c r="F85" s="18"/>
       <c r="G85" s="18"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
@@ -3690,7 +4048,7 @@
       <c r="F86" s="16"/>
       <c r="G86" s="16"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
@@ -3702,7 +4060,7 @@
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
@@ -3714,7 +4072,7 @@
       <c r="F88" s="16"/>
       <c r="G88" s="16"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="17" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
@@ -3726,7 +4084,7 @@
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
@@ -3738,7 +4096,7 @@
       <c r="F90" s="16"/>
       <c r="G90" s="16"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="17" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
@@ -3750,7 +4108,7 @@
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
@@ -3762,7 +4120,7 @@
       <c r="F92" s="16"/>
       <c r="G92" s="16"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
@@ -3774,7 +4132,7 @@
       <c r="F93" s="18"/>
       <c r="G93" s="18"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
@@ -3786,7 +4144,7 @@
       <c r="F94" s="16"/>
       <c r="G94" s="16"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="17" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
@@ -3798,7 +4156,7 @@
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
@@ -3810,7 +4168,7 @@
       <c r="F96" s="16"/>
       <c r="G96" s="16"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="17" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
@@ -3822,7 +4180,7 @@
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
@@ -3834,7 +4192,7 @@
       <c r="F98" s="16"/>
       <c r="G98" s="16"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
@@ -3846,7 +4204,7 @@
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
@@ -3858,7 +4216,7 @@
       <c r="F100" s="16"/>
       <c r="G100" s="16"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="17" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
@@ -3870,7 +4228,7 @@
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
@@ -3882,7 +4240,7 @@
       <c r="F102" s="16"/>
       <c r="G102" s="16"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="17" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
@@ -3894,7 +4252,7 @@
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
@@ -3906,7 +4264,7 @@
       <c r="F104" s="16"/>
       <c r="G104" s="16"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="17" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
@@ -3918,7 +4276,7 @@
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
@@ -3930,7 +4288,7 @@
       <c r="F106" s="16"/>
       <c r="G106" s="16"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="17" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
@@ -3942,7 +4300,7 @@
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
@@ -3954,7 +4312,7 @@
       <c r="F108" s="16"/>
       <c r="G108" s="16"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="17" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
@@ -3966,7 +4324,7 @@
       <c r="F109" s="18"/>
       <c r="G109" s="18"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
@@ -3978,7 +4336,7 @@
       <c r="F110" s="16"/>
       <c r="G110" s="16"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="17" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
@@ -3990,7 +4348,7 @@
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
@@ -4002,7 +4360,7 @@
       <c r="F112" s="16"/>
       <c r="G112" s="16"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="17" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
@@ -4014,7 +4372,7 @@
       <c r="F113" s="18"/>
       <c r="G113" s="18"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
@@ -4026,7 +4384,7 @@
       <c r="F114" s="16"/>
       <c r="G114" s="16"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="17" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
@@ -4038,7 +4396,7 @@
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
@@ -4050,7 +4408,7 @@
       <c r="F116" s="16"/>
       <c r="G116" s="16"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="17" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
@@ -4062,7 +4420,7 @@
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
@@ -4074,7 +4432,7 @@
       <c r="F118" s="16"/>
       <c r="G118" s="16"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="17" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
@@ -4086,7 +4444,7 @@
       <c r="F119" s="18"/>
       <c r="G119" s="18"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
@@ -4098,7 +4456,7 @@
       <c r="F120" s="16"/>
       <c r="G120" s="16"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="17" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
@@ -4110,7 +4468,7 @@
       <c r="F121" s="18"/>
       <c r="G121" s="18"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
@@ -4122,7 +4480,7 @@
       <c r="F122" s="16"/>
       <c r="G122" s="16"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="17" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
@@ -4134,7 +4492,7 @@
       <c r="F123" s="18"/>
       <c r="G123" s="18"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
@@ -4146,7 +4504,7 @@
       <c r="F124" s="16"/>
       <c r="G124" s="16"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="17" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
@@ -4158,7 +4516,7 @@
       <c r="F125" s="18"/>
       <c r="G125" s="18"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
@@ -4170,7 +4528,7 @@
       <c r="F126" s="16"/>
       <c r="G126" s="16"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="17" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
@@ -4182,7 +4540,7 @@
       <c r="F127" s="18"/>
       <c r="G127" s="18"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
@@ -4194,7 +4552,7 @@
       <c r="F128" s="16"/>
       <c r="G128" s="16"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="17" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
@@ -4206,7 +4564,7 @@
       <c r="F129" s="18"/>
       <c r="G129" s="18"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
@@ -4218,7 +4576,7 @@
       <c r="F130" s="16"/>
       <c r="G130" s="16"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="17" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
@@ -4230,7 +4588,7 @@
       <c r="F131" s="18"/>
       <c r="G131" s="18"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
@@ -4242,7 +4600,7 @@
       <c r="F132" s="16"/>
       <c r="G132" s="16"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="17" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
@@ -4254,7 +4612,7 @@
       <c r="F133" s="18"/>
       <c r="G133" s="18"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
@@ -4266,7 +4624,7 @@
       <c r="F134" s="16"/>
       <c r="G134" s="16"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="17" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
@@ -4278,7 +4636,7 @@
       <c r="F135" s="18"/>
       <c r="G135" s="18"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
@@ -4290,7 +4648,7 @@
       <c r="F136" s="16"/>
       <c r="G136" s="16"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="17" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
@@ -4302,7 +4660,7 @@
       <c r="F137" s="18"/>
       <c r="G137" s="18"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
@@ -4314,7 +4672,7 @@
       <c r="F138" s="16"/>
       <c r="G138" s="16"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="17" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
@@ -4326,7 +4684,7 @@
       <c r="F139" s="18"/>
       <c r="G139" s="18"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
@@ -4338,7 +4696,7 @@
       <c r="F140" s="16"/>
       <c r="G140" s="16"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="17" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
@@ -4350,7 +4708,7 @@
       <c r="F141" s="18"/>
       <c r="G141" s="18"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
@@ -4362,7 +4720,7 @@
       <c r="F142" s="16"/>
       <c r="G142" s="16"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="17" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
@@ -4374,7 +4732,7 @@
       <c r="F143" s="18"/>
       <c r="G143" s="18"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
@@ -4386,7 +4744,7 @@
       <c r="F144" s="16"/>
       <c r="G144" s="16"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="17" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
@@ -4398,7 +4756,7 @@
       <c r="F145" s="18"/>
       <c r="G145" s="18"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
@@ -4410,7 +4768,7 @@
       <c r="F146" s="16"/>
       <c r="G146" s="16"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="17" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
@@ -4422,7 +4780,7 @@
       <c r="F147" s="18"/>
       <c r="G147" s="18"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
@@ -4434,7 +4792,7 @@
       <c r="F148" s="16"/>
       <c r="G148" s="16"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="17" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
@@ -4446,7 +4804,7 @@
       <c r="F149" s="18"/>
       <c r="G149" s="18"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
@@ -4458,7 +4816,7 @@
       <c r="F150" s="16"/>
       <c r="G150" s="16"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="17" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
@@ -4470,7 +4828,7 @@
       <c r="F151" s="18"/>
       <c r="G151" s="18"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
@@ -4482,7 +4840,7 @@
       <c r="F152" s="16"/>
       <c r="G152" s="16"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="17" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
@@ -4494,7 +4852,7 @@
       <c r="F153" s="18"/>
       <c r="G153" s="18"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
@@ -4506,7 +4864,7 @@
       <c r="F154" s="16"/>
       <c r="G154" s="16"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="17" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
@@ -4518,7 +4876,7 @@
       <c r="F155" s="18"/>
       <c r="G155" s="18"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
@@ -4530,7 +4888,7 @@
       <c r="F156" s="16"/>
       <c r="G156" s="16"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="17" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
@@ -4542,7 +4900,7 @@
       <c r="F157" s="18"/>
       <c r="G157" s="18"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
@@ -4554,7 +4912,7 @@
       <c r="F158" s="16"/>
       <c r="G158" s="16"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="17" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
@@ -4566,7 +4924,7 @@
       <c r="F159" s="18"/>
       <c r="G159" s="18"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
@@ -4578,7 +4936,7 @@
       <c r="F160" s="16"/>
       <c r="G160" s="16"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="17" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
@@ -4590,7 +4948,7 @@
       <c r="F161" s="18"/>
       <c r="G161" s="18"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
@@ -4602,7 +4960,7 @@
       <c r="F162" s="16"/>
       <c r="G162" s="16"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="17" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
@@ -4614,7 +4972,7 @@
       <c r="F163" s="18"/>
       <c r="G163" s="18"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="8" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
@@ -4626,7 +4984,7 @@
       <c r="F164" s="16"/>
       <c r="G164" s="16"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="17" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
@@ -4638,7 +4996,7 @@
       <c r="F165" s="18"/>
       <c r="G165" s="18"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
@@ -4650,7 +5008,7 @@
       <c r="F166" s="16"/>
       <c r="G166" s="16"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="17" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
@@ -4662,7 +5020,7 @@
       <c r="F167" s="18"/>
       <c r="G167" s="18"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="8" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
@@ -4674,7 +5032,7 @@
       <c r="F168" s="16"/>
       <c r="G168" s="16"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="17" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
@@ -4686,7 +5044,7 @@
       <c r="F169" s="18"/>
       <c r="G169" s="18"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="8" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
@@ -4698,7 +5056,7 @@
       <c r="F170" s="16"/>
       <c r="G170" s="16"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="17" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
@@ -4710,7 +5068,7 @@
       <c r="F171" s="18"/>
       <c r="G171" s="18"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="8" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
@@ -4722,7 +5080,7 @@
       <c r="F172" s="16"/>
       <c r="G172" s="16"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="17" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
@@ -4734,7 +5092,7 @@
       <c r="F173" s="18"/>
       <c r="G173" s="18"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="8" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
@@ -4746,7 +5104,7 @@
       <c r="F174" s="16"/>
       <c r="G174" s="16"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="17" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
@@ -4758,7 +5116,7 @@
       <c r="F175" s="18"/>
       <c r="G175" s="18"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="8" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
@@ -4770,7 +5128,7 @@
       <c r="F176" s="16"/>
       <c r="G176" s="16"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="17" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
@@ -4782,7 +5140,7 @@
       <c r="F177" s="18"/>
       <c r="G177" s="18"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="8" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
@@ -4794,7 +5152,7 @@
       <c r="F178" s="16"/>
       <c r="G178" s="16"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="17" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
@@ -4806,7 +5164,7 @@
       <c r="F179" s="18"/>
       <c r="G179" s="18"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="8" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
@@ -4818,7 +5176,7 @@
       <c r="F180" s="16"/>
       <c r="G180" s="16"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="17" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
@@ -4830,7 +5188,7 @@
       <c r="F181" s="18"/>
       <c r="G181" s="18"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="8" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
@@ -4842,7 +5200,7 @@
       <c r="F182" s="16"/>
       <c r="G182" s="16"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="17" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
@@ -4854,7 +5212,7 @@
       <c r="F183" s="18"/>
       <c r="G183" s="18"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="8" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
@@ -4866,7 +5224,7 @@
       <c r="F184" s="16"/>
       <c r="G184" s="16"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="17" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
@@ -4878,7 +5236,7 @@
       <c r="F185" s="18"/>
       <c r="G185" s="18"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="8" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
@@ -4890,7 +5248,7 @@
       <c r="F186" s="16"/>
       <c r="G186" s="16"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="17" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
@@ -4902,7 +5260,7 @@
       <c r="F187" s="18"/>
       <c r="G187" s="18"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="8" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
@@ -4914,7 +5272,7 @@
       <c r="F188" s="16"/>
       <c r="G188" s="16"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="17" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
@@ -4926,7 +5284,7 @@
       <c r="F189" s="18"/>
       <c r="G189" s="18"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="8" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
@@ -4938,7 +5296,7 @@
       <c r="F190" s="16"/>
       <c r="G190" s="16"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="17" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
@@ -4950,7 +5308,7 @@
       <c r="F191" s="18"/>
       <c r="G191" s="18"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="8" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
@@ -4962,7 +5320,7 @@
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="17" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
@@ -4974,7 +5332,7 @@
       <c r="F193" s="18"/>
       <c r="G193" s="18"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="8" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
@@ -4986,7 +5344,7 @@
       <c r="F194" s="16"/>
       <c r="G194" s="16"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="17" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
@@ -4998,7 +5356,7 @@
       <c r="F195" s="18"/>
       <c r="G195" s="18"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="8" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
@@ -5010,7 +5368,7 @@
       <c r="F196" s="16"/>
       <c r="G196" s="16"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="17" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
@@ -5022,7 +5380,7 @@
       <c r="F197" s="18"/>
       <c r="G197" s="18"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="8" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
@@ -5034,7 +5392,7 @@
       <c r="F198" s="16"/>
       <c r="G198" s="16"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="17" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
@@ -5046,7 +5404,7 @@
       <c r="F199" s="18"/>
       <c r="G199" s="18"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="8" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
@@ -5058,7 +5416,7 @@
       <c r="F200" s="16"/>
       <c r="G200" s="16"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="17" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
@@ -5070,7 +5428,7 @@
       <c r="F201" s="18"/>
       <c r="G201" s="18"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="8" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
@@ -5082,7 +5440,7 @@
       <c r="F202" s="16"/>
       <c r="G202" s="16"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="17" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
@@ -5094,7 +5452,7 @@
       <c r="F203" s="18"/>
       <c r="G203" s="18"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="8" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
@@ -5106,7 +5464,7 @@
       <c r="F204" s="16"/>
       <c r="G204" s="16"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="17" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
@@ -5118,7 +5476,7 @@
       <c r="F205" s="18"/>
       <c r="G205" s="18"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="8" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
@@ -5130,7 +5488,7 @@
       <c r="F206" s="16"/>
       <c r="G206" s="16"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="17" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
@@ -5142,7 +5500,7 @@
       <c r="F207" s="18"/>
       <c r="G207" s="18"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="8" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
@@ -5154,7 +5512,7 @@
       <c r="F208" s="16"/>
       <c r="G208" s="16"/>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="17" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
@@ -5166,7 +5524,7 @@
       <c r="F209" s="18"/>
       <c r="G209" s="18"/>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="8" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
@@ -5178,7 +5536,7 @@
       <c r="F210" s="16"/>
       <c r="G210" s="16"/>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="17" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
@@ -5190,7 +5548,7 @@
       <c r="F211" s="18"/>
       <c r="G211" s="18"/>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="8" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
@@ -5202,7 +5560,7 @@
       <c r="F212" s="16"/>
       <c r="G212" s="16"/>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="17" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
@@ -5214,7 +5572,7 @@
       <c r="F213" s="18"/>
       <c r="G213" s="18"/>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="8" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
@@ -5226,7 +5584,7 @@
       <c r="F214" s="16"/>
       <c r="G214" s="16"/>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="17" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
@@ -5238,7 +5596,7 @@
       <c r="F215" s="18"/>
       <c r="G215" s="18"/>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="8" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
@@ -5250,7 +5608,7 @@
       <c r="F216" s="16"/>
       <c r="G216" s="16"/>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="17" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
@@ -5262,7 +5620,7 @@
       <c r="F217" s="18"/>
       <c r="G217" s="18"/>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="8" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
@@ -5274,7 +5632,7 @@
       <c r="F218" s="16"/>
       <c r="G218" s="16"/>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="17" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
@@ -5286,7 +5644,7 @@
       <c r="F219" s="18"/>
       <c r="G219" s="18"/>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="8" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
@@ -5298,7 +5656,7 @@
       <c r="F220" s="16"/>
       <c r="G220" s="16"/>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="17" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
@@ -5310,7 +5668,7 @@
       <c r="F221" s="18"/>
       <c r="G221" s="18"/>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="8" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
@@ -5322,7 +5680,7 @@
       <c r="F222" s="16"/>
       <c r="G222" s="16"/>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="17" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
@@ -5334,7 +5692,7 @@
       <c r="F223" s="18"/>
       <c r="G223" s="18"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="8" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
@@ -5346,7 +5704,7 @@
       <c r="F224" s="16"/>
       <c r="G224" s="16"/>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="17" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
@@ -5358,7 +5716,7 @@
       <c r="F225" s="18"/>
       <c r="G225" s="18"/>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="8" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
@@ -5370,7 +5728,7 @@
       <c r="F226" s="16"/>
       <c r="G226" s="16"/>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="17" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
@@ -5382,7 +5740,7 @@
       <c r="F227" s="18"/>
       <c r="G227" s="18"/>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="8" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
@@ -5394,7 +5752,7 @@
       <c r="F228" s="16"/>
       <c r="G228" s="16"/>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="17" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
@@ -5406,7 +5764,7 @@
       <c r="F229" s="18"/>
       <c r="G229" s="18"/>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="8" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
@@ -5418,7 +5776,7 @@
       <c r="F230" s="16"/>
       <c r="G230" s="16"/>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="17" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
@@ -5430,7 +5788,7 @@
       <c r="F231" s="18"/>
       <c r="G231" s="18"/>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="8" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
@@ -5442,7 +5800,7 @@
       <c r="F232" s="16"/>
       <c r="G232" s="16"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="17" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
@@ -5454,7 +5812,7 @@
       <c r="F233" s="18"/>
       <c r="G233" s="18"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="8" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
@@ -5466,7 +5824,7 @@
       <c r="F234" s="16"/>
       <c r="G234" s="16"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="17" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
@@ -5478,7 +5836,7 @@
       <c r="F235" s="18"/>
       <c r="G235" s="18"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="8" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
@@ -5490,7 +5848,7 @@
       <c r="F236" s="16"/>
       <c r="G236" s="16"/>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="17" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
@@ -5502,7 +5860,7 @@
       <c r="F237" s="18"/>
       <c r="G237" s="18"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="8" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
@@ -5514,7 +5872,7 @@
       <c r="F238" s="16"/>
       <c r="G238" s="16"/>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="17" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
@@ -5526,7 +5884,7 @@
       <c r="F239" s="18"/>
       <c r="G239" s="18"/>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="8" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
@@ -5538,7 +5896,7 @@
       <c r="F240" s="16"/>
       <c r="G240" s="16"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="17" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
@@ -5550,7 +5908,7 @@
       <c r="F241" s="18"/>
       <c r="G241" s="18"/>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="8" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
@@ -5562,7 +5920,7 @@
       <c r="F242" s="16"/>
       <c r="G242" s="16"/>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="17" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
@@ -5574,7 +5932,7 @@
       <c r="F243" s="18"/>
       <c r="G243" s="18"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="8" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
@@ -5586,7 +5944,7 @@
       <c r="F244" s="16"/>
       <c r="G244" s="16"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="17" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
@@ -5598,7 +5956,7 @@
       <c r="F245" s="18"/>
       <c r="G245" s="18"/>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="8" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
@@ -5610,7 +5968,7 @@
       <c r="F246" s="16"/>
       <c r="G246" s="16"/>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="17" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
@@ -5622,7 +5980,7 @@
       <c r="F247" s="18"/>
       <c r="G247" s="18"/>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="8" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
@@ -5634,7 +5992,7 @@
       <c r="F248" s="16"/>
       <c r="G248" s="16"/>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="17" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
@@ -5646,7 +6004,7 @@
       <c r="F249" s="18"/>
       <c r="G249" s="18"/>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="8" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
@@ -5658,7 +6016,7 @@
       <c r="F250" s="16"/>
       <c r="G250" s="16"/>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="17" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
@@ -5670,7 +6028,7 @@
       <c r="F251" s="18"/>
       <c r="G251" s="18"/>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="8" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
@@ -5682,7 +6040,7 @@
       <c r="F252" s="16"/>
       <c r="G252" s="16"/>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="17" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
@@ -5694,7 +6052,7 @@
       <c r="F253" s="18"/>
       <c r="G253" s="18"/>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="8" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
@@ -5706,7 +6064,7 @@
       <c r="F254" s="16"/>
       <c r="G254" s="16"/>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="17" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
@@ -5718,7 +6076,7 @@
       <c r="F255" s="18"/>
       <c r="G255" s="18"/>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="8" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
@@ -5730,7 +6088,7 @@
       <c r="F256" s="16"/>
       <c r="G256" s="16"/>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="17" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
@@ -5742,7 +6100,7 @@
       <c r="F257" s="18"/>
       <c r="G257" s="18"/>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="8" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
@@ -5754,7 +6112,7 @@
       <c r="F258" s="16"/>
       <c r="G258" s="16"/>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="17" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
@@ -5766,7 +6124,7 @@
       <c r="F259" s="18"/>
       <c r="G259" s="18"/>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="8" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
@@ -5778,7 +6136,7 @@
       <c r="F260" s="16"/>
       <c r="G260" s="16"/>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="17" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
@@ -5790,7 +6148,7 @@
       <c r="F261" s="18"/>
       <c r="G261" s="18"/>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="8" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
@@ -5802,7 +6160,7 @@
       <c r="F262" s="16"/>
       <c r="G262" s="16"/>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="17" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
@@ -5814,7 +6172,7 @@
       <c r="F263" s="18"/>
       <c r="G263" s="18"/>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="8" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
@@ -5826,7 +6184,7 @@
       <c r="F264" s="16"/>
       <c r="G264" s="16"/>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="17" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
@@ -5838,7 +6196,7 @@
       <c r="F265" s="18"/>
       <c r="G265" s="18"/>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="8" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
@@ -5850,7 +6208,7 @@
       <c r="F266" s="16"/>
       <c r="G266" s="16"/>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="17" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
@@ -5862,7 +6220,7 @@
       <c r="F267" s="18"/>
       <c r="G267" s="18"/>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="8" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
@@ -5874,7 +6232,7 @@
       <c r="F268" s="16"/>
       <c r="G268" s="16"/>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="17" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
@@ -5886,7 +6244,7 @@
       <c r="F269" s="18"/>
       <c r="G269" s="18"/>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="8" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
@@ -5898,7 +6256,7 @@
       <c r="F270" s="16"/>
       <c r="G270" s="16"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="17" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
@@ -5910,7 +6268,7 @@
       <c r="F271" s="18"/>
       <c r="G271" s="18"/>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="8" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
@@ -5922,7 +6280,7 @@
       <c r="F272" s="16"/>
       <c r="G272" s="16"/>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="17" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
@@ -5934,7 +6292,7 @@
       <c r="F273" s="18"/>
       <c r="G273" s="18"/>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="8" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
@@ -5946,7 +6304,7 @@
       <c r="F274" s="16"/>
       <c r="G274" s="16"/>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="17" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
@@ -5958,7 +6316,7 @@
       <c r="F275" s="18"/>
       <c r="G275" s="18"/>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="8" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
@@ -5970,7 +6328,7 @@
       <c r="F276" s="16"/>
       <c r="G276" s="16"/>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="17" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
@@ -5982,7 +6340,7 @@
       <c r="F277" s="18"/>
       <c r="G277" s="18"/>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="8" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
@@ -5994,7 +6352,7 @@
       <c r="F278" s="16"/>
       <c r="G278" s="16"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="17" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
@@ -6006,7 +6364,7 @@
       <c r="F279" s="18"/>
       <c r="G279" s="18"/>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="8" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
@@ -6018,7 +6376,7 @@
       <c r="F280" s="16"/>
       <c r="G280" s="16"/>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="17" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
@@ -6030,7 +6388,7 @@
       <c r="F281" s="18"/>
       <c r="G281" s="18"/>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="8" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
@@ -6042,7 +6400,7 @@
       <c r="F282" s="16"/>
       <c r="G282" s="16"/>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="17" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
@@ -6054,7 +6412,7 @@
       <c r="F283" s="18"/>
       <c r="G283" s="18"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="8" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
@@ -6066,7 +6424,7 @@
       <c r="F284" s="16"/>
       <c r="G284" s="16"/>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="17" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
@@ -6078,7 +6436,7 @@
       <c r="F285" s="18"/>
       <c r="G285" s="18"/>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="8" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
@@ -6090,7 +6448,7 @@
       <c r="F286" s="16"/>
       <c r="G286" s="16"/>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="17" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
@@ -6102,7 +6460,7 @@
       <c r="F287" s="18"/>
       <c r="G287" s="18"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="8" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
@@ -6114,7 +6472,7 @@
       <c r="F288" s="16"/>
       <c r="G288" s="16"/>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="17" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
@@ -6126,7 +6484,7 @@
       <c r="F289" s="18"/>
       <c r="G289" s="18"/>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="8" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
@@ -6138,7 +6496,7 @@
       <c r="F290" s="16"/>
       <c r="G290" s="16"/>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="17" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
@@ -6150,7 +6508,7 @@
       <c r="F291" s="18"/>
       <c r="G291" s="18"/>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="8" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
@@ -6162,7 +6520,7 @@
       <c r="F292" s="16"/>
       <c r="G292" s="16"/>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="17" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
@@ -6174,7 +6532,7 @@
       <c r="F293" s="18"/>
       <c r="G293" s="18"/>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="8" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
@@ -6186,7 +6544,7 @@
       <c r="F294" s="16"/>
       <c r="G294" s="16"/>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="17" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
@@ -6198,7 +6556,7 @@
       <c r="F295" s="18"/>
       <c r="G295" s="18"/>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="8" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
@@ -6210,7 +6568,7 @@
       <c r="F296" s="16"/>
       <c r="G296" s="16"/>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="17" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
@@ -6222,7 +6580,7 @@
       <c r="F297" s="18"/>
       <c r="G297" s="18"/>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="8" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
@@ -6234,7 +6592,7 @@
       <c r="F298" s="16"/>
       <c r="G298" s="16"/>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="17" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
@@ -6246,7 +6604,7 @@
       <c r="F299" s="18"/>
       <c r="G299" s="18"/>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="8" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
@@ -6258,7 +6616,7 @@
       <c r="F300" s="16"/>
       <c r="G300" s="16"/>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="17" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
@@ -6270,7 +6628,7 @@
       <c r="F301" s="18"/>
       <c r="G301" s="18"/>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="8" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
@@ -6282,7 +6640,7 @@
       <c r="F302" s="16"/>
       <c r="G302" s="16"/>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="17" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
@@ -6294,7 +6652,7 @@
       <c r="F303" s="18"/>
       <c r="G303" s="18"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="8" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
@@ -6306,7 +6664,7 @@
       <c r="F304" s="16"/>
       <c r="G304" s="16"/>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="17" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
@@ -6318,7 +6676,7 @@
       <c r="F305" s="18"/>
       <c r="G305" s="18"/>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="8" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
@@ -6330,7 +6688,7 @@
       <c r="F306" s="16"/>
       <c r="G306" s="16"/>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="17" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
@@ -6342,7 +6700,7 @@
       <c r="F307" s="18"/>
       <c r="G307" s="18"/>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="8" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
@@ -6354,7 +6712,7 @@
       <c r="F308" s="16"/>
       <c r="G308" s="16"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="17" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
@@ -6366,7 +6724,7 @@
       <c r="F309" s="18"/>
       <c r="G309" s="18"/>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="8" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
@@ -6378,7 +6736,7 @@
       <c r="F310" s="16"/>
       <c r="G310" s="16"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="17" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
@@ -6390,7 +6748,7 @@
       <c r="F311" s="18"/>
       <c r="G311" s="18"/>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="8" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
@@ -6402,7 +6760,7 @@
       <c r="F312" s="16"/>
       <c r="G312" s="16"/>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="17" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
@@ -6414,7 +6772,7 @@
       <c r="F313" s="18"/>
       <c r="G313" s="18"/>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="8" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
@@ -6426,7 +6784,7 @@
       <c r="F314" s="16"/>
       <c r="G314" s="16"/>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="17" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
@@ -6438,7 +6796,7 @@
       <c r="F315" s="18"/>
       <c r="G315" s="18"/>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="8" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
@@ -6450,7 +6808,7 @@
       <c r="F316" s="16"/>
       <c r="G316" s="16"/>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="17" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
@@ -6462,7 +6820,7 @@
       <c r="F317" s="18"/>
       <c r="G317" s="18"/>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="8" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
@@ -6474,7 +6832,7 @@
       <c r="F318" s="16"/>
       <c r="G318" s="16"/>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="17" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
@@ -6486,7 +6844,7 @@
       <c r="F319" s="18"/>
       <c r="G319" s="18"/>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="8" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
@@ -6498,7 +6856,7 @@
       <c r="F320" s="16"/>
       <c r="G320" s="16"/>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="17" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
@@ -6510,7 +6868,7 @@
       <c r="F321" s="18"/>
       <c r="G321" s="18"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="8" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
@@ -6522,7 +6880,7 @@
       <c r="F322" s="16"/>
       <c r="G322" s="16"/>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="17" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
@@ -6534,7 +6892,7 @@
       <c r="F323" s="18"/>
       <c r="G323" s="18"/>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="8" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
@@ -6546,7 +6904,7 @@
       <c r="F324" s="16"/>
       <c r="G324" s="16"/>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="17" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
@@ -6558,7 +6916,7 @@
       <c r="F325" s="18"/>
       <c r="G325" s="18"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="8" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
@@ -6570,7 +6928,7 @@
       <c r="F326" s="16"/>
       <c r="G326" s="16"/>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="17" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
@@ -6582,7 +6940,7 @@
       <c r="F327" s="18"/>
       <c r="G327" s="18"/>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="8" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
@@ -6594,7 +6952,7 @@
       <c r="F328" s="16"/>
       <c r="G328" s="16"/>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="17" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
@@ -6606,7 +6964,7 @@
       <c r="F329" s="18"/>
       <c r="G329" s="18"/>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="8" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
@@ -6618,7 +6976,7 @@
       <c r="F330" s="16"/>
       <c r="G330" s="16"/>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="17" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
@@ -6630,7 +6988,7 @@
       <c r="F331" s="18"/>
       <c r="G331" s="18"/>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="8" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
@@ -6642,7 +7000,7 @@
       <c r="F332" s="16"/>
       <c r="G332" s="16"/>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="17" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
@@ -6654,7 +7012,7 @@
       <c r="F333" s="18"/>
       <c r="G333" s="18"/>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="8" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
@@ -6666,7 +7024,7 @@
       <c r="F334" s="16"/>
       <c r="G334" s="16"/>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="17" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
@@ -6678,7 +7036,7 @@
       <c r="F335" s="18"/>
       <c r="G335" s="18"/>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="8" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
@@ -6690,7 +7048,7 @@
       <c r="F336" s="16"/>
       <c r="G336" s="16"/>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="17" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
@@ -6702,7 +7060,7 @@
       <c r="F337" s="18"/>
       <c r="G337" s="18"/>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="8" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
@@ -6714,7 +7072,7 @@
       <c r="F338" s="16"/>
       <c r="G338" s="16"/>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="17" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
@@ -6726,7 +7084,7 @@
       <c r="F339" s="18"/>
       <c r="G339" s="18"/>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="8" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
@@ -6738,7 +7096,7 @@
       <c r="F340" s="16"/>
       <c r="G340" s="16"/>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="17" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
@@ -6750,7 +7108,7 @@
       <c r="F341" s="18"/>
       <c r="G341" s="18"/>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="8" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
@@ -6762,7 +7120,7 @@
       <c r="F342" s="16"/>
       <c r="G342" s="16"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="17" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
@@ -6774,7 +7132,7 @@
       <c r="F343" s="18"/>
       <c r="G343" s="18"/>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="8" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
@@ -6786,7 +7144,7 @@
       <c r="F344" s="16"/>
       <c r="G344" s="16"/>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="17" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
@@ -6798,7 +7156,7 @@
       <c r="F345" s="18"/>
       <c r="G345" s="18"/>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="8" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
@@ -6810,7 +7168,7 @@
       <c r="F346" s="16"/>
       <c r="G346" s="16"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="17" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
@@ -6822,7 +7180,7 @@
       <c r="F347" s="18"/>
       <c r="G347" s="18"/>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="8" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
@@ -6834,7 +7192,7 @@
       <c r="F348" s="16"/>
       <c r="G348" s="16"/>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="17" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
@@ -6846,7 +7204,7 @@
       <c r="F349" s="18"/>
       <c r="G349" s="18"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="8" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
@@ -6858,7 +7216,7 @@
       <c r="F350" s="16"/>
       <c r="G350" s="16"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="17" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
@@ -6870,7 +7228,7 @@
       <c r="F351" s="18"/>
       <c r="G351" s="18"/>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="8" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
@@ -6882,7 +7240,7 @@
       <c r="F352" s="16"/>
       <c r="G352" s="16"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="17" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
@@ -6894,7 +7252,7 @@
       <c r="F353" s="18"/>
       <c r="G353" s="18"/>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="8" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
@@ -6906,7 +7264,7 @@
       <c r="F354" s="16"/>
       <c r="G354" s="16"/>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="17" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
@@ -6918,7 +7276,7 @@
       <c r="F355" s="18"/>
       <c r="G355" s="18"/>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="8" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
@@ -6930,7 +7288,7 @@
       <c r="F356" s="16"/>
       <c r="G356" s="16"/>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="17" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
@@ -6942,7 +7300,7 @@
       <c r="F357" s="18"/>
       <c r="G357" s="18"/>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="8" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
@@ -6954,7 +7312,7 @@
       <c r="F358" s="16"/>
       <c r="G358" s="16"/>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="17" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
@@ -6966,7 +7324,7 @@
       <c r="F359" s="18"/>
       <c r="G359" s="18"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="8" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
@@ -6978,7 +7336,7 @@
       <c r="F360" s="16"/>
       <c r="G360" s="16"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="17" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
@@ -6990,7 +7348,7 @@
       <c r="F361" s="18"/>
       <c r="G361" s="18"/>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="8" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
@@ -7002,7 +7360,7 @@
       <c r="F362" s="16"/>
       <c r="G362" s="16"/>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="17" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
@@ -7014,7 +7372,7 @@
       <c r="F363" s="18"/>
       <c r="G363" s="18"/>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="8" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
@@ -7026,7 +7384,7 @@
       <c r="F364" s="16"/>
       <c r="G364" s="16"/>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="17" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
@@ -7038,7 +7396,7 @@
       <c r="F365" s="18"/>
       <c r="G365" s="18"/>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="8" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
@@ -7050,7 +7408,7 @@
       <c r="F366" s="16"/>
       <c r="G366" s="16"/>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="17" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
@@ -7062,7 +7420,7 @@
       <c r="F367" s="18"/>
       <c r="G367" s="18"/>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="8" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
@@ -7074,7 +7432,7 @@
       <c r="F368" s="16"/>
       <c r="G368" s="16"/>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="17" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
@@ -7086,7 +7444,7 @@
       <c r="F369" s="18"/>
       <c r="G369" s="18"/>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="8" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
@@ -7098,7 +7456,7 @@
       <c r="F370" s="16"/>
       <c r="G370" s="16"/>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="17" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
@@ -7110,7 +7468,7 @@
       <c r="F371" s="18"/>
       <c r="G371" s="18"/>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="8" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
@@ -7122,7 +7480,7 @@
       <c r="F372" s="16"/>
       <c r="G372" s="16"/>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="17" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
@@ -7134,7 +7492,7 @@
       <c r="F373" s="18"/>
       <c r="G373" s="18"/>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="8" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
@@ -7146,7 +7504,7 @@
       <c r="F374" s="16"/>
       <c r="G374" s="16"/>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="17" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
@@ -7158,7 +7516,7 @@
       <c r="F375" s="18"/>
       <c r="G375" s="18"/>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="8" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
@@ -7170,7 +7528,7 @@
       <c r="F376" s="16"/>
       <c r="G376" s="16"/>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="17" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
@@ -7182,7 +7540,7 @@
       <c r="F377" s="18"/>
       <c r="G377" s="18"/>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="8" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
@@ -7194,7 +7552,7 @@
       <c r="F378" s="16"/>
       <c r="G378" s="16"/>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="17" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
@@ -7206,7 +7564,7 @@
       <c r="F379" s="18"/>
       <c r="G379" s="18"/>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="8" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
@@ -7218,7 +7576,7 @@
       <c r="F380" s="16"/>
       <c r="G380" s="16"/>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="17" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
@@ -7230,7 +7588,7 @@
       <c r="F381" s="18"/>
       <c r="G381" s="18"/>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="8" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
@@ -7242,7 +7600,7 @@
       <c r="F382" s="16"/>
       <c r="G382" s="16"/>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="17" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
@@ -7254,7 +7612,7 @@
       <c r="F383" s="18"/>
       <c r="G383" s="18"/>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="8" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
@@ -7266,7 +7624,7 @@
       <c r="F384" s="16"/>
       <c r="G384" s="16"/>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="17" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
@@ -7278,7 +7636,7 @@
       <c r="F385" s="18"/>
       <c r="G385" s="18"/>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="8" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
@@ -7290,7 +7648,7 @@
       <c r="F386" s="16"/>
       <c r="G386" s="16"/>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="17" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
@@ -7302,7 +7660,7 @@
       <c r="F387" s="18"/>
       <c r="G387" s="18"/>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="8" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
@@ -7314,7 +7672,7 @@
       <c r="F388" s="16"/>
       <c r="G388" s="16"/>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="17" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
@@ -7326,7 +7684,7 @@
       <c r="F389" s="18"/>
       <c r="G389" s="18"/>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="8" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
@@ -7338,7 +7696,7 @@
       <c r="F390" s="16"/>
       <c r="G390" s="16"/>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="17" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
@@ -7350,7 +7708,7 @@
       <c r="F391" s="18"/>
       <c r="G391" s="18"/>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="8" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
@@ -7362,7 +7720,7 @@
       <c r="F392" s="16"/>
       <c r="G392" s="16"/>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="17" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
@@ -7374,7 +7732,7 @@
       <c r="F393" s="18"/>
       <c r="G393" s="18"/>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="8" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
@@ -7386,7 +7744,7 @@
       <c r="F394" s="16"/>
       <c r="G394" s="16"/>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="17" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
@@ -7398,7 +7756,7 @@
       <c r="F395" s="18"/>
       <c r="G395" s="18"/>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="8" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
@@ -7410,7 +7768,7 @@
       <c r="F396" s="16"/>
       <c r="G396" s="16"/>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="17" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
@@ -7422,7 +7780,7 @@
       <c r="F397" s="18"/>
       <c r="G397" s="18"/>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="8" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
@@ -7434,7 +7792,7 @@
       <c r="F398" s="16"/>
       <c r="G398" s="16"/>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="17" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
@@ -7446,7 +7804,7 @@
       <c r="F399" s="18"/>
       <c r="G399" s="18"/>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="8" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
@@ -7458,7 +7816,7 @@
       <c r="F400" s="16"/>
       <c r="G400" s="16"/>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="17" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
@@ -7470,7 +7828,7 @@
       <c r="F401" s="18"/>
       <c r="G401" s="18"/>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="8" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
@@ -7482,7 +7840,7 @@
       <c r="F402" s="16"/>
       <c r="G402" s="16"/>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="17" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
@@ -7494,7 +7852,7 @@
       <c r="F403" s="18"/>
       <c r="G403" s="18"/>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="8" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
@@ -7506,7 +7864,7 @@
       <c r="F404" s="16"/>
       <c r="G404" s="16"/>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="17" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
@@ -7518,7 +7876,7 @@
       <c r="F405" s="18"/>
       <c r="G405" s="18"/>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="8" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
@@ -7530,7 +7888,7 @@
       <c r="F406" s="16"/>
       <c r="G406" s="16"/>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="17" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
@@ -7542,7 +7900,7 @@
       <c r="F407" s="18"/>
       <c r="G407" s="18"/>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="8" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
@@ -7554,7 +7912,7 @@
       <c r="F408" s="16"/>
       <c r="G408" s="16"/>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="17" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
@@ -7566,7 +7924,7 @@
       <c r="F409" s="18"/>
       <c r="G409" s="18"/>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="8" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
@@ -7578,7 +7936,7 @@
       <c r="F410" s="16"/>
       <c r="G410" s="16"/>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="17" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
@@ -7590,7 +7948,7 @@
       <c r="F411" s="18"/>
       <c r="G411" s="18"/>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="8" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
@@ -7602,7 +7960,7 @@
       <c r="F412" s="16"/>
       <c r="G412" s="16"/>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="17" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
@@ -7614,7 +7972,7 @@
       <c r="F413" s="18"/>
       <c r="G413" s="18"/>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="8" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
@@ -7626,7 +7984,7 @@
       <c r="F414" s="16"/>
       <c r="G414" s="16"/>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="17" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
@@ -7638,7 +7996,7 @@
       <c r="F415" s="18"/>
       <c r="G415" s="18"/>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="8" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
@@ -7650,7 +8008,7 @@
       <c r="F416" s="16"/>
       <c r="G416" s="16"/>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="17" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
@@ -7662,7 +8020,7 @@
       <c r="F417" s="18"/>
       <c r="G417" s="18"/>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="8" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
@@ -7674,7 +8032,7 @@
       <c r="F418" s="16"/>
       <c r="G418" s="16"/>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="17" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
@@ -7686,7 +8044,7 @@
       <c r="F419" s="18"/>
       <c r="G419" s="18"/>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="8" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
@@ -7698,7 +8056,7 @@
       <c r="F420" s="16"/>
       <c r="G420" s="16"/>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="17" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
@@ -7710,7 +8068,7 @@
       <c r="F421" s="18"/>
       <c r="G421" s="18"/>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="8" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
@@ -7722,7 +8080,7 @@
       <c r="F422" s="16"/>
       <c r="G422" s="16"/>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="17" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
@@ -7734,7 +8092,7 @@
       <c r="F423" s="18"/>
       <c r="G423" s="18"/>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="8" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
@@ -7746,7 +8104,7 @@
       <c r="F424" s="16"/>
       <c r="G424" s="16"/>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="17" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
@@ -7758,7 +8116,7 @@
       <c r="F425" s="18"/>
       <c r="G425" s="18"/>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="8" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
@@ -7770,7 +8128,7 @@
       <c r="F426" s="16"/>
       <c r="G426" s="16"/>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="17" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
@@ -7782,7 +8140,7 @@
       <c r="F427" s="18"/>
       <c r="G427" s="18"/>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="8" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
@@ -7794,7 +8152,7 @@
       <c r="F428" s="16"/>
       <c r="G428" s="16"/>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="17" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
@@ -7806,7 +8164,7 @@
       <c r="F429" s="18"/>
       <c r="G429" s="18"/>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="8" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
@@ -7818,7 +8176,7 @@
       <c r="F430" s="16"/>
       <c r="G430" s="16"/>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="17" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
@@ -7830,7 +8188,7 @@
       <c r="F431" s="18"/>
       <c r="G431" s="18"/>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="8" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
@@ -7842,7 +8200,7 @@
       <c r="F432" s="16"/>
       <c r="G432" s="16"/>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="17" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
@@ -7854,7 +8212,7 @@
       <c r="F433" s="18"/>
       <c r="G433" s="18"/>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="8" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
@@ -7866,7 +8224,7 @@
       <c r="F434" s="16"/>
       <c r="G434" s="16"/>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="17" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
@@ -7878,7 +8236,7 @@
       <c r="F435" s="18"/>
       <c r="G435" s="18"/>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="8" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
@@ -7890,7 +8248,7 @@
       <c r="F436" s="16"/>
       <c r="G436" s="16"/>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="17" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
@@ -7902,7 +8260,7 @@
       <c r="F437" s="18"/>
       <c r="G437" s="18"/>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="8" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
@@ -7914,7 +8272,7 @@
       <c r="F438" s="16"/>
       <c r="G438" s="16"/>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="17" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
@@ -7926,7 +8284,7 @@
       <c r="F439" s="18"/>
       <c r="G439" s="18"/>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="8" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
@@ -7938,7 +8296,7 @@
       <c r="F440" s="16"/>
       <c r="G440" s="16"/>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="17" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
@@ -7950,7 +8308,7 @@
       <c r="F441" s="18"/>
       <c r="G441" s="18"/>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="8" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
@@ -7962,7 +8320,7 @@
       <c r="F442" s="16"/>
       <c r="G442" s="16"/>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="17" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
@@ -7974,7 +8332,7 @@
       <c r="F443" s="18"/>
       <c r="G443" s="18"/>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="8" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
@@ -7986,7 +8344,7 @@
       <c r="F444" s="16"/>
       <c r="G444" s="16"/>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="17" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
@@ -7998,7 +8356,7 @@
       <c r="F445" s="18"/>
       <c r="G445" s="18"/>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="8" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
@@ -8010,7 +8368,7 @@
       <c r="F446" s="16"/>
       <c r="G446" s="16"/>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="17" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
@@ -8022,7 +8380,7 @@
       <c r="F447" s="18"/>
       <c r="G447" s="18"/>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="8" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
@@ -8034,7 +8392,7 @@
       <c r="F448" s="16"/>
       <c r="G448" s="16"/>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="17" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
@@ -8046,7 +8404,7 @@
       <c r="F449" s="18"/>
       <c r="G449" s="18"/>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="8" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
@@ -8058,7 +8416,7 @@
       <c r="F450" s="16"/>
       <c r="G450" s="16"/>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="17" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
@@ -8070,7 +8428,7 @@
       <c r="F451" s="18"/>
       <c r="G451" s="18"/>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="8" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
@@ -8082,7 +8440,7 @@
       <c r="F452" s="16"/>
       <c r="G452" s="16"/>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="17" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
@@ -8094,7 +8452,7 @@
       <c r="F453" s="18"/>
       <c r="G453" s="18"/>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="8" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
@@ -8106,7 +8464,7 @@
       <c r="F454" s="16"/>
       <c r="G454" s="16"/>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="17" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
@@ -8118,7 +8476,7 @@
       <c r="F455" s="18"/>
       <c r="G455" s="18"/>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="8" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
@@ -8130,7 +8488,7 @@
       <c r="F456" s="16"/>
       <c r="G456" s="16"/>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="17" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
@@ -8142,7 +8500,7 @@
       <c r="F457" s="18"/>
       <c r="G457" s="18"/>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="8" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
@@ -8154,7 +8512,7 @@
       <c r="F458" s="16"/>
       <c r="G458" s="16"/>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="17" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
@@ -8166,7 +8524,7 @@
       <c r="F459" s="18"/>
       <c r="G459" s="18"/>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="8" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
@@ -8178,7 +8536,7 @@
       <c r="F460" s="16"/>
       <c r="G460" s="16"/>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="17" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
@@ -8190,7 +8548,7 @@
       <c r="F461" s="18"/>
       <c r="G461" s="18"/>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="8" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
@@ -8202,7 +8560,7 @@
       <c r="F462" s="16"/>
       <c r="G462" s="16"/>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="17" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
@@ -8214,7 +8572,7 @@
       <c r="F463" s="18"/>
       <c r="G463" s="18"/>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="8" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
@@ -8226,7 +8584,7 @@
       <c r="F464" s="16"/>
       <c r="G464" s="16"/>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="17" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
@@ -8238,7 +8596,7 @@
       <c r="F465" s="18"/>
       <c r="G465" s="18"/>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="8" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
@@ -8250,7 +8608,7 @@
       <c r="F466" s="16"/>
       <c r="G466" s="16"/>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="17" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
@@ -8262,7 +8620,7 @@
       <c r="F467" s="18"/>
       <c r="G467" s="18"/>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="8" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
@@ -8274,7 +8632,7 @@
       <c r="F468" s="16"/>
       <c r="G468" s="16"/>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="17" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
@@ -8286,7 +8644,7 @@
       <c r="F469" s="18"/>
       <c r="G469" s="18"/>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="8" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
@@ -8298,7 +8656,7 @@
       <c r="F470" s="16"/>
       <c r="G470" s="16"/>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="17" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
@@ -8310,7 +8668,7 @@
       <c r="F471" s="18"/>
       <c r="G471" s="18"/>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="8" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
@@ -8322,7 +8680,7 @@
       <c r="F472" s="16"/>
       <c r="G472" s="16"/>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="17" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
@@ -8334,7 +8692,7 @@
       <c r="F473" s="18"/>
       <c r="G473" s="18"/>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="8" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
@@ -8346,7 +8704,7 @@
       <c r="F474" s="16"/>
       <c r="G474" s="16"/>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="17" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
@@ -8358,7 +8716,7 @@
       <c r="F475" s="18"/>
       <c r="G475" s="18"/>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="8" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
@@ -8370,7 +8728,7 @@
       <c r="F476" s="16"/>
       <c r="G476" s="16"/>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="17" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
@@ -8382,7 +8740,7 @@
       <c r="F477" s="18"/>
       <c r="G477" s="18"/>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="8" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
@@ -8394,7 +8752,7 @@
       <c r="F478" s="16"/>
       <c r="G478" s="16"/>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="17" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
@@ -8406,7 +8764,7 @@
       <c r="F479" s="18"/>
       <c r="G479" s="18"/>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="8" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
@@ -8418,7 +8776,7 @@
       <c r="F480" s="16"/>
       <c r="G480" s="16"/>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="17" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
@@ -8430,7 +8788,7 @@
       <c r="F481" s="18"/>
       <c r="G481" s="18"/>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="8" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
@@ -8442,7 +8800,7 @@
       <c r="F482" s="16"/>
       <c r="G482" s="16"/>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="17" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
@@ -8454,7 +8812,7 @@
       <c r="F483" s="18"/>
       <c r="G483" s="18"/>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="8" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
@@ -8466,7 +8824,7 @@
       <c r="F484" s="16"/>
       <c r="G484" s="16"/>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="17" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
@@ -8478,7 +8836,7 @@
       <c r="F485" s="18"/>
       <c r="G485" s="18"/>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="8" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
@@ -8490,7 +8848,7 @@
       <c r="F486" s="16"/>
       <c r="G486" s="16"/>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="17" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
@@ -8502,7 +8860,7 @@
       <c r="F487" s="18"/>
       <c r="G487" s="18"/>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="8" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
@@ -8514,7 +8872,7 @@
       <c r="F488" s="16"/>
       <c r="G488" s="16"/>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="17" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
@@ -8526,7 +8884,7 @@
       <c r="F489" s="18"/>
       <c r="G489" s="18"/>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="8" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
@@ -8538,7 +8896,7 @@
       <c r="F490" s="16"/>
       <c r="G490" s="16"/>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="17" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
@@ -8550,7 +8908,7 @@
       <c r="F491" s="18"/>
       <c r="G491" s="18"/>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="8" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
@@ -8562,7 +8920,7 @@
       <c r="F492" s="16"/>
       <c r="G492" s="16"/>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="17" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
@@ -8574,7 +8932,7 @@
       <c r="F493" s="18"/>
       <c r="G493" s="18"/>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="8" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
@@ -8586,7 +8944,7 @@
       <c r="F494" s="16"/>
       <c r="G494" s="16"/>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="17" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
@@ -8598,7 +8956,7 @@
       <c r="F495" s="18"/>
       <c r="G495" s="18"/>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="8" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
@@ -8610,7 +8968,7 @@
       <c r="F496" s="16"/>
       <c r="G496" s="16"/>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="17" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
@@ -8622,7 +8980,7 @@
       <c r="F497" s="18"/>
       <c r="G497" s="18"/>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="8" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
@@ -8634,7 +8992,7 @@
       <c r="F498" s="16"/>
       <c r="G498" s="16"/>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="17" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
@@ -8646,7 +9004,7 @@
       <c r="F499" s="18"/>
       <c r="G499" s="18"/>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="8" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
@@ -8658,7 +9016,7 @@
       <c r="F500" s="16"/>
       <c r="G500" s="16"/>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="17" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
@@ -8670,7 +9028,7 @@
       <c r="F501" s="18"/>
       <c r="G501" s="18"/>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="8" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
@@ -8682,7 +9040,7 @@
       <c r="F502" s="16"/>
       <c r="G502" s="16"/>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="17" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
@@ -8694,7 +9052,7 @@
       <c r="F503" s="18"/>
       <c r="G503" s="18"/>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="8" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
@@ -8706,7 +9064,7 @@
       <c r="F504" s="16"/>
       <c r="G504" s="16"/>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="17" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
@@ -8718,7 +9076,7 @@
       <c r="F505" s="18"/>
       <c r="G505" s="18"/>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="8" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
@@ -8730,7 +9088,7 @@
       <c r="F506" s="16"/>
       <c r="G506" s="16"/>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="17" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
@@ -8742,7 +9100,7 @@
       <c r="F507" s="18"/>
       <c r="G507" s="18"/>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="8" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
@@ -8754,7 +9112,7 @@
       <c r="F508" s="16"/>
       <c r="G508" s="16"/>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="17" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
@@ -8766,7 +9124,7 @@
       <c r="F509" s="18"/>
       <c r="G509" s="18"/>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="8" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
@@ -8778,7 +9136,7 @@
       <c r="F510" s="16"/>
       <c r="G510" s="16"/>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="17" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
@@ -8790,7 +9148,7 @@
       <c r="F511" s="18"/>
       <c r="G511" s="18"/>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="8" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
@@ -8802,7 +9160,7 @@
       <c r="F512" s="16"/>
       <c r="G512" s="16"/>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="17" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
@@ -8814,7 +9172,7 @@
       <c r="F513" s="18"/>
       <c r="G513" s="18"/>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="8" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
@@ -8826,7 +9184,7 @@
       <c r="F514" s="16"/>
       <c r="G514" s="16"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="17" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
@@ -8838,7 +9196,7 @@
       <c r="F515" s="18"/>
       <c r="G515" s="18"/>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="8" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
@@ -8850,7 +9208,7 @@
       <c r="F516" s="16"/>
       <c r="G516" s="16"/>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="17" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
@@ -8862,7 +9220,7 @@
       <c r="F517" s="18"/>
       <c r="G517" s="18"/>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="8" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
@@ -8874,7 +9232,7 @@
       <c r="F518" s="16"/>
       <c r="G518" s="16"/>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="17" t="str">
         <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
         <v/>
@@ -8886,7 +9244,7 @@
       <c r="F519" s="18"/>
       <c r="G519" s="18"/>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="8" t="str">
         <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
         <v/>
@@ -8898,7 +9256,7 @@
       <c r="F520" s="16"/>
       <c r="G520" s="16"/>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="17" t="str">
         <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
         <v/>
@@ -8910,7 +9268,7 @@
       <c r="F521" s="18"/>
       <c r="G521" s="18"/>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="8" t="str">
         <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
         <v/>
@@ -8922,7 +9280,7 @@
       <c r="F522" s="16"/>
       <c r="G522" s="16"/>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="17" t="str">
         <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
         <v/>
@@ -8934,7 +9292,7 @@
       <c r="F523" s="18"/>
       <c r="G523" s="18"/>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="8" t="str">
         <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
         <v/>
@@ -8946,7 +9304,7 @@
       <c r="F524" s="16"/>
       <c r="G524" s="16"/>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="17" t="str">
         <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
         <v/>
@@ -8958,7 +9316,7 @@
       <c r="F525" s="18"/>
       <c r="G525" s="18"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="8" t="str">
         <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
         <v/>
@@ -8970,7 +9328,7 @@
       <c r="F526" s="16"/>
       <c r="G526" s="16"/>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="17" t="str">
         <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
         <v/>
@@ -8982,7 +9340,7 @@
       <c r="F527" s="18"/>
       <c r="G527" s="18"/>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="8" t="str">
         <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
         <v/>
@@ -8994,7 +9352,7 @@
       <c r="F528" s="16"/>
       <c r="G528" s="16"/>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="17" t="str">
         <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
         <v/>
@@ -9006,7 +9364,7 @@
       <c r="F529" s="18"/>
       <c r="G529" s="18"/>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="8" t="str">
         <f>IF(ISBLANK(B530),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B530))</f>
         <v/>
@@ -9018,7 +9376,7 @@
       <c r="F530" s="16"/>
       <c r="G530" s="16"/>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="17" t="str">
         <f>IF(ISBLANK(B531),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B531))</f>
         <v/>
@@ -9030,7 +9388,7 @@
       <c r="F531" s="18"/>
       <c r="G531" s="18"/>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.5">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="8" t="str">
         <f>IF(ISBLANK(B532),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B532))</f>
         <v/>
@@ -9043,35 +9401,62 @@
       <c r="G532" s="16"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="WocEVrSnlrnipfCRKWfJOWvVHhUwliA4sl7OFZQcnsclg1+/2zTGJR+vWYrrc9RHa1JiIfS2mDWF3//I8pwZ9g==" saltValue="/43tQAugN0SUcpU1aj1cvg==" spinCount="100000" sheet="1" insertHyperlinks="0" sort="0" autoFilter="0"/>
+  <sheetProtection insertHyperlinks="0" sort="0" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E532">
-    <cfRule type="expression" dxfId="7" priority="1">
+  <phoneticPr fontId="13" type="noConversion"/>
+  <conditionalFormatting sqref="E7:E55 E75:E532">
+    <cfRule type="expression" dxfId="32" priority="9">
       <formula>$E7="Autre"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="10" stopIfTrue="1">
       <formula>$E7="Design"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="11" stopIfTrue="1">
       <formula>$E7="Présentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="12" stopIfTrue="1">
       <formula>$E7="Meeting"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="13" stopIfTrue="1">
       <formula>$E7="Documentation"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="14" stopIfTrue="1">
       <formula>$E7="Test"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="15" stopIfTrue="1">
       <formula>$E7="Analyse"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="17" stopIfTrue="1">
       <formula>$E7="Développement"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56:E74">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>$E56="Autre"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+      <formula>$E56="Design"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="3" stopIfTrue="1">
+      <formula>$E56="Présentation"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+      <formula>$E56="Meeting"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
+      <formula>$E56="Documentation"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="6" stopIfTrue="1">
+      <formula>$E56="Test"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
+      <formula>$E56="Analyse"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+      <formula>$E56="Développement"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
@@ -9102,7 +9487,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="10.875" hidden="1" customWidth="1"/>
@@ -9110,7 +9495,7 @@
     <col min="4" max="4" width="13.5" style="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -9124,14 +9509,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>60</v>
       </c>
       <c r="B4">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C4,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C4" s="26" t="str">
         <f>'Journal de travail'!M8</f>
@@ -9139,17 +9524,17 @@
       </c>
       <c r="D4" s="34">
         <f>(A4+B4)/1440</f>
-        <v>4.1666666666666664E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>5.2083333333333336E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>480</v>
       </c>
       <c r="B5">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C5,'Journal de travail'!$D$7:$D$532)</f>
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="C5" s="42" t="str">
         <f>'Journal de travail'!M9</f>
@@ -9157,17 +9542,17 @@
       </c>
       <c r="D5" s="34">
         <f t="shared" ref="D5:D11" si="0">(A5+B5)/1440</f>
-        <v>0.73263888888888884</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.80208333333333337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
       </c>
       <c r="B6">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C6,'Journal de travail'!$D$7:$D$532)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C6" s="27" t="str">
         <f>'Journal de travail'!M10</f>
@@ -9175,17 +9560,17 @@
       </c>
       <c r="D6" s="34">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>3.4722222222222224E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$C$7:$C$532)*60</f>
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="B7">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C7,'Journal de travail'!$D$7:$D$532)</f>
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="C7" s="28" t="str">
         <f>'Journal de travail'!M11</f>
@@ -9193,10 +9578,10 @@
       </c>
       <c r="D7" s="34">
         <f t="shared" si="0"/>
-        <v>6.5972222222222224E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>0.25347222222222221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C8,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -9214,7 +9599,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C9,'Journal de travail'!$C$7:$C$532)*60</f>
         <v>0</v>
@@ -9232,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C10,'Journal de travail'!$D$7:$D$532)</f>
         <v>0</v>
@@ -9246,7 +9631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
         <f>SUMIF('Journal de travail'!$E$7:$E$532,Analyse!C11,'Journal de travail'!$D$7:$D$532)</f>
         <v>100</v>
@@ -9260,16 +9645,16 @@
         <v>6.9444444444444448E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="35">
         <f>SUM(D4:D11)</f>
-        <v>0.9409722222222221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2430555555555556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D14" s="39"/>
     </row>
   </sheetData>
@@ -9289,17 +9674,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9522,6 +9896,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="be0d3259-a7ce-4623-88ec-81594dfcbc1c" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="99ffe1f3-7857-457f-add0-5bdef636f38d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
   <ds:schemaRefs>
@@ -9531,17 +9916,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
-    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9558,4 +9932,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="be0d3259-a7ce-4623-88ec-81594dfcbc1c"/>
+    <ds:schemaRef ds:uri="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>